--- a/piForHo222222企業.xlsx
+++ b/piForHo222222企業.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\my_First_Excelize\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>NO. 18, DIANZHONG RD.,XIAOGANG DIST., KAOHSIUNG CITY, TAIWAN R.O.C. 81248</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>SIZE</t>
-  </si>
-  <si>
-    <t>QUANTITY</t>
   </si>
   <si>
     <t>UNIT PRICE</t>
@@ -243,23 +240,37 @@
   </si>
   <si>
     <t>PS220404406</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PROMETAL INTERNATIONAL CO., LTD</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> A) In case of quality discrepancy claim should be filled by the Buyer within 30days after the arrival the goods at port of destination while for quantity discrepancy claim should be</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Seller:</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho222222企業</t>
+  </si>
+  <si>
+    <t>update 0906</t>
+  </si>
+  <si>
+    <t>A) 10% Advance T/T Should Be Remmited in 3 Days after Confirming Proforma Invoice
+B) Balance 90% T/T Should Be Remitted Against Copy of B/L</t>
   </si>
   <si>
     <t xml:space="preserve"> A) In case of quality discrepancy claim should be filled by the Buyer within 30days after the arrival the goods at port of destination while for quantity discrepancy claim should be filled by the Buyer within 15days after the arrival the goods at port of destination. It is understood that the Seller shall not be liable for any discrepancy of goods shipped due to causes for which the Insurance Company, Shipping Company, other transportation organization or post Office are liable.
@@ -276,7 +287,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -287,14 +298,17 @@
       <sz val="28"/>
       <color rgb="FF7F7F7F"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -302,16 +316,7 @@
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="PMingLiu"/>
       <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -345,17 +350,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -367,11 +361,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -380,9 +369,34 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -510,35 +524,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
@@ -553,13 +555,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -571,40 +567,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -613,47 +585,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -661,65 +612,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,10 +1085,10 @@
     <outlinePr summaryBelow="false" summaryRight="false" showOutlineSymbols="false"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:O993"/>
+  <dimension ref="A1:O994"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
@@ -1105,64 +1110,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="81.75" customHeight="true">
-      <c r="A1" s="58" t="str">
+      <c r="A1" s="35" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="true">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="3" customHeight="true">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1176,23 +1181,23 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="4.5" customHeight="true">
       <c r="A6" s="1"/>
@@ -1206,1086 +1211,1099 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
-      <c r="A7" s="64" t="s">
-        <v>73</v>
+      <c r="A7" s="26" t="s">
+        <v>72</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="25" t="s">
-        <v>70</v>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28" t="s">
+        <v>69</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="63" t="s">
-        <v>69</v>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43" t="s">
+        <v>68</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15" ht="16.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="16.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="54" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="56" t="s">
-        <v>46</v>
+      <c r="H9" s="42"/>
+      <c r="I9" s="45" t="s">
+        <v>45</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="16.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="16.5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" ht="9.75" customHeight="true">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:15" ht="9.75" customHeight="true">
-      <c r="A13" s="1"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A15" s="2"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.75" customHeight="true">
-      <c r="A17" s="48" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A17" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="48" t="s">
+      <c r="K17" s="48"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A18" s="51"/>
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="46"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="true">
-      <c r="A18" s="52"/>
-      <c r="B18" s="28" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="28" t="s">
+      <c r="G18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53" t="s">
+      <c r="K18" s="51"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5">
+      <c r="A19" s="19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19">
+        <v>12</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2175</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="24">
+        <v>26100</v>
+      </c>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5">
+      <c r="A20" s="19">
+        <v>2</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
+        <v>4</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2190</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="19">
+        <v>8760</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5">
+      <c r="A21" s="19">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2390</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="19">
+        <v>11950</v>
+      </c>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5">
+      <c r="A22" s="19">
+        <v>4</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
+        <v>4</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2300</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="19">
+        <v>9200</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="32"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="true">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>1</v>
+      <c r="F24" s="23">
+        <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17">
+        <v>56010</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="32"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="32"/>
+    </row>
+    <row r="26" spans="1:15" ht="9" customHeight="true">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="32"/>
+    </row>
+    <row r="27" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A27" s="26" t="s">
+        <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>2175</v>
-      </c>
-      <c r="J19">
-        <v>26100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>2390</v>
-      </c>
-      <c r="J20">
-        <v>11950</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <v>2300</v>
-      </c>
-      <c r="J21">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>2190</v>
-      </c>
-      <c r="J22">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16.5">
-      <c r="A23" s="33">
-        <v>1</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33">
-        <v>12</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="69">
-        <v>2175</v>
-      </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="69">
-        <v>26100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16.5">
-      <c r="A24" s="33">
-        <v>3</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33">
-        <v>5</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="33">
-        <v>2390</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="33">
-        <v>11950</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.5">
-      <c r="A25" s="33">
-        <v>4</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33">
-        <v>4</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="33">
-        <v>2300</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="33">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.5">
-      <c r="A26" s="33">
-        <v>2</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33">
-        <v>4</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="33">
-        <v>2190</v>
-      </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="33">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="true">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65" t="s">
+      <c r="O27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="32"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A29" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66" t="s">
-        <v>23</v>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="32"/>
+    </row>
+    <row r="30" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A30" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" ht="9" customHeight="true">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="32"/>
+    </row>
+    <row r="31" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A31" s="4" t="s">
-        <v>24</v>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="32"/>
+    </row>
+    <row r="32" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A32" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="50" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A32" s="4" t="s">
-        <v>25</v>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="32"/>
+    </row>
+    <row r="33" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A33" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="50" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A33" s="4" t="s">
-        <v>26</v>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="32"/>
+    </row>
+    <row r="34" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A34" s="26" t="s">
+        <v>30</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A34" s="4" t="s">
-        <v>27</v>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="32"/>
+    </row>
+    <row r="35" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A35" s="26" t="s">
+        <v>31</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A35" s="4" t="s">
-        <v>28</v>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="32"/>
+    </row>
+    <row r="36" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A36" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A36" s="4" t="s">
-        <v>29</v>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A37" s="49" t="s">
+        <v>33</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="36" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="32"/>
+    </row>
+    <row r="38" spans="1:15" s="15" customFormat="true" ht="13.5" customHeight="true">
+      <c r="A38" s="49"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="32"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="true">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="32"/>
+    </row>
+    <row r="40" spans="1:15" ht="7.5" customHeight="true" thickBot="true">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="32"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A41" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A37" s="4" t="s">
-        <v>30</v>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="32"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A42" s="31" t="s">
+        <v>35</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="13.5" customHeight="true">
-      <c r="A41" s="36" t="s">
-        <v>34</v>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="32"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A43" s="31" t="s">
+        <v>36</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="51" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" s="22" customFormat="true" ht="13.5" customHeight="true">
-      <c r="A42" s="36"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="34" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="32"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A44" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="true">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="51" t="s">
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="32"/>
+    </row>
+    <row r="45" spans="1:15" ht="17.25" thickBot="true">
+      <c r="A45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="7.5" customHeight="true" thickBot="true">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
-        <v>68</v>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="32"/>
+    </row>
+    <row r="46" spans="1:15" s="15" customFormat="true" ht="4.5" customHeight="true">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="32"/>
+    </row>
+    <row r="47" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A47" s="34" t="s">
+        <v>39</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A45" s="14" t="s">
-        <v>35</v>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="32"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="66" t="s">
+        <v>77</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="37" t="s">
-        <v>64</v>
+    </row>
+    <row r="49">
+      <c r="A49" s="66"/>
+    </row>
+    <row r="50" spans="1:15" s="15" customFormat="true" ht="12.75" customHeight="true">
+      <c r="A50" s="66" t="s">
+        <v>70</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A46" s="16" t="s">
-        <v>36</v>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+    </row>
+    <row r="51" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A51" s="66"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A52" s="66"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="32"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A53" s="14" t="s">
+        <v>40</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="32"/>
+    </row>
+    <row r="54" spans="1:15" s="20" customFormat="true" ht="15.75" customHeight="true">
+      <c r="A54" s="14"/>
+      <c r="B54" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="32"/>
+    </row>
+    <row r="55" spans="1:15" ht="67.5" customHeight="true">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="32"/>
+    </row>
+    <row r="56" spans="1:15" ht="24.75" customHeight="true">
+      <c r="A56" s="32"/>
+      <c r="B56" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A48" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" ht="17.25" thickBot="true">
-      <c r="A49" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="25"/>
-    </row>
-    <row r="50" spans="1:14" s="22" customFormat="true" ht="4.5" customHeight="true">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-    </row>
-    <row r="51" spans="1:14" ht="12.75" customHeight="true">
-      <c r="A51" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="24"/>
-    </row>
-    <row r="52" spans="1:14" s="22" customFormat="true" ht="12.75" customHeight="true">
-      <c r="A52" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-    </row>
-    <row r="53" spans="1:14" ht="12.75" customHeight="true">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="24"/>
-    </row>
-    <row r="54" spans="1:14" ht="12.75" customHeight="true">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A55" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" ht="67.5" customHeight="true">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" ht="24.75" customHeight="true">
-      <c r="B57" s="45" t="str">
-        <f>C7</f>
-        <v>PROMETAL INTERNATIONAL CO., LTD</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="45">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="true">
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="32"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="32"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="32"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="32"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="true">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2301,7 +2319,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="true">
+    <row r="61" spans="1:15" ht="15.75" customHeight="true">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2317,7 +2335,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="true">
+    <row r="62" spans="1:15" ht="15.75" customHeight="true">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2333,7 +2351,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="true">
+    <row r="63" spans="1:15" ht="15.75" customHeight="true">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2349,7 +2367,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="true">
+    <row r="64" spans="1:15" ht="15.75" customHeight="true">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2365,7 +2383,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="true">
+    <row r="65" spans="1:15" ht="15.75" customHeight="true">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2381,7 +2399,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="true">
+    <row r="66" spans="1:15" ht="15.75" customHeight="true">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -17277,66 +17295,48 @@
       <c r="M996" s="1"/>
       <c r="N996" s="1"/>
     </row>
-    <row r="997" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="38">
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A37:B39"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A41:B43"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C37:H39"/>
+    <mergeCell ref="A48:K52"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3:K3" display="Tel: +886 (7) 8060232  Fax: +886 (7) 8039592" r:id="rId1"/>
   </hyperlinks>

--- a/piForHo222222企業.xlsx
+++ b/piForHo222222企業.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="PI" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>NO. 18, DIANZHONG RD.,XIAOGANG DIST., KAOHSIUNG CITY, TAIWAN R.O.C. 81248</t>
   </si>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> A) In case of quality discrepancy claim should be filled by the Buyer within 30days after the arrival the goods at port of destination while for quantity discrepancy claim should be</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>USD</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -287,7 +283,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -383,6 +379,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -526,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -570,9 +572,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -584,9 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
@@ -609,9 +605,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,6 +622,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -711,19 +710,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1087,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:O994"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="true" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
@@ -1110,56 +1109,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="81.75" customHeight="true">
-      <c r="A1" s="35" t="str">
+      <c r="A1" s="34" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="true">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1181,23 +1180,19 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="4.5" customHeight="true">
       <c r="A6" s="1"/>
@@ -1211,660 +1206,656 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
+      <c r="A10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
+      <c r="A11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" ht="9.75" customHeight="true">
+      <c r="A13" s="1"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A17" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28" t="s">
-        <v>69</v>
+      <c r="G17" s="49" t="s">
+        <v>15</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="41" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A18" s="50"/>
+      <c r="B18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5">
+      <c r="A19" s="18">
+        <v>1</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18">
+        <v>12</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="22">
+        <v>2175</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="22">
+        <v>26100</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5">
+      <c r="A20" s="18">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
+        <v>4</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2190</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="18">
+        <v>8760</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5">
+      <c r="A21" s="18">
         <v>3</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43" t="s">
-        <v>68</v>
+      <c r="B21" s="18" t="s">
+        <v>49</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5">
-      <c r="A9" s="26" t="s">
+      <c r="C21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>5</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2390</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="18">
+        <v>11950</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5">
+      <c r="A22" s="18">
         <v>4</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="43" t="s">
-        <v>74</v>
+      <c r="B22" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5">
-      <c r="A10" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5">
-      <c r="A11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5">
-      <c r="A12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="1:15" ht="9.75" customHeight="true">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A17" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A18" s="51"/>
-      <c r="B18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>48</v>
+      <c r="D22" s="18" t="s">
+        <v>52</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19">
-        <v>12</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="24">
-        <v>2175</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="24">
-        <v>26100</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5">
-      <c r="A20" s="19">
-        <v>2</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
         <v>4</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>71</v>
+      <c r="G22" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="H20" s="19">
-        <v>2190</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="19">
-        <v>8760</v>
-      </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5">
-      <c r="A21" s="19">
-        <v>3</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="19">
-        <v>2390</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="19">
-        <v>11950</v>
-      </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.5">
-      <c r="A22" s="19">
-        <v>4</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
-        <v>4</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>2300</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
-        <v>71</v>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <v>9200</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15" ht="16.5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="true">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>25</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16">
         <v>56010</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="32"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="42"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="32"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="9" customHeight="true">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="32"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="43" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="29"/>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="32"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="32"/>
+      <c r="O30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="32"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="32"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="49" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="32"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="32"/>
+      <c r="O32" s="29"/>
     </row>
     <row r="33" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="32"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1874,18 +1865,18 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="32"/>
+      <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
@@ -1895,67 +1886,67 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="32"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="65" t="s">
-        <v>76</v>
+      <c r="B37" s="41"/>
+      <c r="C37" s="64" t="s">
+        <v>75</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" s="15" customFormat="true" ht="13.5" customHeight="true">
-      <c r="A38" s="49"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
+      <c r="O37" s="29"/>
+    </row>
+    <row r="38" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A38" s="48"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="32"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="true">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="32"/>
+      <c r="O39" s="29"/>
     </row>
     <row r="40" spans="1:15" ht="7.5" customHeight="true" thickBot="true">
       <c r="A40" s="9"/>
@@ -1972,336 +1963,334 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="32"/>
+      <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="32"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="32"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="32"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="32"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:15" ht="17.25" thickBot="true">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="32"/>
-    </row>
-    <row r="46" spans="1:15" s="15" customFormat="true" ht="4.5" customHeight="true">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="32"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="29"/>
+    </row>
+    <row r="46" spans="1:15" ht="4.5" customHeight="true">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="32"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="29"/>
     </row>
     <row r="48">
-      <c r="A48" s="66" t="s">
-        <v>77</v>
+      <c r="A48" s="65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="66"/>
-    </row>
-    <row r="50" spans="1:15" s="15" customFormat="true" ht="12.75" customHeight="true">
-      <c r="A50" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
+      <c r="A49" s="65"/>
+    </row>
+    <row r="50" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A50" s="65"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A51" s="66"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A52" s="66"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="32"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="29"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="true">
       <c r="A53" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="32"/>
-    </row>
-    <row r="54" spans="1:15" s="20" customFormat="true" ht="15.75" customHeight="true">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="29"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="true">
       <c r="A54" s="14"/>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="32"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="29"/>
     </row>
     <row r="55" spans="1:15" ht="67.5" customHeight="true">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="32"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="29"/>
     </row>
     <row r="56" spans="1:15" ht="24.75" customHeight="true">
-      <c r="A56" s="32"/>
-      <c r="B56" s="47" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="47" t="s">
-        <v>74</v>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="46" t="s">
+        <v>73</v>
       </c>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="32"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="29"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="32"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="29"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="32"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="29"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="32"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="29"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="true">
       <c r="A60" s="1"/>

--- a/piForHo222222企業.xlsx
+++ b/piForHo222222企業.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="PI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>NO. 18, DIANZHONG RD.,XIAOGANG DIST., KAOHSIUNG CITY, TAIWAN R.O.C. 81248</t>
   </si>
@@ -269,10 +256,16 @@
 B) Balance 90% T/T Should Be Remitted Against Copy of B/L</t>
   </si>
   <si>
-    <t xml:space="preserve"> A) In case of quality discrepancy claim should be filled by the Buyer within 30days after the arrival the goods at port of destination while for quantity discrepancy claim should be filled by the Buyer within 15days after the arrival the goods at port of destination. It is understood that the Seller shall not be liable for any discrepancy of goods shipped due to causes for which the Insurance Company, Shipping Company, other transportation organization or post Office are liable.
-B) The Seller shall not be held liable for failure or delay in delivery of the entire lot or a portion of the goods under this sales contract in consequence of any Force Majeure incidents.
-C) The Buyer is requested to sign and return one copy of this Sales Contract immediately after receipt of the same Objection, if any should be raised by the Buyer within five days after the receipt of this Sales Contract in the absence of which it is understood that the Buyer has accepted all the terms and conditions of this Sales Contract.
-D) The price is based on zero export tariff, additional cost shall be borne and paid by the buyer if the export tariff is adjusted by the Chinese government in the future.</t>
+    <t xml:space="preserve"> A) In case of quality discrepancy claim should be filled by the Buyer within 30days after the arrival the goods at port of destination while for quantity discrepancy claim should be filled by the Buyer within 15days after the arrival the goods at port of destination. It is understood that the Seller shall not be liable for any discrepancy of goods shipped due to causes for which the Insurance Company, Shipping Company, other transportation organization or post Office are liable.</t>
+  </si>
+  <si>
+    <t>B) The Seller shall not be held liable for failure or delay in delivery of the entire lot or a portion of the goods under this sales contract in consequence of any Force Majeure incidents.</t>
+  </si>
+  <si>
+    <t>C) The Buyer is requested to sign and return one copy of this Sales Contract immediately after receipt of the same Objection, if any should be raised by the Buyer within five days after the receipt of this Sales Contract in the absence of which it is understood that the Buyer has accepted all the terms and conditions of this Sales Contract.</t>
+  </si>
+  <si>
+    <t>D) The price is based on zero export tariff, additional cost shall be borne and paid by the buyer if the export tariff is adjusted by the Chinese government in the future.</t>
   </si>
 </sst>
 </file>
@@ -283,7 +276,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -378,25 +371,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8.5"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
@@ -528,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +553,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
@@ -605,6 +592,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,11 +613,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -689,15 +691,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -710,19 +703,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1084,10 +1077,10 @@
     <outlinePr summaryBelow="false" summaryRight="false" showOutlineSymbols="false"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:O994"/>
+  <dimension ref="A1:O993"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:K49"/>
+    <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
@@ -1109,56 +1102,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="81.75" customHeight="true">
-      <c r="A1" s="34" t="str">
+      <c r="A1" s="41" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="true">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1180,19 +1173,23 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="4.5" customHeight="true">
       <c r="A6" s="1"/>
@@ -1206,656 +1203,660 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="40" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15" ht="16.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="16.5">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="40" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="44" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="16.5">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
     </row>
     <row r="11" spans="1:15" ht="16.5">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="16.5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="24" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
     </row>
     <row r="13" spans="1:15" ht="9.75" customHeight="true">
-      <c r="A13" s="1"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="32"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="29"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="29"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="29"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="49" t="s">
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="29"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="32"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A18" s="50"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="57"/>
+      <c r="F18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51" t="s">
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="29"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="32"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="18">
+      <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19">
         <v>12</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="24">
         <v>2175</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22" t="s">
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="24">
         <v>26100</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="1:15" ht="16.5">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
         <v>4</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="19">
         <v>2190</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="19">
         <v>8760</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
     </row>
     <row r="21" spans="1:15" ht="16.5">
-      <c r="A21" s="18">
+      <c r="A21" s="19">
         <v>3</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19">
         <v>5</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="19">
         <v>2390</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
+      <c r="I21" s="19"/>
+      <c r="J21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="19">
         <v>11950</v>
       </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
     </row>
     <row r="22" spans="1:15" ht="16.5">
-      <c r="A22" s="18">
+      <c r="A22" s="19">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
         <v>4</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="19">
         <v>2300</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="19">
         <v>9200</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
     </row>
     <row r="23" spans="1:15" ht="16.5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="32"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="true">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="23">
         <v>25</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17">
         <v>56010</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="29"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="32"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="41"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="48"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="29"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="32"/>
     </row>
     <row r="26" spans="1:15" ht="9" customHeight="true">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="32"/>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="32"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="42" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="32"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="29"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="32"/>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="29"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="32"/>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="29"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="29"/>
+      <c r="O31" s="32"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="48" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="29"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="29"/>
+      <c r="O32" s="32"/>
     </row>
     <row r="33" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="29"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="29"/>
+      <c r="O33" s="32"/>
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="29"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="29"/>
+      <c r="O34" s="32"/>
     </row>
     <row r="35" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1865,18 +1866,18 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="29"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="29"/>
+      <c r="O35" s="32"/>
     </row>
     <row r="36" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
@@ -1886,67 +1887,67 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="29"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="29"/>
+      <c r="O36" s="32"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="64" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="29"/>
-    </row>
-    <row r="38" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A38" s="48"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
+      <c r="O37" s="32"/>
+    </row>
+    <row r="38" spans="1:15" s="15" customFormat="true" ht="13.5" customHeight="true">
+      <c r="A38" s="55"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="29"/>
+      <c r="O38" s="32"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="true">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="32"/>
     </row>
     <row r="40" spans="1:15" ht="7.5" customHeight="true" thickBot="true">
       <c r="A40" s="9"/>
@@ -1963,528 +1964,418 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="29"/>
+      <c r="O40" s="32"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="30" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="29"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="32"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="29"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="32"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="29"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="32"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="29"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="32"/>
     </row>
     <row r="45" spans="1:15" ht="17.25" thickBot="true">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="29"/>
-    </row>
-    <row r="46" spans="1:15" ht="4.5" customHeight="true">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="29"/>
-    </row>
-    <row r="47" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A47" s="31" t="s">
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="32"/>
+    </row>
+    <row r="46" spans="1:15" s="15" customFormat="true" ht="4.5" customHeight="true">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="32"/>
+    </row>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A49" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="29"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="65" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="32"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="69" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="65"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A50" s="65"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-    </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A51" s="65"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A52" s="65"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="29"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A53" s="14" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+    </row>
+    <row r="51" spans="1:15" s="37" customFormat="true" ht="12.75" customHeight="true">
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="36"/>
+    </row>
+    <row r="52" spans="1:15" s="40" customFormat="true" ht="12.75" customHeight="true">
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="39"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+    </row>
+    <row r="54"/>
+    <row r="55">
+      <c r="A55" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+    </row>
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+    </row>
+    <row r="60"/>
+    <row r="61">
+      <c r="A61" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+    </row>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A65" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="29"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A54" s="14"/>
-      <c r="B54" s="42" t="s">
-        <v>69</v>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="32"/>
+    </row>
+    <row r="66" spans="1:15" s="20" customFormat="true" ht="15.75" customHeight="true">
+      <c r="A66" s="14"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="32"/>
+    </row>
+    <row r="67" spans="1:15" ht="67.5" customHeight="true">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="32"/>
+    </row>
+    <row r="68" spans="1:15" ht="24.75" customHeight="true">
+      <c r="A68" s="32"/>
+      <c r="B68" s="53" t="str">
+        <f>C7</f>
+        <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="29"/>
-    </row>
-    <row r="55" spans="1:15" ht="67.5" customHeight="true">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="29"/>
-    </row>
-    <row r="56" spans="1:15" ht="24.75" customHeight="true">
-      <c r="A56" s="29"/>
-      <c r="B56" s="46" t="s">
-        <v>69</v>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="53">
+        <f>C9</f>
+        <v>0</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="29"/>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="29"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="29"/>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="29"/>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="true">
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="32"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="32"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="32"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="32"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="true">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2500,7 +2391,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="true">
+    <row r="73" spans="1:15" ht="15.75" customHeight="true">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2516,7 +2407,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="true">
+    <row r="74" spans="1:15" ht="15.75" customHeight="true">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2532,7 +2423,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="true">
+    <row r="75" spans="1:15" ht="15.75" customHeight="true">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2548,7 +2439,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="true">
+    <row r="76" spans="1:15" ht="15.75" customHeight="true">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2564,7 +2455,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75" customHeight="true">
+    <row r="77" spans="1:15" ht="15.75" customHeight="true">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2580,7 +2471,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="true">
+    <row r="78" spans="1:15" ht="15.75" customHeight="true">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2596,7 +2487,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="true">
+    <row r="79" spans="1:15" ht="15.75" customHeight="true">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -17284,8 +17175,200 @@
       <c r="M996" s="1"/>
       <c r="N996" s="1"/>
     </row>
+    <row r="997" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="1"/>
+      <c r="F997" s="1"/>
+      <c r="G997" s="1"/>
+      <c r="H997" s="1"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+      <c r="K997" s="1"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+    </row>
+    <row r="998" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="1"/>
+      <c r="F998" s="1"/>
+      <c r="G998" s="1"/>
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+    </row>
+    <row r="999" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
+      <c r="E999" s="1"/>
+      <c r="F999" s="1"/>
+      <c r="G999" s="1"/>
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+      <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
+    </row>
+    <row r="1000" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="1"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
@@ -17297,8 +17380,8 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="G68:K68"/>
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="I25:J25"/>
@@ -17310,7 +17393,7 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="G9:H9"/>
@@ -17323,7 +17406,10 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C37:H39"/>
-    <mergeCell ref="A48:K52"/>
+    <mergeCell ref="A50:K53"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A57:K59"/>
+    <mergeCell ref="A61:K61"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/piForHo222222企業.xlsx
+++ b/piForHo222222企業.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="5625"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="PI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -509,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -553,9 +566,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -567,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
@@ -592,9 +599,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,23 +617,68 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -647,69 +696,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
@@ -1079,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:O993"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="true" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
@@ -1102,56 +1088,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="81.75" customHeight="true">
-      <c r="A1" s="41" t="str">
+      <c r="A1" s="53" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="true">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1173,23 +1159,19 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="4.5" customHeight="true">
       <c r="A6" s="1"/>
@@ -1203,660 +1185,656 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="16.5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" ht="16.5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="16.5">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="47" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" ht="16.5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="55" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
     </row>
     <row r="11" spans="1:15" ht="16.5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15" ht="16.5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="9.75" customHeight="true">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="32"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="32"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="32"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="32"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="56" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="54"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="32"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A18" s="57"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="32"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>1</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18">
         <v>12</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <v>2175</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="22">
         <v>26100</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" ht="16.5">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>2</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
         <v>4</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>2190</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="18">
         <v>8760</v>
       </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15" ht="16.5">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
         <v>5</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>2390</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <v>11950</v>
       </c>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" ht="16.5">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
         <v>4</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>2300</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <v>9200</v>
       </c>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15" ht="16.5">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="true">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>25</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16">
         <v>56010</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="32"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="32"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="9" customHeight="true">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="32"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="49" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="32"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="49" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="29"/>
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="32"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="32"/>
+      <c r="O29" s="29"/>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="32"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="32"/>
+      <c r="O30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="32"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="32"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="32"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="32"/>
+      <c r="O32" s="29"/>
     </row>
     <row r="33" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="32"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="32"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="32"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="32"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="26"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
@@ -1866,18 +1844,18 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="32"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="32"/>
+      <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="26"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
@@ -1887,67 +1865,67 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="32"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="68" t="s">
+      <c r="B37" s="46"/>
+      <c r="C37" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" s="15" customFormat="true" ht="13.5" customHeight="true">
-      <c r="A38" s="55"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
+      <c r="O37" s="29"/>
+    </row>
+    <row r="38" spans="1:15" ht="13.5" customHeight="true">
+      <c r="A38" s="37"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="32"/>
+      <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="true">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="32"/>
+      <c r="O39" s="29"/>
     </row>
     <row r="40" spans="1:15" ht="7.5" customHeight="true" thickBot="true">
       <c r="A40" s="9"/>
@@ -1964,416 +1942,446 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="32"/>
+      <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="32"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="32"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="32"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="32"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:15" ht="17.25" thickBot="true">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="32"/>
-    </row>
-    <row r="46" spans="1:15" s="15" customFormat="true" ht="4.5" customHeight="true">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="32"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="29"/>
+    </row>
+    <row r="46" spans="1:15" ht="4.5" customHeight="true">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47"/>
     <row r="48"/>
     <row r="49" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="32"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="29"/>
     </row>
     <row r="50">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-    </row>
-    <row r="51" spans="1:15" s="37" customFormat="true" ht="12.75" customHeight="true">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="36"/>
-    </row>
-    <row r="52" spans="1:15" s="40" customFormat="true" ht="12.75" customHeight="true">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="39"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+    </row>
+    <row r="51" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="29"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="true">
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="29"/>
     </row>
     <row r="53">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
     </row>
     <row r="54"/>
     <row r="55">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
     </row>
     <row r="56"/>
     <row r="57">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
     </row>
     <row r="58">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
     </row>
     <row r="59">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
     </row>
     <row r="60"/>
     <row r="61">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
     </row>
     <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A65" s="14" t="s">
+    <row r="63" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A63" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="32"/>
-    </row>
-    <row r="66" spans="1:15" s="20" customFormat="true" ht="15.75" customHeight="true">
-      <c r="A66" s="14"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="32"/>
-    </row>
-    <row r="67" spans="1:15" ht="67.5" customHeight="true">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="32"/>
-    </row>
-    <row r="68" spans="1:15" ht="24.75" customHeight="true">
-      <c r="A68" s="32"/>
-      <c r="B68" s="53" t="str">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="29"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A64" s="14"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="29"/>
+    </row>
+    <row r="65" spans="1:15" ht="67.5" customHeight="true">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="29"/>
+    </row>
+    <row r="66" spans="1:15" ht="24.75" customHeight="true">
+      <c r="A66" s="29"/>
+      <c r="B66" s="45" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="53">
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="45">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="32"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="29"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="29"/>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="29"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="32"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="29"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="32"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="32"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="true">
       <c r="A72" s="1"/>
@@ -2471,7 +2479,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="true">
+    <row r="78" spans="1:14" ht="15.75" customHeight="true">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2487,7 +2495,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="true">
+    <row r="79" spans="1:14" ht="15.75" customHeight="true">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -17335,40 +17343,33 @@
       <c r="M1006" s="1"/>
       <c r="N1006" s="1"/>
     </row>
-    <row r="1007" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="1"/>
-      <c r="G1007" s="1"/>
-      <c r="H1007" s="1"/>
-      <c r="I1007" s="1"/>
-      <c r="J1007" s="1"/>
-      <c r="K1007" s="1"/>
-      <c r="L1007" s="1"/>
-      <c r="M1007" s="1"/>
-      <c r="N1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1"/>
-      <c r="F1008" s="1"/>
-      <c r="G1008" s="1"/>
-      <c r="H1008" s="1"/>
-      <c r="I1008" s="1"/>
-      <c r="J1008" s="1"/>
-      <c r="K1008" s="1"/>
-      <c r="L1008" s="1"/>
-      <c r="M1008" s="1"/>
-      <c r="N1008" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="A37:B39"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
@@ -17380,31 +17381,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="A37:B39"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="C37:H39"/>
     <mergeCell ref="A50:K53"/>
     <mergeCell ref="A55:K55"/>

--- a/piForHo222222企業.xlsx
+++ b/piForHo222222企業.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,19 +15,6 @@
     <sheet name="PI" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -522,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -617,68 +604,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -696,6 +629,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
@@ -1066,7 +1062,7 @@
   <dimension ref="A1:O993"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
@@ -1088,56 +1084,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="81.75" customHeight="true">
-      <c r="A1" s="53" t="str">
+      <c r="A1" s="35" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="true">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1159,19 +1155,19 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="27">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="4.5" customHeight="true">
       <c r="A6" s="1"/>
@@ -1197,15 +1193,15 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="36" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -1218,11 +1214,11 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
@@ -1233,21 +1229,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="49" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="51" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
@@ -1258,12 +1254,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1279,12 +1275,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1328,9 +1324,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
       <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="true">
@@ -1391,58 +1387,58 @@
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="40" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="41"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A18" s="43"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="42" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
@@ -1595,11 +1591,11 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
@@ -1637,8 +1633,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="46"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="6"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1667,16 +1663,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="24"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1688,16 +1684,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="24"/>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1772,15 +1768,15 @@
         <v>28</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="29"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1873,18 +1869,18 @@
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="59" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1894,14 +1890,14 @@
       <c r="O37" s="29"/>
     </row>
     <row r="38" spans="1:15" ht="13.5" customHeight="true">
-      <c r="A38" s="37"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1911,14 +1907,14 @@
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" ht="15" customHeight="true">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1949,16 +1945,16 @@
         <v>34</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
       <c r="K41" s="10"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -1970,16 +1966,16 @@
         <v>35</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="11"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -1991,16 +1987,16 @@
         <v>36</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="11"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2012,16 +2008,16 @@
         <v>37</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
       <c r="K44" s="11"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2033,16 +2029,16 @@
         <v>38</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
       <c r="K45" s="13"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2088,166 +2084,150 @@
       <c r="O49" s="29"/>
     </row>
     <row r="50">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-    </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="29"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+    </row>
+    <row r="51" spans="1:15" s="34" customFormat="true" ht="12.75" customHeight="true">
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="33"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="29"/>
     </row>
     <row r="53">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
     </row>
     <row r="54"/>
     <row r="55">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
     </row>
     <row r="56"/>
     <row r="57">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
     </row>
     <row r="58">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
     </row>
     <row r="59">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
     </row>
     <row r="60"/>
     <row r="61">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
     </row>
     <row r="62"/>
-    <row r="63" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A63" s="14" t="s">
+    <row r="63"/>
+    <row r="64" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A64" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="29"/>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A64" s="14"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2260,11 +2240,13 @@
       <c r="N64" s="1"/>
       <c r="O64" s="29"/>
     </row>
-    <row r="65" spans="1:15" ht="67.5" customHeight="true">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+    <row r="65" spans="1:15" ht="15.75" customHeight="true">
+      <c r="A65" s="14"/>
+      <c r="B65" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2277,41 +2259,39 @@
       <c r="N65" s="1"/>
       <c r="O65" s="29"/>
     </row>
-    <row r="66" spans="1:15" ht="24.75" customHeight="true">
-      <c r="A66" s="29"/>
-      <c r="B66" s="45" t="str">
-        <f>C7</f>
-        <v>PROMETAL INTERNATIONAL CO., LTD</v>
-      </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="23"/>
+    <row r="66" spans="1:15" ht="67.5" customHeight="true">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="45">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="29"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+    <row r="67" spans="1:15" ht="24.75" customHeight="true">
+      <c r="A67" s="29"/>
+      <c r="B67" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="G67" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -2366,6 +2346,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
+      <c r="O70" s="29"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="true">
       <c r="A71" s="1"/>
@@ -2479,7 +2460,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75" customHeight="true">
+    <row r="78" spans="1:15" ht="15.75" customHeight="true">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -17343,21 +17324,37 @@
       <c r="M1006" s="1"/>
       <c r="N1006" s="1"/>
     </row>
+    <row r="1007" spans="1:14" ht="15.75" customHeight="true">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="G67:K67"/>
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="I25:J25"/>
@@ -17369,18 +17366,18 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="C37:H39"/>
     <mergeCell ref="A50:K53"/>
     <mergeCell ref="A55:K55"/>

--- a/piForHo222222企業.xlsx
+++ b/piForHo222222企業.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>NO. 18, DIANZHONG RD.,XIAOGANG DIST., KAOHSIUNG CITY, TAIWAN R.O.C. 81248</t>
   </si>
@@ -245,28 +245,6 @@
     <t>QUANTITY</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
-  <si>
-    <t>ho222222企業</t>
-  </si>
-  <si>
-    <t>update 0906</t>
-  </si>
-  <si>
-    <t>A) 10% Advance T/T Should Be Remmited in 3 Days after Confirming Proforma Invoice
-B) Balance 90% T/T Should Be Remitted Against Copy of B/L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A) In case of quality discrepancy claim should be filled by the Buyer within 30days after the arrival the goods at port of destination while for quantity discrepancy claim should be filled by the Buyer within 15days after the arrival the goods at port of destination. It is understood that the Seller shall not be liable for any discrepancy of goods shipped due to causes for which the Insurance Company, Shipping Company, other transportation organization or post Office are liable.</t>
-  </si>
-  <si>
-    <t>B) The Seller shall not be held liable for failure or delay in delivery of the entire lot or a portion of the goods under this sales contract in consequence of any Force Majeure incidents.</t>
-  </si>
-  <si>
-    <t>C) The Buyer is requested to sign and return one copy of this Sales Contract immediately after receipt of the same Objection, if any should be raised by the Buyer within five days after the receipt of this Sales Contract in the absence of which it is understood that the Buyer has accepted all the terms and conditions of this Sales Contract.</t>
-  </si>
-  <si>
-    <t>D) The price is based on zero export tariff, additional cost shall be borne and paid by the buyer if the export tariff is adjusted by the Chinese government in the future.</t>
-  </si>
 </sst>
 </file>
 
@@ -276,7 +254,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -369,18 +347,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -693,12 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,34 +1016,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E73A5B8-3160-4C6C-812E-0350A3E790B9}">
   <sheetPr>
     <tabColor rgb="FFFFF2CC"/>
-    <outlinePr summaryBelow="false" summaryRight="false" showOutlineSymbols="false"/>
-    <pageSetUpPr fitToPage="true"/>
+    <outlinePr summaryBelow="0" summaryRight="0" showOutlineSymbols="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O993"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="7.5"/>
-    <col customWidth="true" max="2" min="2" width="15.5"/>
-    <col customWidth="true" max="3" min="3" width="7.5"/>
-    <col customWidth="true" max="4" min="4" width="13"/>
-    <col customWidth="true" max="5" min="5" width="10.75"/>
-    <col customWidth="true" max="6" min="6" width="10.375"/>
-    <col customWidth="true" max="7" min="7" width="7.625"/>
-    <col customWidth="true" max="8" min="8" width="8.625"/>
-    <col customWidth="true" max="9" min="9" width="3.25"/>
-    <col customWidth="true" max="10" min="10" width="6.25"/>
-    <col customWidth="true" max="11" min="11" width="10.5"/>
-    <col customWidth="true" max="12" min="12" width="6.75"/>
-    <col customWidth="true" max="13" min="13" width="8.375"/>
-    <col customWidth="true" max="14" min="14" width="13.75"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="3.25" customWidth="1"/>
+    <col min="10" max="10" width="6.25" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="6.75" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="81.75" customHeight="true">
+    <row r="1" spans="1:15" ht="81.75" customHeight="1">
       <c r="A1" s="35" t="str">
         <f>C7</f>
         <v>PROMETAL INTERNATIONAL CO., LTD</v>
@@ -1102,7 +1062,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="true">
+    <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1080,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="true">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1098,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="3" customHeight="true">
+    <row r="4" spans="1:15" ht="3" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1169,7 +1129,7 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="4.5" customHeight="true">
+    <row r="6" spans="1:15" ht="4.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1229,9 +1189,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="43" t="s">
-        <v>73</v>
-      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -1297,7 +1255,7 @@
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="24" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -1312,7 +1270,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:15" ht="9.75" customHeight="true">
+    <row r="13" spans="1:15" ht="9.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -1329,7 +1287,7 @@
       <c r="N13" s="42"/>
       <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="true">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1">
       <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1308,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="true">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
@@ -1369,7 +1327,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="true">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1386,7 +1344,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="1:15" ht="12.75" customHeight="true">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1">
       <c r="A17" s="50" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1375,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="29"/>
     </row>
-    <row r="18" spans="1:15" ht="12.75" customHeight="true">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1">
       <c r="A18" s="51"/>
       <c r="B18" s="26" t="s">
         <v>17</v>
@@ -1481,10 +1439,10 @@
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>47</v>
@@ -1494,20 +1452,20 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="18">
-        <v>2190</v>
+        <v>2390</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
         <v>70</v>
       </c>
       <c r="K20" s="18">
-        <v>8760</v>
+        <v>11950</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
@@ -1516,33 +1474,33 @@
     </row>
     <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="18">
-        <v>2390</v>
+        <v>2300</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
         <v>70</v>
       </c>
       <c r="K21" s="18">
-        <v>11950</v>
+        <v>9200</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -1551,16 +1509,16 @@
     </row>
     <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18">
@@ -1570,14 +1528,14 @@
         <v>70</v>
       </c>
       <c r="H22" s="18">
-        <v>2300</v>
+        <v>2190</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18" t="s">
         <v>70</v>
       </c>
       <c r="K22" s="18">
-        <v>9200</v>
+        <v>8760</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
@@ -1601,7 +1559,7 @@
       <c r="N23" s="23"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="true">
+    <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1609,16 +1567,12 @@
       <c r="E24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="21">
-        <v>25</v>
-      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="16">
-        <v>56010</v>
-      </c>
+      <c r="K24" s="16"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1641,7 +1595,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="9" customHeight="true">
+    <row r="26" spans="1:15" ht="9" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1658,7 +1612,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="29"/>
     </row>
-    <row r="27" spans="1:15" ht="13.5" customHeight="true">
+    <row r="27" spans="1:15" ht="13.5" customHeight="1">
       <c r="A27" s="24" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1633,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:15" ht="13.5" customHeight="true">
+    <row r="28" spans="1:15" ht="13.5" customHeight="1">
       <c r="A28" s="24" t="s">
         <v>24</v>
       </c>
@@ -1700,7 +1654,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="1:15" ht="13.5" customHeight="true">
+    <row r="29" spans="1:15" ht="13.5" customHeight="1">
       <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +1675,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="29"/>
     </row>
-    <row r="30" spans="1:15" ht="13.5" customHeight="true">
+    <row r="30" spans="1:15" ht="13.5" customHeight="1">
       <c r="A30" s="24" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1696,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:15" ht="13.5" customHeight="true">
+    <row r="31" spans="1:15" ht="13.5" customHeight="1">
       <c r="A31" s="24" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1717,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="1:15" ht="13.5" customHeight="true">
+    <row r="32" spans="1:15" ht="13.5" customHeight="1">
       <c r="A32" s="24" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1738,7 @@
       <c r="N32" s="2"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" ht="13.5" customHeight="true">
+    <row r="33" spans="1:15" ht="13.5" customHeight="1">
       <c r="A33" s="24" t="s">
         <v>29</v>
       </c>
@@ -1805,7 +1759,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="29"/>
     </row>
-    <row r="34" spans="1:15" ht="13.5" customHeight="true">
+    <row r="34" spans="1:15" ht="13.5" customHeight="1">
       <c r="A34" s="24" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1780,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="1:15" ht="13.5" customHeight="true">
+    <row r="35" spans="1:15" ht="13.5" customHeight="1">
       <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
@@ -1847,7 +1801,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="29"/>
     </row>
-    <row r="36" spans="1:15" ht="13.5" customHeight="true">
+    <row r="36" spans="1:15" ht="13.5" customHeight="1">
       <c r="A36" s="24" t="s">
         <v>32</v>
       </c>
@@ -1868,14 +1822,12 @@
       <c r="N36" s="2"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:15" ht="13.5" customHeight="true">
+    <row r="37" spans="1:15" ht="13.5" customHeight="1">
       <c r="A37" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="42"/>
-      <c r="C37" s="62" t="s">
-        <v>75</v>
-      </c>
+      <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
@@ -1889,10 +1841,10 @@
       <c r="N37" s="2"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:15" ht="13.5" customHeight="true">
+    <row r="38" spans="1:15" ht="13.5" customHeight="1">
       <c r="A38" s="49"/>
       <c r="B38" s="42"/>
-      <c r="C38" s="62"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
@@ -1906,10 +1858,10 @@
       <c r="N38" s="2"/>
       <c r="O38" s="29"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="true">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
-      <c r="C39" s="62"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
@@ -1923,7 +1875,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="29"/>
     </row>
-    <row r="40" spans="1:15" ht="7.5" customHeight="true" thickBot="true">
+    <row r="40" spans="1:15" ht="7.5" customHeight="1" thickBot="1">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1940,7 +1892,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="29"/>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="true">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
       <c r="A41" s="27" t="s">
         <v>34</v>
       </c>
@@ -1961,7 +1913,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="29"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="true">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="28" t="s">
         <v>35</v>
       </c>
@@ -1982,7 +1934,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="29"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="true">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
       <c r="A43" s="28" t="s">
         <v>36</v>
       </c>
@@ -2003,7 +1955,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="29"/>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="true">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
       <c r="A44" s="28" t="s">
         <v>37</v>
       </c>
@@ -2024,7 +1976,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="29"/>
     </row>
-    <row r="45" spans="1:15" ht="17.25" thickBot="true">
+    <row r="45" spans="1:15" ht="17.25" thickBot="1">
       <c r="A45" s="12" t="s">
         <v>38</v>
       </c>
@@ -2045,7 +1997,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="29"/>
     </row>
-    <row r="46" spans="1:15" ht="4.5" customHeight="true">
+    <row r="46" spans="1:15" ht="4.5" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2062,12 +2014,44 @@
       <c r="N46" s="1"/>
       <c r="O46" s="29"/>
     </row>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A49" s="31" t="s">
+    <row r="47" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A47" s="31" t="s">
         <v>39</v>
       </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="29"/>
+    </row>
+    <row r="48" spans="1:15" s="34" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="33"/>
+    </row>
+    <row r="49" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A49" s="31"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -2083,148 +2067,247 @@
       <c r="N49" s="1"/>
       <c r="O49" s="29"/>
     </row>
-    <row r="50">
-      <c r="A50" s="63" t="s">
-        <v>76</v>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>40</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-    </row>
-    <row r="51" spans="1:15" s="34" customFormat="true" ht="12.75" customHeight="true">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="33"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="true">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="63"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="29"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="29"/>
+    </row>
+    <row r="52" spans="1:15" ht="67.5" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="29"/>
     </row>
-    <row r="53">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
-    </row>
-    <row r="54"/>
-    <row r="55">
-      <c r="A55" s="63" t="s">
-        <v>77</v>
+    <row r="53" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A53" s="29"/>
+      <c r="B53" s="47" t="str">
+        <f>C7</f>
+        <v>PROMETAL INTERNATIONAL CO., LTD</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-    </row>
-    <row r="56"/>
-    <row r="57">
-      <c r="A57" s="63" t="s">
-        <v>78</v>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="47">
+        <f>C9</f>
+        <v>0</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-    </row>
-    <row r="60"/>
-    <row r="61">
-      <c r="A61" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63"/>
-    </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A64" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="29"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="29"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="29"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="29"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2238,15 +2321,12 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="29"/>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="true">
-      <c r="A65" s="14"/>
-      <c r="B65" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2257,9 +2337,8 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="29"/>
-    </row>
-    <row r="66" spans="1:15" ht="67.5" customHeight="true">
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2274,30 +2353,24 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="29"/>
-    </row>
-    <row r="67" spans="1:15" ht="24.75" customHeight="true">
-      <c r="A67" s="29"/>
-      <c r="B67" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="23"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="29"/>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="true">
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2312,9 +2385,8 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="29"/>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="true">
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2329,9 +2401,8 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="29"/>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="true">
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2346,9 +2417,8 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="29"/>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="true">
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2364,7 +2434,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="true">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2380,7 +2450,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="true">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2396,7 +2466,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="true">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2412,7 +2482,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="true">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2428,7 +2498,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="true">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2444,7 +2514,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="true">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2460,7 +2530,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="true">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2476,7 +2546,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75" customHeight="true">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2492,7 +2562,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="true">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2508,7 +2578,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="true">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2524,7 +2594,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="true">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2540,7 +2610,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="true">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2556,7 +2626,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="true">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2572,7 +2642,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="true">
+    <row r="85" spans="1:14" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2588,7 +2658,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="true">
+    <row r="86" spans="1:14" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2604,7 +2674,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="true">
+    <row r="87" spans="1:14" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2620,7 +2690,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="true">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2636,7 +2706,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="true">
+    <row r="89" spans="1:14" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2652,7 +2722,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="true">
+    <row r="90" spans="1:14" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2668,7 +2738,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="true">
+    <row r="91" spans="1:14" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2684,7 +2754,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="true">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2700,7 +2770,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="true">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2716,7 +2786,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="true">
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2732,7 +2802,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="true">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2748,7 +2818,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="true">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2764,7 +2834,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="true">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2780,7 +2850,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="true">
+    <row r="98" spans="1:14" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2796,7 +2866,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="true">
+    <row r="99" spans="1:14" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2812,7 +2882,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="true">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2828,7 +2898,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="true">
+    <row r="101" spans="1:14" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2844,7 +2914,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="true">
+    <row r="102" spans="1:14" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2860,7 +2930,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="true">
+    <row r="103" spans="1:14" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2876,7 +2946,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" ht="15.75" customHeight="true">
+    <row r="104" spans="1:14" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2892,7 +2962,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="true">
+    <row r="105" spans="1:14" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2908,7 +2978,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="true">
+    <row r="106" spans="1:14" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2924,7 +2994,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="true">
+    <row r="107" spans="1:14" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2940,7 +3010,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="true">
+    <row r="108" spans="1:14" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2956,7 +3026,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="true">
+    <row r="109" spans="1:14" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2972,7 +3042,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="1:14" ht="15.75" customHeight="true">
+    <row r="110" spans="1:14" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2988,7 +3058,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" ht="15.75" customHeight="true">
+    <row r="111" spans="1:14" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3004,7 +3074,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="true">
+    <row r="112" spans="1:14" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3020,7 +3090,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="true">
+    <row r="113" spans="1:14" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3036,7 +3106,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="true">
+    <row r="114" spans="1:14" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3052,7 +3122,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="true">
+    <row r="115" spans="1:14" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3068,7 +3138,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="true">
+    <row r="116" spans="1:14" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3084,7 +3154,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="true">
+    <row r="117" spans="1:14" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3100,7 +3170,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="true">
+    <row r="118" spans="1:14" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3116,7 +3186,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="true">
+    <row r="119" spans="1:14" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3132,7 +3202,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="true">
+    <row r="120" spans="1:14" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3148,7 +3218,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="true">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3164,7 +3234,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="true">
+    <row r="122" spans="1:14" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3180,7 +3250,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="true">
+    <row r="123" spans="1:14" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3196,7 +3266,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="true">
+    <row r="124" spans="1:14" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3212,7 +3282,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="true">
+    <row r="125" spans="1:14" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3228,7 +3298,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="1:14" ht="15.75" customHeight="true">
+    <row r="126" spans="1:14" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3244,7 +3314,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="true">
+    <row r="127" spans="1:14" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3260,7 +3330,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="true">
+    <row r="128" spans="1:14" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3276,7 +3346,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="true">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3292,7 +3362,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="1:14" ht="15.75" customHeight="true">
+    <row r="130" spans="1:14" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3308,7 +3378,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75" customHeight="true">
+    <row r="131" spans="1:14" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3324,7 +3394,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="1:14" ht="15.75" customHeight="true">
+    <row r="132" spans="1:14" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3340,7 +3410,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="1:14" ht="15.75" customHeight="true">
+    <row r="133" spans="1:14" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3356,7 +3426,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="1:14" ht="15.75" customHeight="true">
+    <row r="134" spans="1:14" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3372,7 +3442,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="1:14" ht="15.75" customHeight="true">
+    <row r="135" spans="1:14" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3388,7 +3458,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="1:14" ht="15.75" customHeight="true">
+    <row r="136" spans="1:14" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3404,7 +3474,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="1:14" ht="15.75" customHeight="true">
+    <row r="137" spans="1:14" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3420,7 +3490,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" customHeight="true">
+    <row r="138" spans="1:14" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3436,7 +3506,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="true">
+    <row r="139" spans="1:14" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3452,7 +3522,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75" customHeight="true">
+    <row r="140" spans="1:14" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3468,7 +3538,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75" customHeight="true">
+    <row r="141" spans="1:14" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3484,7 +3554,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="true">
+    <row r="142" spans="1:14" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3500,7 +3570,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="true">
+    <row r="143" spans="1:14" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3516,7 +3586,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="1:14" ht="15.75" customHeight="true">
+    <row r="144" spans="1:14" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3532,7 +3602,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="1:14" ht="15.75" customHeight="true">
+    <row r="145" spans="1:14" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3548,7 +3618,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="true">
+    <row r="146" spans="1:14" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3564,7 +3634,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="1:14" ht="15.75" customHeight="true">
+    <row r="147" spans="1:14" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3580,7 +3650,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75" customHeight="true">
+    <row r="148" spans="1:14" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3596,7 +3666,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="1:14" ht="15.75" customHeight="true">
+    <row r="149" spans="1:14" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3612,7 +3682,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="1:14" ht="15.75" customHeight="true">
+    <row r="150" spans="1:14" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3628,7 +3698,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="1:14" ht="15.75" customHeight="true">
+    <row r="151" spans="1:14" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3644,7 +3714,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="1:14" ht="15.75" customHeight="true">
+    <row r="152" spans="1:14" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3660,7 +3730,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="1:14" ht="15.75" customHeight="true">
+    <row r="153" spans="1:14" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3676,7 +3746,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="1:14" ht="15.75" customHeight="true">
+    <row r="154" spans="1:14" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3692,7 +3762,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75" customHeight="true">
+    <row r="155" spans="1:14" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3708,7 +3778,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="1:14" ht="15.75" customHeight="true">
+    <row r="156" spans="1:14" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3724,7 +3794,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75" customHeight="true">
+    <row r="157" spans="1:14" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3740,7 +3810,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" customHeight="true">
+    <row r="158" spans="1:14" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3756,7 +3826,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75" customHeight="true">
+    <row r="159" spans="1:14" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3772,7 +3842,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="1:14" ht="15.75" customHeight="true">
+    <row r="160" spans="1:14" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3788,7 +3858,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="1:14" ht="15.75" customHeight="true">
+    <row r="161" spans="1:14" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3804,7 +3874,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="1:14" ht="15.75" customHeight="true">
+    <row r="162" spans="1:14" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3820,7 +3890,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="1:14" ht="15.75" customHeight="true">
+    <row r="163" spans="1:14" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3836,7 +3906,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="1:14" ht="15.75" customHeight="true">
+    <row r="164" spans="1:14" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3852,7 +3922,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="1:14" ht="15.75" customHeight="true">
+    <row r="165" spans="1:14" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3868,7 +3938,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="1:14" ht="15.75" customHeight="true">
+    <row r="166" spans="1:14" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3884,7 +3954,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="1:14" ht="15.75" customHeight="true">
+    <row r="167" spans="1:14" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3900,7 +3970,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="1:14" ht="15.75" customHeight="true">
+    <row r="168" spans="1:14" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3916,7 +3986,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="1:14" ht="15.75" customHeight="true">
+    <row r="169" spans="1:14" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3932,7 +4002,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="1:14" ht="15.75" customHeight="true">
+    <row r="170" spans="1:14" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3948,7 +4018,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="1:14" ht="15.75" customHeight="true">
+    <row r="171" spans="1:14" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3964,7 +4034,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="1:14" ht="15.75" customHeight="true">
+    <row r="172" spans="1:14" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3980,7 +4050,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="1:14" ht="15.75" customHeight="true">
+    <row r="173" spans="1:14" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3996,7 +4066,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="1:14" ht="15.75" customHeight="true">
+    <row r="174" spans="1:14" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4012,7 +4082,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="1:14" ht="15.75" customHeight="true">
+    <row r="175" spans="1:14" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4028,7 +4098,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="1:14" ht="15.75" customHeight="true">
+    <row r="176" spans="1:14" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4044,7 +4114,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="1:14" ht="15.75" customHeight="true">
+    <row r="177" spans="1:14" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4060,7 +4130,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="1:14" ht="15.75" customHeight="true">
+    <row r="178" spans="1:14" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4076,7 +4146,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="1:14" ht="15.75" customHeight="true">
+    <row r="179" spans="1:14" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4092,7 +4162,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="1:14" ht="15.75" customHeight="true">
+    <row r="180" spans="1:14" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4108,7 +4178,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="1:14" ht="15.75" customHeight="true">
+    <row r="181" spans="1:14" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4124,7 +4194,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="1:14" ht="15.75" customHeight="true">
+    <row r="182" spans="1:14" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4140,7 +4210,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="1:14" ht="15.75" customHeight="true">
+    <row r="183" spans="1:14" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4156,7 +4226,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="1:14" ht="15.75" customHeight="true">
+    <row r="184" spans="1:14" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4172,7 +4242,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="1:14" ht="15.75" customHeight="true">
+    <row r="185" spans="1:14" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4188,7 +4258,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="1:14" ht="15.75" customHeight="true">
+    <row r="186" spans="1:14" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4204,7 +4274,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="1:14" ht="15.75" customHeight="true">
+    <row r="187" spans="1:14" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4220,7 +4290,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="1:14" ht="15.75" customHeight="true">
+    <row r="188" spans="1:14" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4236,7 +4306,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="1:14" ht="15.75" customHeight="true">
+    <row r="189" spans="1:14" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4252,7 +4322,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="1:14" ht="15.75" customHeight="true">
+    <row r="190" spans="1:14" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4268,7 +4338,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="1:14" ht="15.75" customHeight="true">
+    <row r="191" spans="1:14" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4284,7 +4354,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
     </row>
-    <row r="192" spans="1:14" ht="15.75" customHeight="true">
+    <row r="192" spans="1:14" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4300,7 +4370,7 @@
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
     </row>
-    <row r="193" spans="1:14" ht="15.75" customHeight="true">
+    <row r="193" spans="1:14" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4316,7 +4386,7 @@
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
     </row>
-    <row r="194" spans="1:14" ht="15.75" customHeight="true">
+    <row r="194" spans="1:14" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4332,7 +4402,7 @@
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
     </row>
-    <row r="195" spans="1:14" ht="15.75" customHeight="true">
+    <row r="195" spans="1:14" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4348,7 +4418,7 @@
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
     </row>
-    <row r="196" spans="1:14" ht="15.75" customHeight="true">
+    <row r="196" spans="1:14" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4364,7 +4434,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="1:14" ht="15.75" customHeight="true">
+    <row r="197" spans="1:14" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4380,7 +4450,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="1:14" ht="15.75" customHeight="true">
+    <row r="198" spans="1:14" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4396,7 +4466,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="1:14" ht="15.75" customHeight="true">
+    <row r="199" spans="1:14" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4412,7 +4482,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="1:14" ht="15.75" customHeight="true">
+    <row r="200" spans="1:14" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4428,7 +4498,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="1:14" ht="15.75" customHeight="true">
+    <row r="201" spans="1:14" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4444,7 +4514,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="1:14" ht="15.75" customHeight="true">
+    <row r="202" spans="1:14" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4460,7 +4530,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="1:14" ht="15.75" customHeight="true">
+    <row r="203" spans="1:14" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4476,7 +4546,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="1:14" ht="15.75" customHeight="true">
+    <row r="204" spans="1:14" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4492,7 +4562,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="1:14" ht="15.75" customHeight="true">
+    <row r="205" spans="1:14" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4508,7 +4578,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
     </row>
-    <row r="206" spans="1:14" ht="15.75" customHeight="true">
+    <row r="206" spans="1:14" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4524,7 +4594,7 @@
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
     </row>
-    <row r="207" spans="1:14" ht="15.75" customHeight="true">
+    <row r="207" spans="1:14" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4540,7 +4610,7 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
-    <row r="208" spans="1:14" ht="15.75" customHeight="true">
+    <row r="208" spans="1:14" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4556,7 +4626,7 @@
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
     </row>
-    <row r="209" spans="1:14" ht="15.75" customHeight="true">
+    <row r="209" spans="1:14" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4572,7 +4642,7 @@
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
     </row>
-    <row r="210" spans="1:14" ht="15.75" customHeight="true">
+    <row r="210" spans="1:14" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4588,7 +4658,7 @@
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
     </row>
-    <row r="211" spans="1:14" ht="15.75" customHeight="true">
+    <row r="211" spans="1:14" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4604,7 +4674,7 @@
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
     </row>
-    <row r="212" spans="1:14" ht="15.75" customHeight="true">
+    <row r="212" spans="1:14" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4620,7 +4690,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="1:14" ht="15.75" customHeight="true">
+    <row r="213" spans="1:14" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4636,7 +4706,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="1:14" ht="15.75" customHeight="true">
+    <row r="214" spans="1:14" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4652,7 +4722,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="1:14" ht="15.75" customHeight="true">
+    <row r="215" spans="1:14" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4668,7 +4738,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="1:14" ht="15.75" customHeight="true">
+    <row r="216" spans="1:14" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4684,7 +4754,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="1:14" ht="15.75" customHeight="true">
+    <row r="217" spans="1:14" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4700,7 +4770,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="1:14" ht="15.75" customHeight="true">
+    <row r="218" spans="1:14" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4716,7 +4786,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="1:14" ht="15.75" customHeight="true">
+    <row r="219" spans="1:14" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -4732,7 +4802,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="1:14" ht="15.75" customHeight="true">
+    <row r="220" spans="1:14" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4748,7 +4818,7 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="1:14" ht="15.75" customHeight="true">
+    <row r="221" spans="1:14" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -4764,7 +4834,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="1:14" ht="15.75" customHeight="true">
+    <row r="222" spans="1:14" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -4780,7 +4850,7 @@
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
     </row>
-    <row r="223" spans="1:14" ht="15.75" customHeight="true">
+    <row r="223" spans="1:14" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4796,7 +4866,7 @@
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
     </row>
-    <row r="224" spans="1:14" ht="15.75" customHeight="true">
+    <row r="224" spans="1:14" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -4812,7 +4882,7 @@
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
     </row>
-    <row r="225" spans="1:14" ht="15.75" customHeight="true">
+    <row r="225" spans="1:14" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -4828,7 +4898,7 @@
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
     </row>
-    <row r="226" spans="1:14" ht="15.75" customHeight="true">
+    <row r="226" spans="1:14" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -4844,7 +4914,7 @@
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
     </row>
-    <row r="227" spans="1:14" ht="15.75" customHeight="true">
+    <row r="227" spans="1:14" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4860,7 +4930,7 @@
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
     </row>
-    <row r="228" spans="1:14" ht="15.75" customHeight="true">
+    <row r="228" spans="1:14" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -4876,7 +4946,7 @@
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="1:14" ht="15.75" customHeight="true">
+    <row r="229" spans="1:14" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -4892,7 +4962,7 @@
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
     </row>
-    <row r="230" spans="1:14" ht="15.75" customHeight="true">
+    <row r="230" spans="1:14" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -4908,7 +4978,7 @@
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
     </row>
-    <row r="231" spans="1:14" ht="15.75" customHeight="true">
+    <row r="231" spans="1:14" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -4924,7 +4994,7 @@
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
     </row>
-    <row r="232" spans="1:14" ht="15.75" customHeight="true">
+    <row r="232" spans="1:14" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -4940,7 +5010,7 @@
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
     </row>
-    <row r="233" spans="1:14" ht="15.75" customHeight="true">
+    <row r="233" spans="1:14" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -4956,7 +5026,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
     </row>
-    <row r="234" spans="1:14" ht="15.75" customHeight="true">
+    <row r="234" spans="1:14" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -4972,7 +5042,7 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="1:14" ht="15.75" customHeight="true">
+    <row r="235" spans="1:14" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -4988,7 +5058,7 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="1:14" ht="15.75" customHeight="true">
+    <row r="236" spans="1:14" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5004,7 +5074,7 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="1:14" ht="15.75" customHeight="true">
+    <row r="237" spans="1:14" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5020,7 +5090,7 @@
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
     </row>
-    <row r="238" spans="1:14" ht="15.75" customHeight="true">
+    <row r="238" spans="1:14" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5036,7 +5106,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="1:14" ht="15.75" customHeight="true">
+    <row r="239" spans="1:14" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5052,7 +5122,7 @@
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
     </row>
-    <row r="240" spans="1:14" ht="15.75" customHeight="true">
+    <row r="240" spans="1:14" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5068,7 +5138,7 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
     </row>
-    <row r="241" spans="1:14" ht="15.75" customHeight="true">
+    <row r="241" spans="1:14" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5084,7 +5154,7 @@
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
     </row>
-    <row r="242" spans="1:14" ht="15.75" customHeight="true">
+    <row r="242" spans="1:14" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5100,7 +5170,7 @@
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
     </row>
-    <row r="243" spans="1:14" ht="15.75" customHeight="true">
+    <row r="243" spans="1:14" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5116,7 +5186,7 @@
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
     </row>
-    <row r="244" spans="1:14" ht="15.75" customHeight="true">
+    <row r="244" spans="1:14" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -5132,7 +5202,7 @@
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
     </row>
-    <row r="245" spans="1:14" ht="15.75" customHeight="true">
+    <row r="245" spans="1:14" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5148,7 +5218,7 @@
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
     </row>
-    <row r="246" spans="1:14" ht="15.75" customHeight="true">
+    <row r="246" spans="1:14" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -5164,7 +5234,7 @@
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
     </row>
-    <row r="247" spans="1:14" ht="15.75" customHeight="true">
+    <row r="247" spans="1:14" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -5180,7 +5250,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
     </row>
-    <row r="248" spans="1:14" ht="15.75" customHeight="true">
+    <row r="248" spans="1:14" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -5196,7 +5266,7 @@
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
     </row>
-    <row r="249" spans="1:14" ht="15.75" customHeight="true">
+    <row r="249" spans="1:14" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -5212,7 +5282,7 @@
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
     </row>
-    <row r="250" spans="1:14" ht="15.75" customHeight="true">
+    <row r="250" spans="1:14" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -5228,7 +5298,7 @@
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
     </row>
-    <row r="251" spans="1:14" ht="15.75" customHeight="true">
+    <row r="251" spans="1:14" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -5244,7 +5314,7 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="1:14" ht="15.75" customHeight="true">
+    <row r="252" spans="1:14" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -5260,7 +5330,7 @@
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="1:14" ht="15.75" customHeight="true">
+    <row r="253" spans="1:14" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -5276,7 +5346,7 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="1:14" ht="15.75" customHeight="true">
+    <row r="254" spans="1:14" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5292,7 +5362,7 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="1:14" ht="15.75" customHeight="true">
+    <row r="255" spans="1:14" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -5308,7 +5378,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="1:14" ht="15.75" customHeight="true">
+    <row r="256" spans="1:14" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -5324,7 +5394,7 @@
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="1:14" ht="15.75" customHeight="true">
+    <row r="257" spans="1:14" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -5340,7 +5410,7 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="1:14" ht="15.75" customHeight="true">
+    <row r="258" spans="1:14" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -5356,7 +5426,7 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
     </row>
-    <row r="259" spans="1:14" ht="15.75" customHeight="true">
+    <row r="259" spans="1:14" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -5372,7 +5442,7 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
     </row>
-    <row r="260" spans="1:14" ht="15.75" customHeight="true">
+    <row r="260" spans="1:14" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -5388,7 +5458,7 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
     </row>
-    <row r="261" spans="1:14" ht="15.75" customHeight="true">
+    <row r="261" spans="1:14" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -5404,7 +5474,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
     </row>
-    <row r="262" spans="1:14" ht="15.75" customHeight="true">
+    <row r="262" spans="1:14" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -5420,7 +5490,7 @@
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
     </row>
-    <row r="263" spans="1:14" ht="15.75" customHeight="true">
+    <row r="263" spans="1:14" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -5436,7 +5506,7 @@
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
     </row>
-    <row r="264" spans="1:14" ht="15.75" customHeight="true">
+    <row r="264" spans="1:14" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -5452,7 +5522,7 @@
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
     </row>
-    <row r="265" spans="1:14" ht="15.75" customHeight="true">
+    <row r="265" spans="1:14" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -5468,7 +5538,7 @@
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
     </row>
-    <row r="266" spans="1:14" ht="15.75" customHeight="true">
+    <row r="266" spans="1:14" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -5484,7 +5554,7 @@
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
     </row>
-    <row r="267" spans="1:14" ht="15.75" customHeight="true">
+    <row r="267" spans="1:14" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -5500,7 +5570,7 @@
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
     </row>
-    <row r="268" spans="1:14" ht="15.75" customHeight="true">
+    <row r="268" spans="1:14" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -5516,7 +5586,7 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
     </row>
-    <row r="269" spans="1:14" ht="15.75" customHeight="true">
+    <row r="269" spans="1:14" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -5532,7 +5602,7 @@
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
     </row>
-    <row r="270" spans="1:14" ht="15.75" customHeight="true">
+    <row r="270" spans="1:14" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -5548,7 +5618,7 @@
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
     </row>
-    <row r="271" spans="1:14" ht="15.75" customHeight="true">
+    <row r="271" spans="1:14" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -5564,7 +5634,7 @@
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
     </row>
-    <row r="272" spans="1:14" ht="15.75" customHeight="true">
+    <row r="272" spans="1:14" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -5580,7 +5650,7 @@
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
     </row>
-    <row r="273" spans="1:14" ht="15.75" customHeight="true">
+    <row r="273" spans="1:14" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -5596,7 +5666,7 @@
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
     </row>
-    <row r="274" spans="1:14" ht="15.75" customHeight="true">
+    <row r="274" spans="1:14" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -5612,7 +5682,7 @@
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
     </row>
-    <row r="275" spans="1:14" ht="15.75" customHeight="true">
+    <row r="275" spans="1:14" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -5628,7 +5698,7 @@
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
     </row>
-    <row r="276" spans="1:14" ht="15.75" customHeight="true">
+    <row r="276" spans="1:14" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -5644,7 +5714,7 @@
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
     </row>
-    <row r="277" spans="1:14" ht="15.75" customHeight="true">
+    <row r="277" spans="1:14" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -5660,7 +5730,7 @@
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
     </row>
-    <row r="278" spans="1:14" ht="15.75" customHeight="true">
+    <row r="278" spans="1:14" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -5676,7 +5746,7 @@
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
     </row>
-    <row r="279" spans="1:14" ht="15.75" customHeight="true">
+    <row r="279" spans="1:14" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -5692,7 +5762,7 @@
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
     </row>
-    <row r="280" spans="1:14" ht="15.75" customHeight="true">
+    <row r="280" spans="1:14" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -5708,7 +5778,7 @@
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
     </row>
-    <row r="281" spans="1:14" ht="15.75" customHeight="true">
+    <row r="281" spans="1:14" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -5724,7 +5794,7 @@
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
     </row>
-    <row r="282" spans="1:14" ht="15.75" customHeight="true">
+    <row r="282" spans="1:14" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -5740,7 +5810,7 @@
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
     </row>
-    <row r="283" spans="1:14" ht="15.75" customHeight="true">
+    <row r="283" spans="1:14" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -5756,7 +5826,7 @@
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
     </row>
-    <row r="284" spans="1:14" ht="15.75" customHeight="true">
+    <row r="284" spans="1:14" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -5772,7 +5842,7 @@
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
     </row>
-    <row r="285" spans="1:14" ht="15.75" customHeight="true">
+    <row r="285" spans="1:14" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -5788,7 +5858,7 @@
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
     </row>
-    <row r="286" spans="1:14" ht="15.75" customHeight="true">
+    <row r="286" spans="1:14" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -5804,7 +5874,7 @@
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
     </row>
-    <row r="287" spans="1:14" ht="15.75" customHeight="true">
+    <row r="287" spans="1:14" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -5820,7 +5890,7 @@
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
     </row>
-    <row r="288" spans="1:14" ht="15.75" customHeight="true">
+    <row r="288" spans="1:14" ht="15.75" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -5836,7 +5906,7 @@
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
     </row>
-    <row r="289" spans="1:14" ht="15.75" customHeight="true">
+    <row r="289" spans="1:14" ht="15.75" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -5852,7 +5922,7 @@
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
     </row>
-    <row r="290" spans="1:14" ht="15.75" customHeight="true">
+    <row r="290" spans="1:14" ht="15.75" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -5868,7 +5938,7 @@
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
     </row>
-    <row r="291" spans="1:14" ht="15.75" customHeight="true">
+    <row r="291" spans="1:14" ht="15.75" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -5884,7 +5954,7 @@
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
     </row>
-    <row r="292" spans="1:14" ht="15.75" customHeight="true">
+    <row r="292" spans="1:14" ht="15.75" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -5900,7 +5970,7 @@
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
     </row>
-    <row r="293" spans="1:14" ht="15.75" customHeight="true">
+    <row r="293" spans="1:14" ht="15.75" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -5916,7 +5986,7 @@
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
     </row>
-    <row r="294" spans="1:14" ht="15.75" customHeight="true">
+    <row r="294" spans="1:14" ht="15.75" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -5932,7 +6002,7 @@
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
     </row>
-    <row r="295" spans="1:14" ht="15.75" customHeight="true">
+    <row r="295" spans="1:14" ht="15.75" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -5948,7 +6018,7 @@
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
     </row>
-    <row r="296" spans="1:14" ht="15.75" customHeight="true">
+    <row r="296" spans="1:14" ht="15.75" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -5964,7 +6034,7 @@
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
     </row>
-    <row r="297" spans="1:14" ht="15.75" customHeight="true">
+    <row r="297" spans="1:14" ht="15.75" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -5980,7 +6050,7 @@
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
     </row>
-    <row r="298" spans="1:14" ht="15.75" customHeight="true">
+    <row r="298" spans="1:14" ht="15.75" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -5996,7 +6066,7 @@
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
     </row>
-    <row r="299" spans="1:14" ht="15.75" customHeight="true">
+    <row r="299" spans="1:14" ht="15.75" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6012,7 +6082,7 @@
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
     </row>
-    <row r="300" spans="1:14" ht="15.75" customHeight="true">
+    <row r="300" spans="1:14" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -6028,7 +6098,7 @@
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
     </row>
-    <row r="301" spans="1:14" ht="15.75" customHeight="true">
+    <row r="301" spans="1:14" ht="15.75" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -6044,7 +6114,7 @@
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
     </row>
-    <row r="302" spans="1:14" ht="15.75" customHeight="true">
+    <row r="302" spans="1:14" ht="15.75" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -6060,7 +6130,7 @@
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
     </row>
-    <row r="303" spans="1:14" ht="15.75" customHeight="true">
+    <row r="303" spans="1:14" ht="15.75" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -6076,7 +6146,7 @@
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
     </row>
-    <row r="304" spans="1:14" ht="15.75" customHeight="true">
+    <row r="304" spans="1:14" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -6092,7 +6162,7 @@
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
     </row>
-    <row r="305" spans="1:14" ht="15.75" customHeight="true">
+    <row r="305" spans="1:14" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -6108,7 +6178,7 @@
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
     </row>
-    <row r="306" spans="1:14" ht="15.75" customHeight="true">
+    <row r="306" spans="1:14" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -6124,7 +6194,7 @@
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
     </row>
-    <row r="307" spans="1:14" ht="15.75" customHeight="true">
+    <row r="307" spans="1:14" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -6140,7 +6210,7 @@
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
     </row>
-    <row r="308" spans="1:14" ht="15.75" customHeight="true">
+    <row r="308" spans="1:14" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -6156,7 +6226,7 @@
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
     </row>
-    <row r="309" spans="1:14" ht="15.75" customHeight="true">
+    <row r="309" spans="1:14" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -6172,7 +6242,7 @@
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
     </row>
-    <row r="310" spans="1:14" ht="15.75" customHeight="true">
+    <row r="310" spans="1:14" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -6188,7 +6258,7 @@
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
     </row>
-    <row r="311" spans="1:14" ht="15.75" customHeight="true">
+    <row r="311" spans="1:14" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -6204,7 +6274,7 @@
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
     </row>
-    <row r="312" spans="1:14" ht="15.75" customHeight="true">
+    <row r="312" spans="1:14" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -6220,7 +6290,7 @@
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
     </row>
-    <row r="313" spans="1:14" ht="15.75" customHeight="true">
+    <row r="313" spans="1:14" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -6236,7 +6306,7 @@
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
     </row>
-    <row r="314" spans="1:14" ht="15.75" customHeight="true">
+    <row r="314" spans="1:14" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -6252,7 +6322,7 @@
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
     </row>
-    <row r="315" spans="1:14" ht="15.75" customHeight="true">
+    <row r="315" spans="1:14" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -6268,7 +6338,7 @@
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
     </row>
-    <row r="316" spans="1:14" ht="15.75" customHeight="true">
+    <row r="316" spans="1:14" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -6284,7 +6354,7 @@
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
     </row>
-    <row r="317" spans="1:14" ht="15.75" customHeight="true">
+    <row r="317" spans="1:14" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -6300,7 +6370,7 @@
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
     </row>
-    <row r="318" spans="1:14" ht="15.75" customHeight="true">
+    <row r="318" spans="1:14" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -6316,7 +6386,7 @@
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
     </row>
-    <row r="319" spans="1:14" ht="15.75" customHeight="true">
+    <row r="319" spans="1:14" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -6332,7 +6402,7 @@
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
     </row>
-    <row r="320" spans="1:14" ht="15.75" customHeight="true">
+    <row r="320" spans="1:14" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -6348,7 +6418,7 @@
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
     </row>
-    <row r="321" spans="1:14" ht="15.75" customHeight="true">
+    <row r="321" spans="1:14" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -6364,7 +6434,7 @@
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
     </row>
-    <row r="322" spans="1:14" ht="15.75" customHeight="true">
+    <row r="322" spans="1:14" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -6380,7 +6450,7 @@
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
     </row>
-    <row r="323" spans="1:14" ht="15.75" customHeight="true">
+    <row r="323" spans="1:14" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -6396,7 +6466,7 @@
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
     </row>
-    <row r="324" spans="1:14" ht="15.75" customHeight="true">
+    <row r="324" spans="1:14" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -6412,7 +6482,7 @@
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
     </row>
-    <row r="325" spans="1:14" ht="15.75" customHeight="true">
+    <row r="325" spans="1:14" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -6428,7 +6498,7 @@
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
     </row>
-    <row r="326" spans="1:14" ht="15.75" customHeight="true">
+    <row r="326" spans="1:14" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -6444,7 +6514,7 @@
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
     </row>
-    <row r="327" spans="1:14" ht="15.75" customHeight="true">
+    <row r="327" spans="1:14" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -6460,7 +6530,7 @@
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
     </row>
-    <row r="328" spans="1:14" ht="15.75" customHeight="true">
+    <row r="328" spans="1:14" ht="15.75" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -6476,7 +6546,7 @@
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
     </row>
-    <row r="329" spans="1:14" ht="15.75" customHeight="true">
+    <row r="329" spans="1:14" ht="15.75" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -6492,7 +6562,7 @@
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
     </row>
-    <row r="330" spans="1:14" ht="15.75" customHeight="true">
+    <row r="330" spans="1:14" ht="15.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -6508,7 +6578,7 @@
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
     </row>
-    <row r="331" spans="1:14" ht="15.75" customHeight="true">
+    <row r="331" spans="1:14" ht="15.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -6524,7 +6594,7 @@
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
     </row>
-    <row r="332" spans="1:14" ht="15.75" customHeight="true">
+    <row r="332" spans="1:14" ht="15.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -6540,7 +6610,7 @@
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
     </row>
-    <row r="333" spans="1:14" ht="15.75" customHeight="true">
+    <row r="333" spans="1:14" ht="15.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -6556,7 +6626,7 @@
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
     </row>
-    <row r="334" spans="1:14" ht="15.75" customHeight="true">
+    <row r="334" spans="1:14" ht="15.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -6572,7 +6642,7 @@
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
     </row>
-    <row r="335" spans="1:14" ht="15.75" customHeight="true">
+    <row r="335" spans="1:14" ht="15.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -6588,7 +6658,7 @@
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
     </row>
-    <row r="336" spans="1:14" ht="15.75" customHeight="true">
+    <row r="336" spans="1:14" ht="15.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -6604,7 +6674,7 @@
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
     </row>
-    <row r="337" spans="1:14" ht="15.75" customHeight="true">
+    <row r="337" spans="1:14" ht="15.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -6620,7 +6690,7 @@
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
     </row>
-    <row r="338" spans="1:14" ht="15.75" customHeight="true">
+    <row r="338" spans="1:14" ht="15.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -6636,7 +6706,7 @@
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
     </row>
-    <row r="339" spans="1:14" ht="15.75" customHeight="true">
+    <row r="339" spans="1:14" ht="15.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -6652,7 +6722,7 @@
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
     </row>
-    <row r="340" spans="1:14" ht="15.75" customHeight="true">
+    <row r="340" spans="1:14" ht="15.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -6668,7 +6738,7 @@
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
     </row>
-    <row r="341" spans="1:14" ht="15.75" customHeight="true">
+    <row r="341" spans="1:14" ht="15.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -6684,7 +6754,7 @@
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
     </row>
-    <row r="342" spans="1:14" ht="15.75" customHeight="true">
+    <row r="342" spans="1:14" ht="15.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -6700,7 +6770,7 @@
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
     </row>
-    <row r="343" spans="1:14" ht="15.75" customHeight="true">
+    <row r="343" spans="1:14" ht="15.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -6716,7 +6786,7 @@
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
     </row>
-    <row r="344" spans="1:14" ht="15.75" customHeight="true">
+    <row r="344" spans="1:14" ht="15.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -6732,7 +6802,7 @@
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
     </row>
-    <row r="345" spans="1:14" ht="15.75" customHeight="true">
+    <row r="345" spans="1:14" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -6748,7 +6818,7 @@
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
     </row>
-    <row r="346" spans="1:14" ht="15.75" customHeight="true">
+    <row r="346" spans="1:14" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -6764,7 +6834,7 @@
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
     </row>
-    <row r="347" spans="1:14" ht="15.75" customHeight="true">
+    <row r="347" spans="1:14" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -6780,7 +6850,7 @@
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
     </row>
-    <row r="348" spans="1:14" ht="15.75" customHeight="true">
+    <row r="348" spans="1:14" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -6796,7 +6866,7 @@
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
     </row>
-    <row r="349" spans="1:14" ht="15.75" customHeight="true">
+    <row r="349" spans="1:14" ht="15.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -6812,7 +6882,7 @@
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
     </row>
-    <row r="350" spans="1:14" ht="15.75" customHeight="true">
+    <row r="350" spans="1:14" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -6828,7 +6898,7 @@
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
     </row>
-    <row r="351" spans="1:14" ht="15.75" customHeight="true">
+    <row r="351" spans="1:14" ht="15.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -6844,7 +6914,7 @@
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
     </row>
-    <row r="352" spans="1:14" ht="15.75" customHeight="true">
+    <row r="352" spans="1:14" ht="15.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -6860,7 +6930,7 @@
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
     </row>
-    <row r="353" spans="1:14" ht="15.75" customHeight="true">
+    <row r="353" spans="1:14" ht="15.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -6876,7 +6946,7 @@
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
     </row>
-    <row r="354" spans="1:14" ht="15.75" customHeight="true">
+    <row r="354" spans="1:14" ht="15.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -6892,7 +6962,7 @@
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
     </row>
-    <row r="355" spans="1:14" ht="15.75" customHeight="true">
+    <row r="355" spans="1:14" ht="15.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -6908,7 +6978,7 @@
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
     </row>
-    <row r="356" spans="1:14" ht="15.75" customHeight="true">
+    <row r="356" spans="1:14" ht="15.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -6924,7 +6994,7 @@
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
     </row>
-    <row r="357" spans="1:14" ht="15.75" customHeight="true">
+    <row r="357" spans="1:14" ht="15.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -6940,7 +7010,7 @@
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
     </row>
-    <row r="358" spans="1:14" ht="15.75" customHeight="true">
+    <row r="358" spans="1:14" ht="15.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -6956,7 +7026,7 @@
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
     </row>
-    <row r="359" spans="1:14" ht="15.75" customHeight="true">
+    <row r="359" spans="1:14" ht="15.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -6972,7 +7042,7 @@
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
     </row>
-    <row r="360" spans="1:14" ht="15.75" customHeight="true">
+    <row r="360" spans="1:14" ht="15.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -6988,7 +7058,7 @@
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
     </row>
-    <row r="361" spans="1:14" ht="15.75" customHeight="true">
+    <row r="361" spans="1:14" ht="15.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -7004,7 +7074,7 @@
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
     </row>
-    <row r="362" spans="1:14" ht="15.75" customHeight="true">
+    <row r="362" spans="1:14" ht="15.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -7020,7 +7090,7 @@
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
     </row>
-    <row r="363" spans="1:14" ht="15.75" customHeight="true">
+    <row r="363" spans="1:14" ht="15.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -7036,7 +7106,7 @@
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
     </row>
-    <row r="364" spans="1:14" ht="15.75" customHeight="true">
+    <row r="364" spans="1:14" ht="15.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -7052,7 +7122,7 @@
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
     </row>
-    <row r="365" spans="1:14" ht="15.75" customHeight="true">
+    <row r="365" spans="1:14" ht="15.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -7068,7 +7138,7 @@
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
     </row>
-    <row r="366" spans="1:14" ht="15.75" customHeight="true">
+    <row r="366" spans="1:14" ht="15.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -7084,7 +7154,7 @@
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
     </row>
-    <row r="367" spans="1:14" ht="15.75" customHeight="true">
+    <row r="367" spans="1:14" ht="15.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -7100,7 +7170,7 @@
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
     </row>
-    <row r="368" spans="1:14" ht="15.75" customHeight="true">
+    <row r="368" spans="1:14" ht="15.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -7116,7 +7186,7 @@
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
     </row>
-    <row r="369" spans="1:14" ht="15.75" customHeight="true">
+    <row r="369" spans="1:14" ht="15.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -7132,7 +7202,7 @@
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
     </row>
-    <row r="370" spans="1:14" ht="15.75" customHeight="true">
+    <row r="370" spans="1:14" ht="15.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -7148,7 +7218,7 @@
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
     </row>
-    <row r="371" spans="1:14" ht="15.75" customHeight="true">
+    <row r="371" spans="1:14" ht="15.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -7164,7 +7234,7 @@
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
     </row>
-    <row r="372" spans="1:14" ht="15.75" customHeight="true">
+    <row r="372" spans="1:14" ht="15.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -7180,7 +7250,7 @@
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
     </row>
-    <row r="373" spans="1:14" ht="15.75" customHeight="true">
+    <row r="373" spans="1:14" ht="15.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -7196,7 +7266,7 @@
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
     </row>
-    <row r="374" spans="1:14" ht="15.75" customHeight="true">
+    <row r="374" spans="1:14" ht="15.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -7212,7 +7282,7 @@
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
     </row>
-    <row r="375" spans="1:14" ht="15.75" customHeight="true">
+    <row r="375" spans="1:14" ht="15.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -7228,7 +7298,7 @@
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
     </row>
-    <row r="376" spans="1:14" ht="15.75" customHeight="true">
+    <row r="376" spans="1:14" ht="15.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -7244,7 +7314,7 @@
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
     </row>
-    <row r="377" spans="1:14" ht="15.75" customHeight="true">
+    <row r="377" spans="1:14" ht="15.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -7260,7 +7330,7 @@
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
     </row>
-    <row r="378" spans="1:14" ht="15.75" customHeight="true">
+    <row r="378" spans="1:14" ht="15.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -7276,7 +7346,7 @@
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
     </row>
-    <row r="379" spans="1:14" ht="15.75" customHeight="true">
+    <row r="379" spans="1:14" ht="15.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -7292,7 +7362,7 @@
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
     </row>
-    <row r="380" spans="1:14" ht="15.75" customHeight="true">
+    <row r="380" spans="1:14" ht="15.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -7308,7 +7378,7 @@
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
     </row>
-    <row r="381" spans="1:14" ht="15.75" customHeight="true">
+    <row r="381" spans="1:14" ht="15.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -7324,7 +7394,7 @@
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
     </row>
-    <row r="382" spans="1:14" ht="15.75" customHeight="true">
+    <row r="382" spans="1:14" ht="15.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -7340,7 +7410,7 @@
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
     </row>
-    <row r="383" spans="1:14" ht="15.75" customHeight="true">
+    <row r="383" spans="1:14" ht="15.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -7356,7 +7426,7 @@
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
     </row>
-    <row r="384" spans="1:14" ht="15.75" customHeight="true">
+    <row r="384" spans="1:14" ht="15.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -7372,7 +7442,7 @@
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
     </row>
-    <row r="385" spans="1:14" ht="15.75" customHeight="true">
+    <row r="385" spans="1:14" ht="15.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -7388,7 +7458,7 @@
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
     </row>
-    <row r="386" spans="1:14" ht="15.75" customHeight="true">
+    <row r="386" spans="1:14" ht="15.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -7404,7 +7474,7 @@
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
     </row>
-    <row r="387" spans="1:14" ht="15.75" customHeight="true">
+    <row r="387" spans="1:14" ht="15.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -7420,7 +7490,7 @@
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
     </row>
-    <row r="388" spans="1:14" ht="15.75" customHeight="true">
+    <row r="388" spans="1:14" ht="15.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -7436,7 +7506,7 @@
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
     </row>
-    <row r="389" spans="1:14" ht="15.75" customHeight="true">
+    <row r="389" spans="1:14" ht="15.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -7452,7 +7522,7 @@
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
     </row>
-    <row r="390" spans="1:14" ht="15.75" customHeight="true">
+    <row r="390" spans="1:14" ht="15.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -7468,7 +7538,7 @@
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
     </row>
-    <row r="391" spans="1:14" ht="15.75" customHeight="true">
+    <row r="391" spans="1:14" ht="15.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -7484,7 +7554,7 @@
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
     </row>
-    <row r="392" spans="1:14" ht="15.75" customHeight="true">
+    <row r="392" spans="1:14" ht="15.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -7500,7 +7570,7 @@
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
     </row>
-    <row r="393" spans="1:14" ht="15.75" customHeight="true">
+    <row r="393" spans="1:14" ht="15.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -7516,7 +7586,7 @@
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
     </row>
-    <row r="394" spans="1:14" ht="15.75" customHeight="true">
+    <row r="394" spans="1:14" ht="15.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -7532,7 +7602,7 @@
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
     </row>
-    <row r="395" spans="1:14" ht="15.75" customHeight="true">
+    <row r="395" spans="1:14" ht="15.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -7548,7 +7618,7 @@
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
     </row>
-    <row r="396" spans="1:14" ht="15.75" customHeight="true">
+    <row r="396" spans="1:14" ht="15.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -7564,7 +7634,7 @@
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
     </row>
-    <row r="397" spans="1:14" ht="15.75" customHeight="true">
+    <row r="397" spans="1:14" ht="15.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -7580,7 +7650,7 @@
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
     </row>
-    <row r="398" spans="1:14" ht="15.75" customHeight="true">
+    <row r="398" spans="1:14" ht="15.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -7596,7 +7666,7 @@
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
     </row>
-    <row r="399" spans="1:14" ht="15.75" customHeight="true">
+    <row r="399" spans="1:14" ht="15.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -7612,7 +7682,7 @@
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
     </row>
-    <row r="400" spans="1:14" ht="15.75" customHeight="true">
+    <row r="400" spans="1:14" ht="15.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -7628,7 +7698,7 @@
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
     </row>
-    <row r="401" spans="1:14" ht="15.75" customHeight="true">
+    <row r="401" spans="1:14" ht="15.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -7644,7 +7714,7 @@
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
     </row>
-    <row r="402" spans="1:14" ht="15.75" customHeight="true">
+    <row r="402" spans="1:14" ht="15.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -7660,7 +7730,7 @@
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
     </row>
-    <row r="403" spans="1:14" ht="15.75" customHeight="true">
+    <row r="403" spans="1:14" ht="15.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -7676,7 +7746,7 @@
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
     </row>
-    <row r="404" spans="1:14" ht="15.75" customHeight="true">
+    <row r="404" spans="1:14" ht="15.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -7692,7 +7762,7 @@
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
     </row>
-    <row r="405" spans="1:14" ht="15.75" customHeight="true">
+    <row r="405" spans="1:14" ht="15.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -7708,7 +7778,7 @@
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
     </row>
-    <row r="406" spans="1:14" ht="15.75" customHeight="true">
+    <row r="406" spans="1:14" ht="15.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -7724,7 +7794,7 @@
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
     </row>
-    <row r="407" spans="1:14" ht="15.75" customHeight="true">
+    <row r="407" spans="1:14" ht="15.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -7740,7 +7810,7 @@
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
     </row>
-    <row r="408" spans="1:14" ht="15.75" customHeight="true">
+    <row r="408" spans="1:14" ht="15.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -7756,7 +7826,7 @@
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
     </row>
-    <row r="409" spans="1:14" ht="15.75" customHeight="true">
+    <row r="409" spans="1:14" ht="15.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -7772,7 +7842,7 @@
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
     </row>
-    <row r="410" spans="1:14" ht="15.75" customHeight="true">
+    <row r="410" spans="1:14" ht="15.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -7788,7 +7858,7 @@
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
     </row>
-    <row r="411" spans="1:14" ht="15.75" customHeight="true">
+    <row r="411" spans="1:14" ht="15.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -7804,7 +7874,7 @@
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
     </row>
-    <row r="412" spans="1:14" ht="15.75" customHeight="true">
+    <row r="412" spans="1:14" ht="15.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -7820,7 +7890,7 @@
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
     </row>
-    <row r="413" spans="1:14" ht="15.75" customHeight="true">
+    <row r="413" spans="1:14" ht="15.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -7836,7 +7906,7 @@
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
     </row>
-    <row r="414" spans="1:14" ht="15.75" customHeight="true">
+    <row r="414" spans="1:14" ht="15.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -7852,7 +7922,7 @@
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
     </row>
-    <row r="415" spans="1:14" ht="15.75" customHeight="true">
+    <row r="415" spans="1:14" ht="15.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -7868,7 +7938,7 @@
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
     </row>
-    <row r="416" spans="1:14" ht="15.75" customHeight="true">
+    <row r="416" spans="1:14" ht="15.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -7884,7 +7954,7 @@
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
     </row>
-    <row r="417" spans="1:14" ht="15.75" customHeight="true">
+    <row r="417" spans="1:14" ht="15.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -7900,7 +7970,7 @@
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
     </row>
-    <row r="418" spans="1:14" ht="15.75" customHeight="true">
+    <row r="418" spans="1:14" ht="15.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -7916,7 +7986,7 @@
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
     </row>
-    <row r="419" spans="1:14" ht="15.75" customHeight="true">
+    <row r="419" spans="1:14" ht="15.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -7932,7 +8002,7 @@
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
     </row>
-    <row r="420" spans="1:14" ht="15.75" customHeight="true">
+    <row r="420" spans="1:14" ht="15.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -7948,7 +8018,7 @@
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
     </row>
-    <row r="421" spans="1:14" ht="15.75" customHeight="true">
+    <row r="421" spans="1:14" ht="15.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -7964,7 +8034,7 @@
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
     </row>
-    <row r="422" spans="1:14" ht="15.75" customHeight="true">
+    <row r="422" spans="1:14" ht="15.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -7980,7 +8050,7 @@
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
     </row>
-    <row r="423" spans="1:14" ht="15.75" customHeight="true">
+    <row r="423" spans="1:14" ht="15.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -7996,7 +8066,7 @@
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
     </row>
-    <row r="424" spans="1:14" ht="15.75" customHeight="true">
+    <row r="424" spans="1:14" ht="15.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -8012,7 +8082,7 @@
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
     </row>
-    <row r="425" spans="1:14" ht="15.75" customHeight="true">
+    <row r="425" spans="1:14" ht="15.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -8028,7 +8098,7 @@
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
     </row>
-    <row r="426" spans="1:14" ht="15.75" customHeight="true">
+    <row r="426" spans="1:14" ht="15.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -8044,7 +8114,7 @@
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
     </row>
-    <row r="427" spans="1:14" ht="15.75" customHeight="true">
+    <row r="427" spans="1:14" ht="15.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -8060,7 +8130,7 @@
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
     </row>
-    <row r="428" spans="1:14" ht="15.75" customHeight="true">
+    <row r="428" spans="1:14" ht="15.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -8076,7 +8146,7 @@
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
     </row>
-    <row r="429" spans="1:14" ht="15.75" customHeight="true">
+    <row r="429" spans="1:14" ht="15.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -8092,7 +8162,7 @@
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
     </row>
-    <row r="430" spans="1:14" ht="15.75" customHeight="true">
+    <row r="430" spans="1:14" ht="15.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -8108,7 +8178,7 @@
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
     </row>
-    <row r="431" spans="1:14" ht="15.75" customHeight="true">
+    <row r="431" spans="1:14" ht="15.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -8124,7 +8194,7 @@
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
     </row>
-    <row r="432" spans="1:14" ht="15.75" customHeight="true">
+    <row r="432" spans="1:14" ht="15.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -8140,7 +8210,7 @@
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
     </row>
-    <row r="433" spans="1:14" ht="15.75" customHeight="true">
+    <row r="433" spans="1:14" ht="15.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -8156,7 +8226,7 @@
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
     </row>
-    <row r="434" spans="1:14" ht="15.75" customHeight="true">
+    <row r="434" spans="1:14" ht="15.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -8172,7 +8242,7 @@
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
     </row>
-    <row r="435" spans="1:14" ht="15.75" customHeight="true">
+    <row r="435" spans="1:14" ht="15.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -8188,7 +8258,7 @@
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
     </row>
-    <row r="436" spans="1:14" ht="15.75" customHeight="true">
+    <row r="436" spans="1:14" ht="15.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -8204,7 +8274,7 @@
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
     </row>
-    <row r="437" spans="1:14" ht="15.75" customHeight="true">
+    <row r="437" spans="1:14" ht="15.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -8220,7 +8290,7 @@
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
     </row>
-    <row r="438" spans="1:14" ht="15.75" customHeight="true">
+    <row r="438" spans="1:14" ht="15.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -8236,7 +8306,7 @@
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
     </row>
-    <row r="439" spans="1:14" ht="15.75" customHeight="true">
+    <row r="439" spans="1:14" ht="15.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -8252,7 +8322,7 @@
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
     </row>
-    <row r="440" spans="1:14" ht="15.75" customHeight="true">
+    <row r="440" spans="1:14" ht="15.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -8268,7 +8338,7 @@
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
     </row>
-    <row r="441" spans="1:14" ht="15.75" customHeight="true">
+    <row r="441" spans="1:14" ht="15.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -8284,7 +8354,7 @@
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
     </row>
-    <row r="442" spans="1:14" ht="15.75" customHeight="true">
+    <row r="442" spans="1:14" ht="15.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -8300,7 +8370,7 @@
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
     </row>
-    <row r="443" spans="1:14" ht="15.75" customHeight="true">
+    <row r="443" spans="1:14" ht="15.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -8316,7 +8386,7 @@
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
     </row>
-    <row r="444" spans="1:14" ht="15.75" customHeight="true">
+    <row r="444" spans="1:14" ht="15.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -8332,7 +8402,7 @@
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
     </row>
-    <row r="445" spans="1:14" ht="15.75" customHeight="true">
+    <row r="445" spans="1:14" ht="15.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -8348,7 +8418,7 @@
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
     </row>
-    <row r="446" spans="1:14" ht="15.75" customHeight="true">
+    <row r="446" spans="1:14" ht="15.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -8364,7 +8434,7 @@
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
     </row>
-    <row r="447" spans="1:14" ht="15.75" customHeight="true">
+    <row r="447" spans="1:14" ht="15.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -8380,7 +8450,7 @@
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
     </row>
-    <row r="448" spans="1:14" ht="15.75" customHeight="true">
+    <row r="448" spans="1:14" ht="15.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -8396,7 +8466,7 @@
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
     </row>
-    <row r="449" spans="1:14" ht="15.75" customHeight="true">
+    <row r="449" spans="1:14" ht="15.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -8412,7 +8482,7 @@
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
     </row>
-    <row r="450" spans="1:14" ht="15.75" customHeight="true">
+    <row r="450" spans="1:14" ht="15.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -8428,7 +8498,7 @@
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
     </row>
-    <row r="451" spans="1:14" ht="15.75" customHeight="true">
+    <row r="451" spans="1:14" ht="15.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -8444,7 +8514,7 @@
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
     </row>
-    <row r="452" spans="1:14" ht="15.75" customHeight="true">
+    <row r="452" spans="1:14" ht="15.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -8460,7 +8530,7 @@
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
     </row>
-    <row r="453" spans="1:14" ht="15.75" customHeight="true">
+    <row r="453" spans="1:14" ht="15.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -8476,7 +8546,7 @@
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
     </row>
-    <row r="454" spans="1:14" ht="15.75" customHeight="true">
+    <row r="454" spans="1:14" ht="15.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -8492,7 +8562,7 @@
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
     </row>
-    <row r="455" spans="1:14" ht="15.75" customHeight="true">
+    <row r="455" spans="1:14" ht="15.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -8508,7 +8578,7 @@
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
     </row>
-    <row r="456" spans="1:14" ht="15.75" customHeight="true">
+    <row r="456" spans="1:14" ht="15.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -8524,7 +8594,7 @@
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
     </row>
-    <row r="457" spans="1:14" ht="15.75" customHeight="true">
+    <row r="457" spans="1:14" ht="15.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -8540,7 +8610,7 @@
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
     </row>
-    <row r="458" spans="1:14" ht="15.75" customHeight="true">
+    <row r="458" spans="1:14" ht="15.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -8556,7 +8626,7 @@
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
     </row>
-    <row r="459" spans="1:14" ht="15.75" customHeight="true">
+    <row r="459" spans="1:14" ht="15.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -8572,7 +8642,7 @@
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
     </row>
-    <row r="460" spans="1:14" ht="15.75" customHeight="true">
+    <row r="460" spans="1:14" ht="15.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -8588,7 +8658,7 @@
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
     </row>
-    <row r="461" spans="1:14" ht="15.75" customHeight="true">
+    <row r="461" spans="1:14" ht="15.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -8604,7 +8674,7 @@
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
     </row>
-    <row r="462" spans="1:14" ht="15.75" customHeight="true">
+    <row r="462" spans="1:14" ht="15.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -8620,7 +8690,7 @@
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
     </row>
-    <row r="463" spans="1:14" ht="15.75" customHeight="true">
+    <row r="463" spans="1:14" ht="15.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -8636,7 +8706,7 @@
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
     </row>
-    <row r="464" spans="1:14" ht="15.75" customHeight="true">
+    <row r="464" spans="1:14" ht="15.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -8652,7 +8722,7 @@
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
     </row>
-    <row r="465" spans="1:14" ht="15.75" customHeight="true">
+    <row r="465" spans="1:14" ht="15.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -8668,7 +8738,7 @@
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
     </row>
-    <row r="466" spans="1:14" ht="15.75" customHeight="true">
+    <row r="466" spans="1:14" ht="15.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -8684,7 +8754,7 @@
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
     </row>
-    <row r="467" spans="1:14" ht="15.75" customHeight="true">
+    <row r="467" spans="1:14" ht="15.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -8700,7 +8770,7 @@
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
     </row>
-    <row r="468" spans="1:14" ht="15.75" customHeight="true">
+    <row r="468" spans="1:14" ht="15.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -8716,7 +8786,7 @@
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
     </row>
-    <row r="469" spans="1:14" ht="15.75" customHeight="true">
+    <row r="469" spans="1:14" ht="15.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -8732,7 +8802,7 @@
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
     </row>
-    <row r="470" spans="1:14" ht="15.75" customHeight="true">
+    <row r="470" spans="1:14" ht="15.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -8748,7 +8818,7 @@
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
     </row>
-    <row r="471" spans="1:14" ht="15.75" customHeight="true">
+    <row r="471" spans="1:14" ht="15.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -8764,7 +8834,7 @@
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
     </row>
-    <row r="472" spans="1:14" ht="15.75" customHeight="true">
+    <row r="472" spans="1:14" ht="15.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -8780,7 +8850,7 @@
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
     </row>
-    <row r="473" spans="1:14" ht="15.75" customHeight="true">
+    <row r="473" spans="1:14" ht="15.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -8796,7 +8866,7 @@
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
     </row>
-    <row r="474" spans="1:14" ht="15.75" customHeight="true">
+    <row r="474" spans="1:14" ht="15.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -8812,7 +8882,7 @@
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
     </row>
-    <row r="475" spans="1:14" ht="15.75" customHeight="true">
+    <row r="475" spans="1:14" ht="15.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -8828,7 +8898,7 @@
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
     </row>
-    <row r="476" spans="1:14" ht="15.75" customHeight="true">
+    <row r="476" spans="1:14" ht="15.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -8844,7 +8914,7 @@
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
     </row>
-    <row r="477" spans="1:14" ht="15.75" customHeight="true">
+    <row r="477" spans="1:14" ht="15.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -8860,7 +8930,7 @@
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
     </row>
-    <row r="478" spans="1:14" ht="15.75" customHeight="true">
+    <row r="478" spans="1:14" ht="15.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -8876,7 +8946,7 @@
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
     </row>
-    <row r="479" spans="1:14" ht="15.75" customHeight="true">
+    <row r="479" spans="1:14" ht="15.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -8892,7 +8962,7 @@
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
     </row>
-    <row r="480" spans="1:14" ht="15.75" customHeight="true">
+    <row r="480" spans="1:14" ht="15.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -8908,7 +8978,7 @@
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
     </row>
-    <row r="481" spans="1:14" ht="15.75" customHeight="true">
+    <row r="481" spans="1:14" ht="15.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -8924,7 +8994,7 @@
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
     </row>
-    <row r="482" spans="1:14" ht="15.75" customHeight="true">
+    <row r="482" spans="1:14" ht="15.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -8940,7 +9010,7 @@
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
     </row>
-    <row r="483" spans="1:14" ht="15.75" customHeight="true">
+    <row r="483" spans="1:14" ht="15.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -8956,7 +9026,7 @@
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
     </row>
-    <row r="484" spans="1:14" ht="15.75" customHeight="true">
+    <row r="484" spans="1:14" ht="15.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -8972,7 +9042,7 @@
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
     </row>
-    <row r="485" spans="1:14" ht="15.75" customHeight="true">
+    <row r="485" spans="1:14" ht="15.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -8988,7 +9058,7 @@
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
     </row>
-    <row r="486" spans="1:14" ht="15.75" customHeight="true">
+    <row r="486" spans="1:14" ht="15.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -9004,7 +9074,7 @@
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
     </row>
-    <row r="487" spans="1:14" ht="15.75" customHeight="true">
+    <row r="487" spans="1:14" ht="15.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -9020,7 +9090,7 @@
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
     </row>
-    <row r="488" spans="1:14" ht="15.75" customHeight="true">
+    <row r="488" spans="1:14" ht="15.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -9036,7 +9106,7 @@
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
     </row>
-    <row r="489" spans="1:14" ht="15.75" customHeight="true">
+    <row r="489" spans="1:14" ht="15.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -9052,7 +9122,7 @@
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
     </row>
-    <row r="490" spans="1:14" ht="15.75" customHeight="true">
+    <row r="490" spans="1:14" ht="15.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -9068,7 +9138,7 @@
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
     </row>
-    <row r="491" spans="1:14" ht="15.75" customHeight="true">
+    <row r="491" spans="1:14" ht="15.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -9084,7 +9154,7 @@
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
     </row>
-    <row r="492" spans="1:14" ht="15.75" customHeight="true">
+    <row r="492" spans="1:14" ht="15.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -9100,7 +9170,7 @@
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
     </row>
-    <row r="493" spans="1:14" ht="15.75" customHeight="true">
+    <row r="493" spans="1:14" ht="15.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -9116,7 +9186,7 @@
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
     </row>
-    <row r="494" spans="1:14" ht="15.75" customHeight="true">
+    <row r="494" spans="1:14" ht="15.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -9132,7 +9202,7 @@
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
     </row>
-    <row r="495" spans="1:14" ht="15.75" customHeight="true">
+    <row r="495" spans="1:14" ht="15.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -9148,7 +9218,7 @@
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
     </row>
-    <row r="496" spans="1:14" ht="15.75" customHeight="true">
+    <row r="496" spans="1:14" ht="15.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -9164,7 +9234,7 @@
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
     </row>
-    <row r="497" spans="1:14" ht="15.75" customHeight="true">
+    <row r="497" spans="1:14" ht="15.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -9180,7 +9250,7 @@
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
     </row>
-    <row r="498" spans="1:14" ht="15.75" customHeight="true">
+    <row r="498" spans="1:14" ht="15.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -9196,7 +9266,7 @@
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
     </row>
-    <row r="499" spans="1:14" ht="15.75" customHeight="true">
+    <row r="499" spans="1:14" ht="15.75" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -9212,7 +9282,7 @@
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
     </row>
-    <row r="500" spans="1:14" ht="15.75" customHeight="true">
+    <row r="500" spans="1:14" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -9228,7 +9298,7 @@
       <c r="M500" s="1"/>
       <c r="N500" s="1"/>
     </row>
-    <row r="501" spans="1:14" ht="15.75" customHeight="true">
+    <row r="501" spans="1:14" ht="15.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -9244,7 +9314,7 @@
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
     </row>
-    <row r="502" spans="1:14" ht="15.75" customHeight="true">
+    <row r="502" spans="1:14" ht="15.75" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -9260,7 +9330,7 @@
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
     </row>
-    <row r="503" spans="1:14" ht="15.75" customHeight="true">
+    <row r="503" spans="1:14" ht="15.75" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -9276,7 +9346,7 @@
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
     </row>
-    <row r="504" spans="1:14" ht="15.75" customHeight="true">
+    <row r="504" spans="1:14" ht="15.75" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -9292,7 +9362,7 @@
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
     </row>
-    <row r="505" spans="1:14" ht="15.75" customHeight="true">
+    <row r="505" spans="1:14" ht="15.75" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -9308,7 +9378,7 @@
       <c r="M505" s="1"/>
       <c r="N505" s="1"/>
     </row>
-    <row r="506" spans="1:14" ht="15.75" customHeight="true">
+    <row r="506" spans="1:14" ht="15.75" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -9324,7 +9394,7 @@
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
     </row>
-    <row r="507" spans="1:14" ht="15.75" customHeight="true">
+    <row r="507" spans="1:14" ht="15.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -9340,7 +9410,7 @@
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
     </row>
-    <row r="508" spans="1:14" ht="15.75" customHeight="true">
+    <row r="508" spans="1:14" ht="15.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -9356,7 +9426,7 @@
       <c r="M508" s="1"/>
       <c r="N508" s="1"/>
     </row>
-    <row r="509" spans="1:14" ht="15.75" customHeight="true">
+    <row r="509" spans="1:14" ht="15.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -9372,7 +9442,7 @@
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
     </row>
-    <row r="510" spans="1:14" ht="15.75" customHeight="true">
+    <row r="510" spans="1:14" ht="15.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -9388,7 +9458,7 @@
       <c r="M510" s="1"/>
       <c r="N510" s="1"/>
     </row>
-    <row r="511" spans="1:14" ht="15.75" customHeight="true">
+    <row r="511" spans="1:14" ht="15.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -9404,7 +9474,7 @@
       <c r="M511" s="1"/>
       <c r="N511" s="1"/>
     </row>
-    <row r="512" spans="1:14" ht="15.75" customHeight="true">
+    <row r="512" spans="1:14" ht="15.75" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -9420,7 +9490,7 @@
       <c r="M512" s="1"/>
       <c r="N512" s="1"/>
     </row>
-    <row r="513" spans="1:14" ht="15.75" customHeight="true">
+    <row r="513" spans="1:14" ht="15.75" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -9436,7 +9506,7 @@
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
     </row>
-    <row r="514" spans="1:14" ht="15.75" customHeight="true">
+    <row r="514" spans="1:14" ht="15.75" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -9452,7 +9522,7 @@
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
     </row>
-    <row r="515" spans="1:14" ht="15.75" customHeight="true">
+    <row r="515" spans="1:14" ht="15.75" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -9468,7 +9538,7 @@
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
     </row>
-    <row r="516" spans="1:14" ht="15.75" customHeight="true">
+    <row r="516" spans="1:14" ht="15.75" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -9484,7 +9554,7 @@
       <c r="M516" s="1"/>
       <c r="N516" s="1"/>
     </row>
-    <row r="517" spans="1:14" ht="15.75" customHeight="true">
+    <row r="517" spans="1:14" ht="15.75" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -9500,7 +9570,7 @@
       <c r="M517" s="1"/>
       <c r="N517" s="1"/>
     </row>
-    <row r="518" spans="1:14" ht="15.75" customHeight="true">
+    <row r="518" spans="1:14" ht="15.75" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -9516,7 +9586,7 @@
       <c r="M518" s="1"/>
       <c r="N518" s="1"/>
     </row>
-    <row r="519" spans="1:14" ht="15.75" customHeight="true">
+    <row r="519" spans="1:14" ht="15.75" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -9532,7 +9602,7 @@
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
     </row>
-    <row r="520" spans="1:14" ht="15.75" customHeight="true">
+    <row r="520" spans="1:14" ht="15.75" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -9548,7 +9618,7 @@
       <c r="M520" s="1"/>
       <c r="N520" s="1"/>
     </row>
-    <row r="521" spans="1:14" ht="15.75" customHeight="true">
+    <row r="521" spans="1:14" ht="15.75" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -9564,7 +9634,7 @@
       <c r="M521" s="1"/>
       <c r="N521" s="1"/>
     </row>
-    <row r="522" spans="1:14" ht="15.75" customHeight="true">
+    <row r="522" spans="1:14" ht="15.75" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -9580,7 +9650,7 @@
       <c r="M522" s="1"/>
       <c r="N522" s="1"/>
     </row>
-    <row r="523" spans="1:14" ht="15.75" customHeight="true">
+    <row r="523" spans="1:14" ht="15.75" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -9596,7 +9666,7 @@
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
     </row>
-    <row r="524" spans="1:14" ht="15.75" customHeight="true">
+    <row r="524" spans="1:14" ht="15.75" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -9612,7 +9682,7 @@
       <c r="M524" s="1"/>
       <c r="N524" s="1"/>
     </row>
-    <row r="525" spans="1:14" ht="15.75" customHeight="true">
+    <row r="525" spans="1:14" ht="15.75" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -9628,7 +9698,7 @@
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
     </row>
-    <row r="526" spans="1:14" ht="15.75" customHeight="true">
+    <row r="526" spans="1:14" ht="15.75" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -9644,7 +9714,7 @@
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
     </row>
-    <row r="527" spans="1:14" ht="15.75" customHeight="true">
+    <row r="527" spans="1:14" ht="15.75" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -9660,7 +9730,7 @@
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
     </row>
-    <row r="528" spans="1:14" ht="15.75" customHeight="true">
+    <row r="528" spans="1:14" ht="15.75" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -9676,7 +9746,7 @@
       <c r="M528" s="1"/>
       <c r="N528" s="1"/>
     </row>
-    <row r="529" spans="1:14" ht="15.75" customHeight="true">
+    <row r="529" spans="1:14" ht="15.75" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -9692,7 +9762,7 @@
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
     </row>
-    <row r="530" spans="1:14" ht="15.75" customHeight="true">
+    <row r="530" spans="1:14" ht="15.75" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -9708,7 +9778,7 @@
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
     </row>
-    <row r="531" spans="1:14" ht="15.75" customHeight="true">
+    <row r="531" spans="1:14" ht="15.75" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -9724,7 +9794,7 @@
       <c r="M531" s="1"/>
       <c r="N531" s="1"/>
     </row>
-    <row r="532" spans="1:14" ht="15.75" customHeight="true">
+    <row r="532" spans="1:14" ht="15.75" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -9740,7 +9810,7 @@
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
     </row>
-    <row r="533" spans="1:14" ht="15.75" customHeight="true">
+    <row r="533" spans="1:14" ht="15.75" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -9756,7 +9826,7 @@
       <c r="M533" s="1"/>
       <c r="N533" s="1"/>
     </row>
-    <row r="534" spans="1:14" ht="15.75" customHeight="true">
+    <row r="534" spans="1:14" ht="15.75" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -9772,7 +9842,7 @@
       <c r="M534" s="1"/>
       <c r="N534" s="1"/>
     </row>
-    <row r="535" spans="1:14" ht="15.75" customHeight="true">
+    <row r="535" spans="1:14" ht="15.75" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -9788,7 +9858,7 @@
       <c r="M535" s="1"/>
       <c r="N535" s="1"/>
     </row>
-    <row r="536" spans="1:14" ht="15.75" customHeight="true">
+    <row r="536" spans="1:14" ht="15.75" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -9804,7 +9874,7 @@
       <c r="M536" s="1"/>
       <c r="N536" s="1"/>
     </row>
-    <row r="537" spans="1:14" ht="15.75" customHeight="true">
+    <row r="537" spans="1:14" ht="15.75" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -9820,7 +9890,7 @@
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
     </row>
-    <row r="538" spans="1:14" ht="15.75" customHeight="true">
+    <row r="538" spans="1:14" ht="15.75" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -9836,7 +9906,7 @@
       <c r="M538" s="1"/>
       <c r="N538" s="1"/>
     </row>
-    <row r="539" spans="1:14" ht="15.75" customHeight="true">
+    <row r="539" spans="1:14" ht="15.75" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -9852,7 +9922,7 @@
       <c r="M539" s="1"/>
       <c r="N539" s="1"/>
     </row>
-    <row r="540" spans="1:14" ht="15.75" customHeight="true">
+    <row r="540" spans="1:14" ht="15.75" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -9868,7 +9938,7 @@
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
     </row>
-    <row r="541" spans="1:14" ht="15.75" customHeight="true">
+    <row r="541" spans="1:14" ht="15.75" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -9884,7 +9954,7 @@
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
     </row>
-    <row r="542" spans="1:14" ht="15.75" customHeight="true">
+    <row r="542" spans="1:14" ht="15.75" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -9900,7 +9970,7 @@
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
     </row>
-    <row r="543" spans="1:14" ht="15.75" customHeight="true">
+    <row r="543" spans="1:14" ht="15.75" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -9916,7 +9986,7 @@
       <c r="M543" s="1"/>
       <c r="N543" s="1"/>
     </row>
-    <row r="544" spans="1:14" ht="15.75" customHeight="true">
+    <row r="544" spans="1:14" ht="15.75" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -9932,7 +10002,7 @@
       <c r="M544" s="1"/>
       <c r="N544" s="1"/>
     </row>
-    <row r="545" spans="1:14" ht="15.75" customHeight="true">
+    <row r="545" spans="1:14" ht="15.75" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -9948,7 +10018,7 @@
       <c r="M545" s="1"/>
       <c r="N545" s="1"/>
     </row>
-    <row r="546" spans="1:14" ht="15.75" customHeight="true">
+    <row r="546" spans="1:14" ht="15.75" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -9964,7 +10034,7 @@
       <c r="M546" s="1"/>
       <c r="N546" s="1"/>
     </row>
-    <row r="547" spans="1:14" ht="15.75" customHeight="true">
+    <row r="547" spans="1:14" ht="15.75" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -9980,7 +10050,7 @@
       <c r="M547" s="1"/>
       <c r="N547" s="1"/>
     </row>
-    <row r="548" spans="1:14" ht="15.75" customHeight="true">
+    <row r="548" spans="1:14" ht="15.75" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -9996,7 +10066,7 @@
       <c r="M548" s="1"/>
       <c r="N548" s="1"/>
     </row>
-    <row r="549" spans="1:14" ht="15.75" customHeight="true">
+    <row r="549" spans="1:14" ht="15.75" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -10012,7 +10082,7 @@
       <c r="M549" s="1"/>
       <c r="N549" s="1"/>
     </row>
-    <row r="550" spans="1:14" ht="15.75" customHeight="true">
+    <row r="550" spans="1:14" ht="15.75" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -10028,7 +10098,7 @@
       <c r="M550" s="1"/>
       <c r="N550" s="1"/>
     </row>
-    <row r="551" spans="1:14" ht="15.75" customHeight="true">
+    <row r="551" spans="1:14" ht="15.75" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -10044,7 +10114,7 @@
       <c r="M551" s="1"/>
       <c r="N551" s="1"/>
     </row>
-    <row r="552" spans="1:14" ht="15.75" customHeight="true">
+    <row r="552" spans="1:14" ht="15.75" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -10060,7 +10130,7 @@
       <c r="M552" s="1"/>
       <c r="N552" s="1"/>
     </row>
-    <row r="553" spans="1:14" ht="15.75" customHeight="true">
+    <row r="553" spans="1:14" ht="15.75" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -10076,7 +10146,7 @@
       <c r="M553" s="1"/>
       <c r="N553" s="1"/>
     </row>
-    <row r="554" spans="1:14" ht="15.75" customHeight="true">
+    <row r="554" spans="1:14" ht="15.75" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -10092,7 +10162,7 @@
       <c r="M554" s="1"/>
       <c r="N554" s="1"/>
     </row>
-    <row r="555" spans="1:14" ht="15.75" customHeight="true">
+    <row r="555" spans="1:14" ht="15.75" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -10108,7 +10178,7 @@
       <c r="M555" s="1"/>
       <c r="N555" s="1"/>
     </row>
-    <row r="556" spans="1:14" ht="15.75" customHeight="true">
+    <row r="556" spans="1:14" ht="15.75" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -10124,7 +10194,7 @@
       <c r="M556" s="1"/>
       <c r="N556" s="1"/>
     </row>
-    <row r="557" spans="1:14" ht="15.75" customHeight="true">
+    <row r="557" spans="1:14" ht="15.75" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -10140,7 +10210,7 @@
       <c r="M557" s="1"/>
       <c r="N557" s="1"/>
     </row>
-    <row r="558" spans="1:14" ht="15.75" customHeight="true">
+    <row r="558" spans="1:14" ht="15.75" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -10156,7 +10226,7 @@
       <c r="M558" s="1"/>
       <c r="N558" s="1"/>
     </row>
-    <row r="559" spans="1:14" ht="15.75" customHeight="true">
+    <row r="559" spans="1:14" ht="15.75" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -10172,7 +10242,7 @@
       <c r="M559" s="1"/>
       <c r="N559" s="1"/>
     </row>
-    <row r="560" spans="1:14" ht="15.75" customHeight="true">
+    <row r="560" spans="1:14" ht="15.75" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -10188,7 +10258,7 @@
       <c r="M560" s="1"/>
       <c r="N560" s="1"/>
     </row>
-    <row r="561" spans="1:14" ht="15.75" customHeight="true">
+    <row r="561" spans="1:14" ht="15.75" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -10204,7 +10274,7 @@
       <c r="M561" s="1"/>
       <c r="N561" s="1"/>
     </row>
-    <row r="562" spans="1:14" ht="15.75" customHeight="true">
+    <row r="562" spans="1:14" ht="15.75" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -10220,7 +10290,7 @@
       <c r="M562" s="1"/>
       <c r="N562" s="1"/>
     </row>
-    <row r="563" spans="1:14" ht="15.75" customHeight="true">
+    <row r="563" spans="1:14" ht="15.75" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -10236,7 +10306,7 @@
       <c r="M563" s="1"/>
       <c r="N563" s="1"/>
     </row>
-    <row r="564" spans="1:14" ht="15.75" customHeight="true">
+    <row r="564" spans="1:14" ht="15.75" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -10252,7 +10322,7 @@
       <c r="M564" s="1"/>
       <c r="N564" s="1"/>
     </row>
-    <row r="565" spans="1:14" ht="15.75" customHeight="true">
+    <row r="565" spans="1:14" ht="15.75" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -10268,7 +10338,7 @@
       <c r="M565" s="1"/>
       <c r="N565" s="1"/>
     </row>
-    <row r="566" spans="1:14" ht="15.75" customHeight="true">
+    <row r="566" spans="1:14" ht="15.75" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -10284,7 +10354,7 @@
       <c r="M566" s="1"/>
       <c r="N566" s="1"/>
     </row>
-    <row r="567" spans="1:14" ht="15.75" customHeight="true">
+    <row r="567" spans="1:14" ht="15.75" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -10300,7 +10370,7 @@
       <c r="M567" s="1"/>
       <c r="N567" s="1"/>
     </row>
-    <row r="568" spans="1:14" ht="15.75" customHeight="true">
+    <row r="568" spans="1:14" ht="15.75" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -10316,7 +10386,7 @@
       <c r="M568" s="1"/>
       <c r="N568" s="1"/>
     </row>
-    <row r="569" spans="1:14" ht="15.75" customHeight="true">
+    <row r="569" spans="1:14" ht="15.75" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -10332,7 +10402,7 @@
       <c r="M569" s="1"/>
       <c r="N569" s="1"/>
     </row>
-    <row r="570" spans="1:14" ht="15.75" customHeight="true">
+    <row r="570" spans="1:14" ht="15.75" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -10348,7 +10418,7 @@
       <c r="M570" s="1"/>
       <c r="N570" s="1"/>
     </row>
-    <row r="571" spans="1:14" ht="15.75" customHeight="true">
+    <row r="571" spans="1:14" ht="15.75" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -10364,7 +10434,7 @@
       <c r="M571" s="1"/>
       <c r="N571" s="1"/>
     </row>
-    <row r="572" spans="1:14" ht="15.75" customHeight="true">
+    <row r="572" spans="1:14" ht="15.75" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -10380,7 +10450,7 @@
       <c r="M572" s="1"/>
       <c r="N572" s="1"/>
     </row>
-    <row r="573" spans="1:14" ht="15.75" customHeight="true">
+    <row r="573" spans="1:14" ht="15.75" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -10396,7 +10466,7 @@
       <c r="M573" s="1"/>
       <c r="N573" s="1"/>
     </row>
-    <row r="574" spans="1:14" ht="15.75" customHeight="true">
+    <row r="574" spans="1:14" ht="15.75" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -10412,7 +10482,7 @@
       <c r="M574" s="1"/>
       <c r="N574" s="1"/>
     </row>
-    <row r="575" spans="1:14" ht="15.75" customHeight="true">
+    <row r="575" spans="1:14" ht="15.75" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -10428,7 +10498,7 @@
       <c r="M575" s="1"/>
       <c r="N575" s="1"/>
     </row>
-    <row r="576" spans="1:14" ht="15.75" customHeight="true">
+    <row r="576" spans="1:14" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -10444,7 +10514,7 @@
       <c r="M576" s="1"/>
       <c r="N576" s="1"/>
     </row>
-    <row r="577" spans="1:14" ht="15.75" customHeight="true">
+    <row r="577" spans="1:14" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -10460,7 +10530,7 @@
       <c r="M577" s="1"/>
       <c r="N577" s="1"/>
     </row>
-    <row r="578" spans="1:14" ht="15.75" customHeight="true">
+    <row r="578" spans="1:14" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -10476,7 +10546,7 @@
       <c r="M578" s="1"/>
       <c r="N578" s="1"/>
     </row>
-    <row r="579" spans="1:14" ht="15.75" customHeight="true">
+    <row r="579" spans="1:14" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -10492,7 +10562,7 @@
       <c r="M579" s="1"/>
       <c r="N579" s="1"/>
     </row>
-    <row r="580" spans="1:14" ht="15.75" customHeight="true">
+    <row r="580" spans="1:14" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -10508,7 +10578,7 @@
       <c r="M580" s="1"/>
       <c r="N580" s="1"/>
     </row>
-    <row r="581" spans="1:14" ht="15.75" customHeight="true">
+    <row r="581" spans="1:14" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -10524,7 +10594,7 @@
       <c r="M581" s="1"/>
       <c r="N581" s="1"/>
     </row>
-    <row r="582" spans="1:14" ht="15.75" customHeight="true">
+    <row r="582" spans="1:14" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -10540,7 +10610,7 @@
       <c r="M582" s="1"/>
       <c r="N582" s="1"/>
     </row>
-    <row r="583" spans="1:14" ht="15.75" customHeight="true">
+    <row r="583" spans="1:14" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -10556,7 +10626,7 @@
       <c r="M583" s="1"/>
       <c r="N583" s="1"/>
     </row>
-    <row r="584" spans="1:14" ht="15.75" customHeight="true">
+    <row r="584" spans="1:14" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -10572,7 +10642,7 @@
       <c r="M584" s="1"/>
       <c r="N584" s="1"/>
     </row>
-    <row r="585" spans="1:14" ht="15.75" customHeight="true">
+    <row r="585" spans="1:14" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -10588,7 +10658,7 @@
       <c r="M585" s="1"/>
       <c r="N585" s="1"/>
     </row>
-    <row r="586" spans="1:14" ht="15.75" customHeight="true">
+    <row r="586" spans="1:14" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -10604,7 +10674,7 @@
       <c r="M586" s="1"/>
       <c r="N586" s="1"/>
     </row>
-    <row r="587" spans="1:14" ht="15.75" customHeight="true">
+    <row r="587" spans="1:14" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -10620,7 +10690,7 @@
       <c r="M587" s="1"/>
       <c r="N587" s="1"/>
     </row>
-    <row r="588" spans="1:14" ht="15.75" customHeight="true">
+    <row r="588" spans="1:14" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -10636,7 +10706,7 @@
       <c r="M588" s="1"/>
       <c r="N588" s="1"/>
     </row>
-    <row r="589" spans="1:14" ht="15.75" customHeight="true">
+    <row r="589" spans="1:14" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -10652,7 +10722,7 @@
       <c r="M589" s="1"/>
       <c r="N589" s="1"/>
     </row>
-    <row r="590" spans="1:14" ht="15.75" customHeight="true">
+    <row r="590" spans="1:14" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -10668,7 +10738,7 @@
       <c r="M590" s="1"/>
       <c r="N590" s="1"/>
     </row>
-    <row r="591" spans="1:14" ht="15.75" customHeight="true">
+    <row r="591" spans="1:14" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -10684,7 +10754,7 @@
       <c r="M591" s="1"/>
       <c r="N591" s="1"/>
     </row>
-    <row r="592" spans="1:14" ht="15.75" customHeight="true">
+    <row r="592" spans="1:14" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -10700,7 +10770,7 @@
       <c r="M592" s="1"/>
       <c r="N592" s="1"/>
     </row>
-    <row r="593" spans="1:14" ht="15.75" customHeight="true">
+    <row r="593" spans="1:14" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -10716,7 +10786,7 @@
       <c r="M593" s="1"/>
       <c r="N593" s="1"/>
     </row>
-    <row r="594" spans="1:14" ht="15.75" customHeight="true">
+    <row r="594" spans="1:14" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -10732,7 +10802,7 @@
       <c r="M594" s="1"/>
       <c r="N594" s="1"/>
     </row>
-    <row r="595" spans="1:14" ht="15.75" customHeight="true">
+    <row r="595" spans="1:14" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -10748,7 +10818,7 @@
       <c r="M595" s="1"/>
       <c r="N595" s="1"/>
     </row>
-    <row r="596" spans="1:14" ht="15.75" customHeight="true">
+    <row r="596" spans="1:14" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -10764,7 +10834,7 @@
       <c r="M596" s="1"/>
       <c r="N596" s="1"/>
     </row>
-    <row r="597" spans="1:14" ht="15.75" customHeight="true">
+    <row r="597" spans="1:14" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -10780,7 +10850,7 @@
       <c r="M597" s="1"/>
       <c r="N597" s="1"/>
     </row>
-    <row r="598" spans="1:14" ht="15.75" customHeight="true">
+    <row r="598" spans="1:14" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -10796,7 +10866,7 @@
       <c r="M598" s="1"/>
       <c r="N598" s="1"/>
     </row>
-    <row r="599" spans="1:14" ht="15.75" customHeight="true">
+    <row r="599" spans="1:14" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -10812,7 +10882,7 @@
       <c r="M599" s="1"/>
       <c r="N599" s="1"/>
     </row>
-    <row r="600" spans="1:14" ht="15.75" customHeight="true">
+    <row r="600" spans="1:14" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -10828,7 +10898,7 @@
       <c r="M600" s="1"/>
       <c r="N600" s="1"/>
     </row>
-    <row r="601" spans="1:14" ht="15.75" customHeight="true">
+    <row r="601" spans="1:14" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -10844,7 +10914,7 @@
       <c r="M601" s="1"/>
       <c r="N601" s="1"/>
     </row>
-    <row r="602" spans="1:14" ht="15.75" customHeight="true">
+    <row r="602" spans="1:14" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -10860,7 +10930,7 @@
       <c r="M602" s="1"/>
       <c r="N602" s="1"/>
     </row>
-    <row r="603" spans="1:14" ht="15.75" customHeight="true">
+    <row r="603" spans="1:14" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -10876,7 +10946,7 @@
       <c r="M603" s="1"/>
       <c r="N603" s="1"/>
     </row>
-    <row r="604" spans="1:14" ht="15.75" customHeight="true">
+    <row r="604" spans="1:14" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -10892,7 +10962,7 @@
       <c r="M604" s="1"/>
       <c r="N604" s="1"/>
     </row>
-    <row r="605" spans="1:14" ht="15.75" customHeight="true">
+    <row r="605" spans="1:14" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -10908,7 +10978,7 @@
       <c r="M605" s="1"/>
       <c r="N605" s="1"/>
     </row>
-    <row r="606" spans="1:14" ht="15.75" customHeight="true">
+    <row r="606" spans="1:14" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -10924,7 +10994,7 @@
       <c r="M606" s="1"/>
       <c r="N606" s="1"/>
     </row>
-    <row r="607" spans="1:14" ht="15.75" customHeight="true">
+    <row r="607" spans="1:14" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -10940,7 +11010,7 @@
       <c r="M607" s="1"/>
       <c r="N607" s="1"/>
     </row>
-    <row r="608" spans="1:14" ht="15.75" customHeight="true">
+    <row r="608" spans="1:14" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -10956,7 +11026,7 @@
       <c r="M608" s="1"/>
       <c r="N608" s="1"/>
     </row>
-    <row r="609" spans="1:14" ht="15.75" customHeight="true">
+    <row r="609" spans="1:14" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -10972,7 +11042,7 @@
       <c r="M609" s="1"/>
       <c r="N609" s="1"/>
     </row>
-    <row r="610" spans="1:14" ht="15.75" customHeight="true">
+    <row r="610" spans="1:14" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -10988,7 +11058,7 @@
       <c r="M610" s="1"/>
       <c r="N610" s="1"/>
     </row>
-    <row r="611" spans="1:14" ht="15.75" customHeight="true">
+    <row r="611" spans="1:14" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -11004,7 +11074,7 @@
       <c r="M611" s="1"/>
       <c r="N611" s="1"/>
     </row>
-    <row r="612" spans="1:14" ht="15.75" customHeight="true">
+    <row r="612" spans="1:14" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -11020,7 +11090,7 @@
       <c r="M612" s="1"/>
       <c r="N612" s="1"/>
     </row>
-    <row r="613" spans="1:14" ht="15.75" customHeight="true">
+    <row r="613" spans="1:14" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -11036,7 +11106,7 @@
       <c r="M613" s="1"/>
       <c r="N613" s="1"/>
     </row>
-    <row r="614" spans="1:14" ht="15.75" customHeight="true">
+    <row r="614" spans="1:14" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -11052,7 +11122,7 @@
       <c r="M614" s="1"/>
       <c r="N614" s="1"/>
     </row>
-    <row r="615" spans="1:14" ht="15.75" customHeight="true">
+    <row r="615" spans="1:14" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -11068,7 +11138,7 @@
       <c r="M615" s="1"/>
       <c r="N615" s="1"/>
     </row>
-    <row r="616" spans="1:14" ht="15.75" customHeight="true">
+    <row r="616" spans="1:14" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -11084,7 +11154,7 @@
       <c r="M616" s="1"/>
       <c r="N616" s="1"/>
     </row>
-    <row r="617" spans="1:14" ht="15.75" customHeight="true">
+    <row r="617" spans="1:14" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -11100,7 +11170,7 @@
       <c r="M617" s="1"/>
       <c r="N617" s="1"/>
     </row>
-    <row r="618" spans="1:14" ht="15.75" customHeight="true">
+    <row r="618" spans="1:14" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -11116,7 +11186,7 @@
       <c r="M618" s="1"/>
       <c r="N618" s="1"/>
     </row>
-    <row r="619" spans="1:14" ht="15.75" customHeight="true">
+    <row r="619" spans="1:14" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -11132,7 +11202,7 @@
       <c r="M619" s="1"/>
       <c r="N619" s="1"/>
     </row>
-    <row r="620" spans="1:14" ht="15.75" customHeight="true">
+    <row r="620" spans="1:14" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -11148,7 +11218,7 @@
       <c r="M620" s="1"/>
       <c r="N620" s="1"/>
     </row>
-    <row r="621" spans="1:14" ht="15.75" customHeight="true">
+    <row r="621" spans="1:14" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -11164,7 +11234,7 @@
       <c r="M621" s="1"/>
       <c r="N621" s="1"/>
     </row>
-    <row r="622" spans="1:14" ht="15.75" customHeight="true">
+    <row r="622" spans="1:14" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -11180,7 +11250,7 @@
       <c r="M622" s="1"/>
       <c r="N622" s="1"/>
     </row>
-    <row r="623" spans="1:14" ht="15.75" customHeight="true">
+    <row r="623" spans="1:14" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -11196,7 +11266,7 @@
       <c r="M623" s="1"/>
       <c r="N623" s="1"/>
     </row>
-    <row r="624" spans="1:14" ht="15.75" customHeight="true">
+    <row r="624" spans="1:14" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -11212,7 +11282,7 @@
       <c r="M624" s="1"/>
       <c r="N624" s="1"/>
     </row>
-    <row r="625" spans="1:14" ht="15.75" customHeight="true">
+    <row r="625" spans="1:14" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -11228,7 +11298,7 @@
       <c r="M625" s="1"/>
       <c r="N625" s="1"/>
     </row>
-    <row r="626" spans="1:14" ht="15.75" customHeight="true">
+    <row r="626" spans="1:14" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -11244,7 +11314,7 @@
       <c r="M626" s="1"/>
       <c r="N626" s="1"/>
     </row>
-    <row r="627" spans="1:14" ht="15.75" customHeight="true">
+    <row r="627" spans="1:14" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -11260,7 +11330,7 @@
       <c r="M627" s="1"/>
       <c r="N627" s="1"/>
     </row>
-    <row r="628" spans="1:14" ht="15.75" customHeight="true">
+    <row r="628" spans="1:14" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -11276,7 +11346,7 @@
       <c r="M628" s="1"/>
       <c r="N628" s="1"/>
     </row>
-    <row r="629" spans="1:14" ht="15.75" customHeight="true">
+    <row r="629" spans="1:14" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -11292,7 +11362,7 @@
       <c r="M629" s="1"/>
       <c r="N629" s="1"/>
     </row>
-    <row r="630" spans="1:14" ht="15.75" customHeight="true">
+    <row r="630" spans="1:14" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -11308,7 +11378,7 @@
       <c r="M630" s="1"/>
       <c r="N630" s="1"/>
     </row>
-    <row r="631" spans="1:14" ht="15.75" customHeight="true">
+    <row r="631" spans="1:14" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -11324,7 +11394,7 @@
       <c r="M631" s="1"/>
       <c r="N631" s="1"/>
     </row>
-    <row r="632" spans="1:14" ht="15.75" customHeight="true">
+    <row r="632" spans="1:14" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -11340,7 +11410,7 @@
       <c r="M632" s="1"/>
       <c r="N632" s="1"/>
     </row>
-    <row r="633" spans="1:14" ht="15.75" customHeight="true">
+    <row r="633" spans="1:14" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -11356,7 +11426,7 @@
       <c r="M633" s="1"/>
       <c r="N633" s="1"/>
     </row>
-    <row r="634" spans="1:14" ht="15.75" customHeight="true">
+    <row r="634" spans="1:14" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -11372,7 +11442,7 @@
       <c r="M634" s="1"/>
       <c r="N634" s="1"/>
     </row>
-    <row r="635" spans="1:14" ht="15.75" customHeight="true">
+    <row r="635" spans="1:14" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -11388,7 +11458,7 @@
       <c r="M635" s="1"/>
       <c r="N635" s="1"/>
     </row>
-    <row r="636" spans="1:14" ht="15.75" customHeight="true">
+    <row r="636" spans="1:14" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -11404,7 +11474,7 @@
       <c r="M636" s="1"/>
       <c r="N636" s="1"/>
     </row>
-    <row r="637" spans="1:14" ht="15.75" customHeight="true">
+    <row r="637" spans="1:14" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -11420,7 +11490,7 @@
       <c r="M637" s="1"/>
       <c r="N637" s="1"/>
     </row>
-    <row r="638" spans="1:14" ht="15.75" customHeight="true">
+    <row r="638" spans="1:14" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -11436,7 +11506,7 @@
       <c r="M638" s="1"/>
       <c r="N638" s="1"/>
     </row>
-    <row r="639" spans="1:14" ht="15.75" customHeight="true">
+    <row r="639" spans="1:14" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -11452,7 +11522,7 @@
       <c r="M639" s="1"/>
       <c r="N639" s="1"/>
     </row>
-    <row r="640" spans="1:14" ht="15.75" customHeight="true">
+    <row r="640" spans="1:14" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -11468,7 +11538,7 @@
       <c r="M640" s="1"/>
       <c r="N640" s="1"/>
     </row>
-    <row r="641" spans="1:14" ht="15.75" customHeight="true">
+    <row r="641" spans="1:14" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -11484,7 +11554,7 @@
       <c r="M641" s="1"/>
       <c r="N641" s="1"/>
     </row>
-    <row r="642" spans="1:14" ht="15.75" customHeight="true">
+    <row r="642" spans="1:14" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -11500,7 +11570,7 @@
       <c r="M642" s="1"/>
       <c r="N642" s="1"/>
     </row>
-    <row r="643" spans="1:14" ht="15.75" customHeight="true">
+    <row r="643" spans="1:14" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -11516,7 +11586,7 @@
       <c r="M643" s="1"/>
       <c r="N643" s="1"/>
     </row>
-    <row r="644" spans="1:14" ht="15.75" customHeight="true">
+    <row r="644" spans="1:14" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -11532,7 +11602,7 @@
       <c r="M644" s="1"/>
       <c r="N644" s="1"/>
     </row>
-    <row r="645" spans="1:14" ht="15.75" customHeight="true">
+    <row r="645" spans="1:14" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -11548,7 +11618,7 @@
       <c r="M645" s="1"/>
       <c r="N645" s="1"/>
     </row>
-    <row r="646" spans="1:14" ht="15.75" customHeight="true">
+    <row r="646" spans="1:14" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -11564,7 +11634,7 @@
       <c r="M646" s="1"/>
       <c r="N646" s="1"/>
     </row>
-    <row r="647" spans="1:14" ht="15.75" customHeight="true">
+    <row r="647" spans="1:14" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -11580,7 +11650,7 @@
       <c r="M647" s="1"/>
       <c r="N647" s="1"/>
     </row>
-    <row r="648" spans="1:14" ht="15.75" customHeight="true">
+    <row r="648" spans="1:14" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -11596,7 +11666,7 @@
       <c r="M648" s="1"/>
       <c r="N648" s="1"/>
     </row>
-    <row r="649" spans="1:14" ht="15.75" customHeight="true">
+    <row r="649" spans="1:14" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -11612,7 +11682,7 @@
       <c r="M649" s="1"/>
       <c r="N649" s="1"/>
     </row>
-    <row r="650" spans="1:14" ht="15.75" customHeight="true">
+    <row r="650" spans="1:14" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -11628,7 +11698,7 @@
       <c r="M650" s="1"/>
       <c r="N650" s="1"/>
     </row>
-    <row r="651" spans="1:14" ht="15.75" customHeight="true">
+    <row r="651" spans="1:14" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -11644,7 +11714,7 @@
       <c r="M651" s="1"/>
       <c r="N651" s="1"/>
     </row>
-    <row r="652" spans="1:14" ht="15.75" customHeight="true">
+    <row r="652" spans="1:14" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -11660,7 +11730,7 @@
       <c r="M652" s="1"/>
       <c r="N652" s="1"/>
     </row>
-    <row r="653" spans="1:14" ht="15.75" customHeight="true">
+    <row r="653" spans="1:14" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -11676,7 +11746,7 @@
       <c r="M653" s="1"/>
       <c r="N653" s="1"/>
     </row>
-    <row r="654" spans="1:14" ht="15.75" customHeight="true">
+    <row r="654" spans="1:14" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -11692,7 +11762,7 @@
       <c r="M654" s="1"/>
       <c r="N654" s="1"/>
     </row>
-    <row r="655" spans="1:14" ht="15.75" customHeight="true">
+    <row r="655" spans="1:14" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -11708,7 +11778,7 @@
       <c r="M655" s="1"/>
       <c r="N655" s="1"/>
     </row>
-    <row r="656" spans="1:14" ht="15.75" customHeight="true">
+    <row r="656" spans="1:14" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -11724,7 +11794,7 @@
       <c r="M656" s="1"/>
       <c r="N656" s="1"/>
     </row>
-    <row r="657" spans="1:14" ht="15.75" customHeight="true">
+    <row r="657" spans="1:14" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -11740,7 +11810,7 @@
       <c r="M657" s="1"/>
       <c r="N657" s="1"/>
     </row>
-    <row r="658" spans="1:14" ht="15.75" customHeight="true">
+    <row r="658" spans="1:14" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -11756,7 +11826,7 @@
       <c r="M658" s="1"/>
       <c r="N658" s="1"/>
     </row>
-    <row r="659" spans="1:14" ht="15.75" customHeight="true">
+    <row r="659" spans="1:14" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -11772,7 +11842,7 @@
       <c r="M659" s="1"/>
       <c r="N659" s="1"/>
     </row>
-    <row r="660" spans="1:14" ht="15.75" customHeight="true">
+    <row r="660" spans="1:14" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -11788,7 +11858,7 @@
       <c r="M660" s="1"/>
       <c r="N660" s="1"/>
     </row>
-    <row r="661" spans="1:14" ht="15.75" customHeight="true">
+    <row r="661" spans="1:14" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -11804,7 +11874,7 @@
       <c r="M661" s="1"/>
       <c r="N661" s="1"/>
     </row>
-    <row r="662" spans="1:14" ht="15.75" customHeight="true">
+    <row r="662" spans="1:14" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -11820,7 +11890,7 @@
       <c r="M662" s="1"/>
       <c r="N662" s="1"/>
     </row>
-    <row r="663" spans="1:14" ht="15.75" customHeight="true">
+    <row r="663" spans="1:14" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -11836,7 +11906,7 @@
       <c r="M663" s="1"/>
       <c r="N663" s="1"/>
     </row>
-    <row r="664" spans="1:14" ht="15.75" customHeight="true">
+    <row r="664" spans="1:14" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -11852,7 +11922,7 @@
       <c r="M664" s="1"/>
       <c r="N664" s="1"/>
     </row>
-    <row r="665" spans="1:14" ht="15.75" customHeight="true">
+    <row r="665" spans="1:14" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -11868,7 +11938,7 @@
       <c r="M665" s="1"/>
       <c r="N665" s="1"/>
     </row>
-    <row r="666" spans="1:14" ht="15.75" customHeight="true">
+    <row r="666" spans="1:14" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -11884,7 +11954,7 @@
       <c r="M666" s="1"/>
       <c r="N666" s="1"/>
     </row>
-    <row r="667" spans="1:14" ht="15.75" customHeight="true">
+    <row r="667" spans="1:14" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -11900,7 +11970,7 @@
       <c r="M667" s="1"/>
       <c r="N667" s="1"/>
     </row>
-    <row r="668" spans="1:14" ht="15.75" customHeight="true">
+    <row r="668" spans="1:14" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -11916,7 +11986,7 @@
       <c r="M668" s="1"/>
       <c r="N668" s="1"/>
     </row>
-    <row r="669" spans="1:14" ht="15.75" customHeight="true">
+    <row r="669" spans="1:14" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -11932,7 +12002,7 @@
       <c r="M669" s="1"/>
       <c r="N669" s="1"/>
     </row>
-    <row r="670" spans="1:14" ht="15.75" customHeight="true">
+    <row r="670" spans="1:14" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -11948,7 +12018,7 @@
       <c r="M670" s="1"/>
       <c r="N670" s="1"/>
     </row>
-    <row r="671" spans="1:14" ht="15.75" customHeight="true">
+    <row r="671" spans="1:14" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -11964,7 +12034,7 @@
       <c r="M671" s="1"/>
       <c r="N671" s="1"/>
     </row>
-    <row r="672" spans="1:14" ht="15.75" customHeight="true">
+    <row r="672" spans="1:14" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -11980,7 +12050,7 @@
       <c r="M672" s="1"/>
       <c r="N672" s="1"/>
     </row>
-    <row r="673" spans="1:14" ht="15.75" customHeight="true">
+    <row r="673" spans="1:14" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -11996,7 +12066,7 @@
       <c r="M673" s="1"/>
       <c r="N673" s="1"/>
     </row>
-    <row r="674" spans="1:14" ht="15.75" customHeight="true">
+    <row r="674" spans="1:14" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -12012,7 +12082,7 @@
       <c r="M674" s="1"/>
       <c r="N674" s="1"/>
     </row>
-    <row r="675" spans="1:14" ht="15.75" customHeight="true">
+    <row r="675" spans="1:14" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -12028,7 +12098,7 @@
       <c r="M675" s="1"/>
       <c r="N675" s="1"/>
     </row>
-    <row r="676" spans="1:14" ht="15.75" customHeight="true">
+    <row r="676" spans="1:14" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -12044,7 +12114,7 @@
       <c r="M676" s="1"/>
       <c r="N676" s="1"/>
     </row>
-    <row r="677" spans="1:14" ht="15.75" customHeight="true">
+    <row r="677" spans="1:14" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -12060,7 +12130,7 @@
       <c r="M677" s="1"/>
       <c r="N677" s="1"/>
     </row>
-    <row r="678" spans="1:14" ht="15.75" customHeight="true">
+    <row r="678" spans="1:14" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -12076,7 +12146,7 @@
       <c r="M678" s="1"/>
       <c r="N678" s="1"/>
     </row>
-    <row r="679" spans="1:14" ht="15.75" customHeight="true">
+    <row r="679" spans="1:14" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -12092,7 +12162,7 @@
       <c r="M679" s="1"/>
       <c r="N679" s="1"/>
     </row>
-    <row r="680" spans="1:14" ht="15.75" customHeight="true">
+    <row r="680" spans="1:14" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -12108,7 +12178,7 @@
       <c r="M680" s="1"/>
       <c r="N680" s="1"/>
     </row>
-    <row r="681" spans="1:14" ht="15.75" customHeight="true">
+    <row r="681" spans="1:14" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -12124,7 +12194,7 @@
       <c r="M681" s="1"/>
       <c r="N681" s="1"/>
     </row>
-    <row r="682" spans="1:14" ht="15.75" customHeight="true">
+    <row r="682" spans="1:14" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -12140,7 +12210,7 @@
       <c r="M682" s="1"/>
       <c r="N682" s="1"/>
     </row>
-    <row r="683" spans="1:14" ht="15.75" customHeight="true">
+    <row r="683" spans="1:14" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -12156,7 +12226,7 @@
       <c r="M683" s="1"/>
       <c r="N683" s="1"/>
     </row>
-    <row r="684" spans="1:14" ht="15.75" customHeight="true">
+    <row r="684" spans="1:14" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -12172,7 +12242,7 @@
       <c r="M684" s="1"/>
       <c r="N684" s="1"/>
     </row>
-    <row r="685" spans="1:14" ht="15.75" customHeight="true">
+    <row r="685" spans="1:14" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -12188,7 +12258,7 @@
       <c r="M685" s="1"/>
       <c r="N685" s="1"/>
     </row>
-    <row r="686" spans="1:14" ht="15.75" customHeight="true">
+    <row r="686" spans="1:14" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -12204,7 +12274,7 @@
       <c r="M686" s="1"/>
       <c r="N686" s="1"/>
     </row>
-    <row r="687" spans="1:14" ht="15.75" customHeight="true">
+    <row r="687" spans="1:14" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -12220,7 +12290,7 @@
       <c r="M687" s="1"/>
       <c r="N687" s="1"/>
     </row>
-    <row r="688" spans="1:14" ht="15.75" customHeight="true">
+    <row r="688" spans="1:14" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -12236,7 +12306,7 @@
       <c r="M688" s="1"/>
       <c r="N688" s="1"/>
     </row>
-    <row r="689" spans="1:14" ht="15.75" customHeight="true">
+    <row r="689" spans="1:14" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -12252,7 +12322,7 @@
       <c r="M689" s="1"/>
       <c r="N689" s="1"/>
     </row>
-    <row r="690" spans="1:14" ht="15.75" customHeight="true">
+    <row r="690" spans="1:14" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -12268,7 +12338,7 @@
       <c r="M690" s="1"/>
       <c r="N690" s="1"/>
     </row>
-    <row r="691" spans="1:14" ht="15.75" customHeight="true">
+    <row r="691" spans="1:14" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -12284,7 +12354,7 @@
       <c r="M691" s="1"/>
       <c r="N691" s="1"/>
     </row>
-    <row r="692" spans="1:14" ht="15.75" customHeight="true">
+    <row r="692" spans="1:14" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -12300,7 +12370,7 @@
       <c r="M692" s="1"/>
       <c r="N692" s="1"/>
     </row>
-    <row r="693" spans="1:14" ht="15.75" customHeight="true">
+    <row r="693" spans="1:14" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -12316,7 +12386,7 @@
       <c r="M693" s="1"/>
       <c r="N693" s="1"/>
     </row>
-    <row r="694" spans="1:14" ht="15.75" customHeight="true">
+    <row r="694" spans="1:14" ht="15.75" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -12332,7 +12402,7 @@
       <c r="M694" s="1"/>
       <c r="N694" s="1"/>
     </row>
-    <row r="695" spans="1:14" ht="15.75" customHeight="true">
+    <row r="695" spans="1:14" ht="15.75" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -12348,7 +12418,7 @@
       <c r="M695" s="1"/>
       <c r="N695" s="1"/>
     </row>
-    <row r="696" spans="1:14" ht="15.75" customHeight="true">
+    <row r="696" spans="1:14" ht="15.75" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -12364,7 +12434,7 @@
       <c r="M696" s="1"/>
       <c r="N696" s="1"/>
     </row>
-    <row r="697" spans="1:14" ht="15.75" customHeight="true">
+    <row r="697" spans="1:14" ht="15.75" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -12380,7 +12450,7 @@
       <c r="M697" s="1"/>
       <c r="N697" s="1"/>
     </row>
-    <row r="698" spans="1:14" ht="15.75" customHeight="true">
+    <row r="698" spans="1:14" ht="15.75" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -12396,7 +12466,7 @@
       <c r="M698" s="1"/>
       <c r="N698" s="1"/>
     </row>
-    <row r="699" spans="1:14" ht="15.75" customHeight="true">
+    <row r="699" spans="1:14" ht="15.75" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -12412,7 +12482,7 @@
       <c r="M699" s="1"/>
       <c r="N699" s="1"/>
     </row>
-    <row r="700" spans="1:14" ht="15.75" customHeight="true">
+    <row r="700" spans="1:14" ht="15.75" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -12428,7 +12498,7 @@
       <c r="M700" s="1"/>
       <c r="N700" s="1"/>
     </row>
-    <row r="701" spans="1:14" ht="15.75" customHeight="true">
+    <row r="701" spans="1:14" ht="15.75" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -12444,7 +12514,7 @@
       <c r="M701" s="1"/>
       <c r="N701" s="1"/>
     </row>
-    <row r="702" spans="1:14" ht="15.75" customHeight="true">
+    <row r="702" spans="1:14" ht="15.75" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -12460,7 +12530,7 @@
       <c r="M702" s="1"/>
       <c r="N702" s="1"/>
     </row>
-    <row r="703" spans="1:14" ht="15.75" customHeight="true">
+    <row r="703" spans="1:14" ht="15.75" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -12476,7 +12546,7 @@
       <c r="M703" s="1"/>
       <c r="N703" s="1"/>
     </row>
-    <row r="704" spans="1:14" ht="15.75" customHeight="true">
+    <row r="704" spans="1:14" ht="15.75" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -12492,7 +12562,7 @@
       <c r="M704" s="1"/>
       <c r="N704" s="1"/>
     </row>
-    <row r="705" spans="1:14" ht="15.75" customHeight="true">
+    <row r="705" spans="1:14" ht="15.75" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -12508,7 +12578,7 @@
       <c r="M705" s="1"/>
       <c r="N705" s="1"/>
     </row>
-    <row r="706" spans="1:14" ht="15.75" customHeight="true">
+    <row r="706" spans="1:14" ht="15.75" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -12524,7 +12594,7 @@
       <c r="M706" s="1"/>
       <c r="N706" s="1"/>
     </row>
-    <row r="707" spans="1:14" ht="15.75" customHeight="true">
+    <row r="707" spans="1:14" ht="15.75" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -12540,7 +12610,7 @@
       <c r="M707" s="1"/>
       <c r="N707" s="1"/>
     </row>
-    <row r="708" spans="1:14" ht="15.75" customHeight="true">
+    <row r="708" spans="1:14" ht="15.75" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -12556,7 +12626,7 @@
       <c r="M708" s="1"/>
       <c r="N708" s="1"/>
     </row>
-    <row r="709" spans="1:14" ht="15.75" customHeight="true">
+    <row r="709" spans="1:14" ht="15.75" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -12572,7 +12642,7 @@
       <c r="M709" s="1"/>
       <c r="N709" s="1"/>
     </row>
-    <row r="710" spans="1:14" ht="15.75" customHeight="true">
+    <row r="710" spans="1:14" ht="15.75" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -12588,7 +12658,7 @@
       <c r="M710" s="1"/>
       <c r="N710" s="1"/>
     </row>
-    <row r="711" spans="1:14" ht="15.75" customHeight="true">
+    <row r="711" spans="1:14" ht="15.75" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -12604,7 +12674,7 @@
       <c r="M711" s="1"/>
       <c r="N711" s="1"/>
     </row>
-    <row r="712" spans="1:14" ht="15.75" customHeight="true">
+    <row r="712" spans="1:14" ht="15.75" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -12620,7 +12690,7 @@
       <c r="M712" s="1"/>
       <c r="N712" s="1"/>
     </row>
-    <row r="713" spans="1:14" ht="15.75" customHeight="true">
+    <row r="713" spans="1:14" ht="15.75" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -12636,7 +12706,7 @@
       <c r="M713" s="1"/>
       <c r="N713" s="1"/>
     </row>
-    <row r="714" spans="1:14" ht="15.75" customHeight="true">
+    <row r="714" spans="1:14" ht="15.75" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -12652,7 +12722,7 @@
       <c r="M714" s="1"/>
       <c r="N714" s="1"/>
     </row>
-    <row r="715" spans="1:14" ht="15.75" customHeight="true">
+    <row r="715" spans="1:14" ht="15.75" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -12668,7 +12738,7 @@
       <c r="M715" s="1"/>
       <c r="N715" s="1"/>
     </row>
-    <row r="716" spans="1:14" ht="15.75" customHeight="true">
+    <row r="716" spans="1:14" ht="15.75" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -12684,7 +12754,7 @@
       <c r="M716" s="1"/>
       <c r="N716" s="1"/>
     </row>
-    <row r="717" spans="1:14" ht="15.75" customHeight="true">
+    <row r="717" spans="1:14" ht="15.75" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -12700,7 +12770,7 @@
       <c r="M717" s="1"/>
       <c r="N717" s="1"/>
     </row>
-    <row r="718" spans="1:14" ht="15.75" customHeight="true">
+    <row r="718" spans="1:14" ht="15.75" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -12716,7 +12786,7 @@
       <c r="M718" s="1"/>
       <c r="N718" s="1"/>
     </row>
-    <row r="719" spans="1:14" ht="15.75" customHeight="true">
+    <row r="719" spans="1:14" ht="15.75" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -12732,7 +12802,7 @@
       <c r="M719" s="1"/>
       <c r="N719" s="1"/>
     </row>
-    <row r="720" spans="1:14" ht="15.75" customHeight="true">
+    <row r="720" spans="1:14" ht="15.75" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -12748,7 +12818,7 @@
       <c r="M720" s="1"/>
       <c r="N720" s="1"/>
     </row>
-    <row r="721" spans="1:14" ht="15.75" customHeight="true">
+    <row r="721" spans="1:14" ht="15.75" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -12764,7 +12834,7 @@
       <c r="M721" s="1"/>
       <c r="N721" s="1"/>
     </row>
-    <row r="722" spans="1:14" ht="15.75" customHeight="true">
+    <row r="722" spans="1:14" ht="15.75" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -12780,7 +12850,7 @@
       <c r="M722" s="1"/>
       <c r="N722" s="1"/>
     </row>
-    <row r="723" spans="1:14" ht="15.75" customHeight="true">
+    <row r="723" spans="1:14" ht="15.75" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -12796,7 +12866,7 @@
       <c r="M723" s="1"/>
       <c r="N723" s="1"/>
     </row>
-    <row r="724" spans="1:14" ht="15.75" customHeight="true">
+    <row r="724" spans="1:14" ht="15.75" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -12812,7 +12882,7 @@
       <c r="M724" s="1"/>
       <c r="N724" s="1"/>
     </row>
-    <row r="725" spans="1:14" ht="15.75" customHeight="true">
+    <row r="725" spans="1:14" ht="15.75" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -12828,7 +12898,7 @@
       <c r="M725" s="1"/>
       <c r="N725" s="1"/>
     </row>
-    <row r="726" spans="1:14" ht="15.75" customHeight="true">
+    <row r="726" spans="1:14" ht="15.75" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -12844,7 +12914,7 @@
       <c r="M726" s="1"/>
       <c r="N726" s="1"/>
     </row>
-    <row r="727" spans="1:14" ht="15.75" customHeight="true">
+    <row r="727" spans="1:14" ht="15.75" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -12860,7 +12930,7 @@
       <c r="M727" s="1"/>
       <c r="N727" s="1"/>
     </row>
-    <row r="728" spans="1:14" ht="15.75" customHeight="true">
+    <row r="728" spans="1:14" ht="15.75" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -12876,7 +12946,7 @@
       <c r="M728" s="1"/>
       <c r="N728" s="1"/>
     </row>
-    <row r="729" spans="1:14" ht="15.75" customHeight="true">
+    <row r="729" spans="1:14" ht="15.75" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -12892,7 +12962,7 @@
       <c r="M729" s="1"/>
       <c r="N729" s="1"/>
     </row>
-    <row r="730" spans="1:14" ht="15.75" customHeight="true">
+    <row r="730" spans="1:14" ht="15.75" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -12908,7 +12978,7 @@
       <c r="M730" s="1"/>
       <c r="N730" s="1"/>
     </row>
-    <row r="731" spans="1:14" ht="15.75" customHeight="true">
+    <row r="731" spans="1:14" ht="15.75" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -12924,7 +12994,7 @@
       <c r="M731" s="1"/>
       <c r="N731" s="1"/>
     </row>
-    <row r="732" spans="1:14" ht="15.75" customHeight="true">
+    <row r="732" spans="1:14" ht="15.75" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -12940,7 +13010,7 @@
       <c r="M732" s="1"/>
       <c r="N732" s="1"/>
     </row>
-    <row r="733" spans="1:14" ht="15.75" customHeight="true">
+    <row r="733" spans="1:14" ht="15.75" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -12956,7 +13026,7 @@
       <c r="M733" s="1"/>
       <c r="N733" s="1"/>
     </row>
-    <row r="734" spans="1:14" ht="15.75" customHeight="true">
+    <row r="734" spans="1:14" ht="15.75" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -12972,7 +13042,7 @@
       <c r="M734" s="1"/>
       <c r="N734" s="1"/>
     </row>
-    <row r="735" spans="1:14" ht="15.75" customHeight="true">
+    <row r="735" spans="1:14" ht="15.75" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -12988,7 +13058,7 @@
       <c r="M735" s="1"/>
       <c r="N735" s="1"/>
     </row>
-    <row r="736" spans="1:14" ht="15.75" customHeight="true">
+    <row r="736" spans="1:14" ht="15.75" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -13004,7 +13074,7 @@
       <c r="M736" s="1"/>
       <c r="N736" s="1"/>
     </row>
-    <row r="737" spans="1:14" ht="15.75" customHeight="true">
+    <row r="737" spans="1:14" ht="15.75" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -13020,7 +13090,7 @@
       <c r="M737" s="1"/>
       <c r="N737" s="1"/>
     </row>
-    <row r="738" spans="1:14" ht="15.75" customHeight="true">
+    <row r="738" spans="1:14" ht="15.75" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -13036,7 +13106,7 @@
       <c r="M738" s="1"/>
       <c r="N738" s="1"/>
     </row>
-    <row r="739" spans="1:14" ht="15.75" customHeight="true">
+    <row r="739" spans="1:14" ht="15.75" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -13052,7 +13122,7 @@
       <c r="M739" s="1"/>
       <c r="N739" s="1"/>
     </row>
-    <row r="740" spans="1:14" ht="15.75" customHeight="true">
+    <row r="740" spans="1:14" ht="15.75" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -13068,7 +13138,7 @@
       <c r="M740" s="1"/>
       <c r="N740" s="1"/>
     </row>
-    <row r="741" spans="1:14" ht="15.75" customHeight="true">
+    <row r="741" spans="1:14" ht="15.75" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -13084,7 +13154,7 @@
       <c r="M741" s="1"/>
       <c r="N741" s="1"/>
     </row>
-    <row r="742" spans="1:14" ht="15.75" customHeight="true">
+    <row r="742" spans="1:14" ht="15.75" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -13100,7 +13170,7 @@
       <c r="M742" s="1"/>
       <c r="N742" s="1"/>
     </row>
-    <row r="743" spans="1:14" ht="15.75" customHeight="true">
+    <row r="743" spans="1:14" ht="15.75" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -13116,7 +13186,7 @@
       <c r="M743" s="1"/>
       <c r="N743" s="1"/>
     </row>
-    <row r="744" spans="1:14" ht="15.75" customHeight="true">
+    <row r="744" spans="1:14" ht="15.75" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -13132,7 +13202,7 @@
       <c r="M744" s="1"/>
       <c r="N744" s="1"/>
     </row>
-    <row r="745" spans="1:14" ht="15.75" customHeight="true">
+    <row r="745" spans="1:14" ht="15.75" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -13148,7 +13218,7 @@
       <c r="M745" s="1"/>
       <c r="N745" s="1"/>
     </row>
-    <row r="746" spans="1:14" ht="15.75" customHeight="true">
+    <row r="746" spans="1:14" ht="15.75" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -13164,7 +13234,7 @@
       <c r="M746" s="1"/>
       <c r="N746" s="1"/>
     </row>
-    <row r="747" spans="1:14" ht="15.75" customHeight="true">
+    <row r="747" spans="1:14" ht="15.75" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -13180,7 +13250,7 @@
       <c r="M747" s="1"/>
       <c r="N747" s="1"/>
     </row>
-    <row r="748" spans="1:14" ht="15.75" customHeight="true">
+    <row r="748" spans="1:14" ht="15.75" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -13196,7 +13266,7 @@
       <c r="M748" s="1"/>
       <c r="N748" s="1"/>
     </row>
-    <row r="749" spans="1:14" ht="15.75" customHeight="true">
+    <row r="749" spans="1:14" ht="15.75" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -13212,7 +13282,7 @@
       <c r="M749" s="1"/>
       <c r="N749" s="1"/>
     </row>
-    <row r="750" spans="1:14" ht="15.75" customHeight="true">
+    <row r="750" spans="1:14" ht="15.75" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -13228,7 +13298,7 @@
       <c r="M750" s="1"/>
       <c r="N750" s="1"/>
     </row>
-    <row r="751" spans="1:14" ht="15.75" customHeight="true">
+    <row r="751" spans="1:14" ht="15.75" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -13244,7 +13314,7 @@
       <c r="M751" s="1"/>
       <c r="N751" s="1"/>
     </row>
-    <row r="752" spans="1:14" ht="15.75" customHeight="true">
+    <row r="752" spans="1:14" ht="15.75" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -13260,7 +13330,7 @@
       <c r="M752" s="1"/>
       <c r="N752" s="1"/>
     </row>
-    <row r="753" spans="1:14" ht="15.75" customHeight="true">
+    <row r="753" spans="1:14" ht="15.75" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -13276,7 +13346,7 @@
       <c r="M753" s="1"/>
       <c r="N753" s="1"/>
     </row>
-    <row r="754" spans="1:14" ht="15.75" customHeight="true">
+    <row r="754" spans="1:14" ht="15.75" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -13292,7 +13362,7 @@
       <c r="M754" s="1"/>
       <c r="N754" s="1"/>
     </row>
-    <row r="755" spans="1:14" ht="15.75" customHeight="true">
+    <row r="755" spans="1:14" ht="15.75" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -13308,7 +13378,7 @@
       <c r="M755" s="1"/>
       <c r="N755" s="1"/>
     </row>
-    <row r="756" spans="1:14" ht="15.75" customHeight="true">
+    <row r="756" spans="1:14" ht="15.75" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -13324,7 +13394,7 @@
       <c r="M756" s="1"/>
       <c r="N756" s="1"/>
     </row>
-    <row r="757" spans="1:14" ht="15.75" customHeight="true">
+    <row r="757" spans="1:14" ht="15.75" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -13340,7 +13410,7 @@
       <c r="M757" s="1"/>
       <c r="N757" s="1"/>
     </row>
-    <row r="758" spans="1:14" ht="15.75" customHeight="true">
+    <row r="758" spans="1:14" ht="15.75" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -13356,7 +13426,7 @@
       <c r="M758" s="1"/>
       <c r="N758" s="1"/>
     </row>
-    <row r="759" spans="1:14" ht="15.75" customHeight="true">
+    <row r="759" spans="1:14" ht="15.75" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -13372,7 +13442,7 @@
       <c r="M759" s="1"/>
       <c r="N759" s="1"/>
     </row>
-    <row r="760" spans="1:14" ht="15.75" customHeight="true">
+    <row r="760" spans="1:14" ht="15.75" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -13388,7 +13458,7 @@
       <c r="M760" s="1"/>
       <c r="N760" s="1"/>
     </row>
-    <row r="761" spans="1:14" ht="15.75" customHeight="true">
+    <row r="761" spans="1:14" ht="15.75" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -13404,7 +13474,7 @@
       <c r="M761" s="1"/>
       <c r="N761" s="1"/>
     </row>
-    <row r="762" spans="1:14" ht="15.75" customHeight="true">
+    <row r="762" spans="1:14" ht="15.75" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -13420,7 +13490,7 @@
       <c r="M762" s="1"/>
       <c r="N762" s="1"/>
     </row>
-    <row r="763" spans="1:14" ht="15.75" customHeight="true">
+    <row r="763" spans="1:14" ht="15.75" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -13436,7 +13506,7 @@
       <c r="M763" s="1"/>
       <c r="N763" s="1"/>
     </row>
-    <row r="764" spans="1:14" ht="15.75" customHeight="true">
+    <row r="764" spans="1:14" ht="15.75" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -13452,7 +13522,7 @@
       <c r="M764" s="1"/>
       <c r="N764" s="1"/>
     </row>
-    <row r="765" spans="1:14" ht="15.75" customHeight="true">
+    <row r="765" spans="1:14" ht="15.75" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -13468,7 +13538,7 @@
       <c r="M765" s="1"/>
       <c r="N765" s="1"/>
     </row>
-    <row r="766" spans="1:14" ht="15.75" customHeight="true">
+    <row r="766" spans="1:14" ht="15.75" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -13484,7 +13554,7 @@
       <c r="M766" s="1"/>
       <c r="N766" s="1"/>
     </row>
-    <row r="767" spans="1:14" ht="15.75" customHeight="true">
+    <row r="767" spans="1:14" ht="15.75" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -13500,7 +13570,7 @@
       <c r="M767" s="1"/>
       <c r="N767" s="1"/>
     </row>
-    <row r="768" spans="1:14" ht="15.75" customHeight="true">
+    <row r="768" spans="1:14" ht="15.75" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -13516,7 +13586,7 @@
       <c r="M768" s="1"/>
       <c r="N768" s="1"/>
     </row>
-    <row r="769" spans="1:14" ht="15.75" customHeight="true">
+    <row r="769" spans="1:14" ht="15.75" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -13532,7 +13602,7 @@
       <c r="M769" s="1"/>
       <c r="N769" s="1"/>
     </row>
-    <row r="770" spans="1:14" ht="15.75" customHeight="true">
+    <row r="770" spans="1:14" ht="15.75" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -13548,7 +13618,7 @@
       <c r="M770" s="1"/>
       <c r="N770" s="1"/>
     </row>
-    <row r="771" spans="1:14" ht="15.75" customHeight="true">
+    <row r="771" spans="1:14" ht="15.75" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -13564,7 +13634,7 @@
       <c r="M771" s="1"/>
       <c r="N771" s="1"/>
     </row>
-    <row r="772" spans="1:14" ht="15.75" customHeight="true">
+    <row r="772" spans="1:14" ht="15.75" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -13580,7 +13650,7 @@
       <c r="M772" s="1"/>
       <c r="N772" s="1"/>
     </row>
-    <row r="773" spans="1:14" ht="15.75" customHeight="true">
+    <row r="773" spans="1:14" ht="15.75" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -13596,7 +13666,7 @@
       <c r="M773" s="1"/>
       <c r="N773" s="1"/>
     </row>
-    <row r="774" spans="1:14" ht="15.75" customHeight="true">
+    <row r="774" spans="1:14" ht="15.75" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -13612,7 +13682,7 @@
       <c r="M774" s="1"/>
       <c r="N774" s="1"/>
     </row>
-    <row r="775" spans="1:14" ht="15.75" customHeight="true">
+    <row r="775" spans="1:14" ht="15.75" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -13628,7 +13698,7 @@
       <c r="M775" s="1"/>
       <c r="N775" s="1"/>
     </row>
-    <row r="776" spans="1:14" ht="15.75" customHeight="true">
+    <row r="776" spans="1:14" ht="15.75" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -13644,7 +13714,7 @@
       <c r="M776" s="1"/>
       <c r="N776" s="1"/>
     </row>
-    <row r="777" spans="1:14" ht="15.75" customHeight="true">
+    <row r="777" spans="1:14" ht="15.75" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -13660,7 +13730,7 @@
       <c r="M777" s="1"/>
       <c r="N777" s="1"/>
     </row>
-    <row r="778" spans="1:14" ht="15.75" customHeight="true">
+    <row r="778" spans="1:14" ht="15.75" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -13676,7 +13746,7 @@
       <c r="M778" s="1"/>
       <c r="N778" s="1"/>
     </row>
-    <row r="779" spans="1:14" ht="15.75" customHeight="true">
+    <row r="779" spans="1:14" ht="15.75" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -13692,7 +13762,7 @@
       <c r="M779" s="1"/>
       <c r="N779" s="1"/>
     </row>
-    <row r="780" spans="1:14" ht="15.75" customHeight="true">
+    <row r="780" spans="1:14" ht="15.75" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -13708,7 +13778,7 @@
       <c r="M780" s="1"/>
       <c r="N780" s="1"/>
     </row>
-    <row r="781" spans="1:14" ht="15.75" customHeight="true">
+    <row r="781" spans="1:14" ht="15.75" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -13724,7 +13794,7 @@
       <c r="M781" s="1"/>
       <c r="N781" s="1"/>
     </row>
-    <row r="782" spans="1:14" ht="15.75" customHeight="true">
+    <row r="782" spans="1:14" ht="15.75" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -13740,7 +13810,7 @@
       <c r="M782" s="1"/>
       <c r="N782" s="1"/>
     </row>
-    <row r="783" spans="1:14" ht="15.75" customHeight="true">
+    <row r="783" spans="1:14" ht="15.75" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -13756,7 +13826,7 @@
       <c r="M783" s="1"/>
       <c r="N783" s="1"/>
     </row>
-    <row r="784" spans="1:14" ht="15.75" customHeight="true">
+    <row r="784" spans="1:14" ht="15.75" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -13772,7 +13842,7 @@
       <c r="M784" s="1"/>
       <c r="N784" s="1"/>
     </row>
-    <row r="785" spans="1:14" ht="15.75" customHeight="true">
+    <row r="785" spans="1:14" ht="15.75" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -13788,7 +13858,7 @@
       <c r="M785" s="1"/>
       <c r="N785" s="1"/>
     </row>
-    <row r="786" spans="1:14" ht="15.75" customHeight="true">
+    <row r="786" spans="1:14" ht="15.75" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -13804,7 +13874,7 @@
       <c r="M786" s="1"/>
       <c r="N786" s="1"/>
     </row>
-    <row r="787" spans="1:14" ht="15.75" customHeight="true">
+    <row r="787" spans="1:14" ht="15.75" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -13820,7 +13890,7 @@
       <c r="M787" s="1"/>
       <c r="N787" s="1"/>
     </row>
-    <row r="788" spans="1:14" ht="15.75" customHeight="true">
+    <row r="788" spans="1:14" ht="15.75" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -13836,7 +13906,7 @@
       <c r="M788" s="1"/>
       <c r="N788" s="1"/>
     </row>
-    <row r="789" spans="1:14" ht="15.75" customHeight="true">
+    <row r="789" spans="1:14" ht="15.75" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -13852,7 +13922,7 @@
       <c r="M789" s="1"/>
       <c r="N789" s="1"/>
     </row>
-    <row r="790" spans="1:14" ht="15.75" customHeight="true">
+    <row r="790" spans="1:14" ht="15.75" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -13868,7 +13938,7 @@
       <c r="M790" s="1"/>
       <c r="N790" s="1"/>
     </row>
-    <row r="791" spans="1:14" ht="15.75" customHeight="true">
+    <row r="791" spans="1:14" ht="15.75" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -13884,7 +13954,7 @@
       <c r="M791" s="1"/>
       <c r="N791" s="1"/>
     </row>
-    <row r="792" spans="1:14" ht="15.75" customHeight="true">
+    <row r="792" spans="1:14" ht="15.75" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -13900,7 +13970,7 @@
       <c r="M792" s="1"/>
       <c r="N792" s="1"/>
     </row>
-    <row r="793" spans="1:14" ht="15.75" customHeight="true">
+    <row r="793" spans="1:14" ht="15.75" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -13916,7 +13986,7 @@
       <c r="M793" s="1"/>
       <c r="N793" s="1"/>
     </row>
-    <row r="794" spans="1:14" ht="15.75" customHeight="true">
+    <row r="794" spans="1:14" ht="15.75" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -13932,7 +14002,7 @@
       <c r="M794" s="1"/>
       <c r="N794" s="1"/>
     </row>
-    <row r="795" spans="1:14" ht="15.75" customHeight="true">
+    <row r="795" spans="1:14" ht="15.75" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -13948,7 +14018,7 @@
       <c r="M795" s="1"/>
       <c r="N795" s="1"/>
     </row>
-    <row r="796" spans="1:14" ht="15.75" customHeight="true">
+    <row r="796" spans="1:14" ht="15.75" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -13964,7 +14034,7 @@
       <c r="M796" s="1"/>
       <c r="N796" s="1"/>
     </row>
-    <row r="797" spans="1:14" ht="15.75" customHeight="true">
+    <row r="797" spans="1:14" ht="15.75" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -13980,7 +14050,7 @@
       <c r="M797" s="1"/>
       <c r="N797" s="1"/>
     </row>
-    <row r="798" spans="1:14" ht="15.75" customHeight="true">
+    <row r="798" spans="1:14" ht="15.75" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -13996,7 +14066,7 @@
       <c r="M798" s="1"/>
       <c r="N798" s="1"/>
     </row>
-    <row r="799" spans="1:14" ht="15.75" customHeight="true">
+    <row r="799" spans="1:14" ht="15.75" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -14012,7 +14082,7 @@
       <c r="M799" s="1"/>
       <c r="N799" s="1"/>
     </row>
-    <row r="800" spans="1:14" ht="15.75" customHeight="true">
+    <row r="800" spans="1:14" ht="15.75" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -14028,7 +14098,7 @@
       <c r="M800" s="1"/>
       <c r="N800" s="1"/>
     </row>
-    <row r="801" spans="1:14" ht="15.75" customHeight="true">
+    <row r="801" spans="1:14" ht="15.75" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -14044,7 +14114,7 @@
       <c r="M801" s="1"/>
       <c r="N801" s="1"/>
     </row>
-    <row r="802" spans="1:14" ht="15.75" customHeight="true">
+    <row r="802" spans="1:14" ht="15.75" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -14060,7 +14130,7 @@
       <c r="M802" s="1"/>
       <c r="N802" s="1"/>
     </row>
-    <row r="803" spans="1:14" ht="15.75" customHeight="true">
+    <row r="803" spans="1:14" ht="15.75" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -14076,7 +14146,7 @@
       <c r="M803" s="1"/>
       <c r="N803" s="1"/>
     </row>
-    <row r="804" spans="1:14" ht="15.75" customHeight="true">
+    <row r="804" spans="1:14" ht="15.75" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -14092,7 +14162,7 @@
       <c r="M804" s="1"/>
       <c r="N804" s="1"/>
     </row>
-    <row r="805" spans="1:14" ht="15.75" customHeight="true">
+    <row r="805" spans="1:14" ht="15.75" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -14108,7 +14178,7 @@
       <c r="M805" s="1"/>
       <c r="N805" s="1"/>
     </row>
-    <row r="806" spans="1:14" ht="15.75" customHeight="true">
+    <row r="806" spans="1:14" ht="15.75" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -14124,7 +14194,7 @@
       <c r="M806" s="1"/>
       <c r="N806" s="1"/>
     </row>
-    <row r="807" spans="1:14" ht="15.75" customHeight="true">
+    <row r="807" spans="1:14" ht="15.75" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -14140,7 +14210,7 @@
       <c r="M807" s="1"/>
       <c r="N807" s="1"/>
     </row>
-    <row r="808" spans="1:14" ht="15.75" customHeight="true">
+    <row r="808" spans="1:14" ht="15.75" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -14156,7 +14226,7 @@
       <c r="M808" s="1"/>
       <c r="N808" s="1"/>
     </row>
-    <row r="809" spans="1:14" ht="15.75" customHeight="true">
+    <row r="809" spans="1:14" ht="15.75" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -14172,7 +14242,7 @@
       <c r="M809" s="1"/>
       <c r="N809" s="1"/>
     </row>
-    <row r="810" spans="1:14" ht="15.75" customHeight="true">
+    <row r="810" spans="1:14" ht="15.75" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -14188,7 +14258,7 @@
       <c r="M810" s="1"/>
       <c r="N810" s="1"/>
     </row>
-    <row r="811" spans="1:14" ht="15.75" customHeight="true">
+    <row r="811" spans="1:14" ht="15.75" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -14204,7 +14274,7 @@
       <c r="M811" s="1"/>
       <c r="N811" s="1"/>
     </row>
-    <row r="812" spans="1:14" ht="15.75" customHeight="true">
+    <row r="812" spans="1:14" ht="15.75" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -14220,7 +14290,7 @@
       <c r="M812" s="1"/>
       <c r="N812" s="1"/>
     </row>
-    <row r="813" spans="1:14" ht="15.75" customHeight="true">
+    <row r="813" spans="1:14" ht="15.75" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -14236,7 +14306,7 @@
       <c r="M813" s="1"/>
       <c r="N813" s="1"/>
     </row>
-    <row r="814" spans="1:14" ht="15.75" customHeight="true">
+    <row r="814" spans="1:14" ht="15.75" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -14252,7 +14322,7 @@
       <c r="M814" s="1"/>
       <c r="N814" s="1"/>
     </row>
-    <row r="815" spans="1:14" ht="15.75" customHeight="true">
+    <row r="815" spans="1:14" ht="15.75" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -14268,7 +14338,7 @@
       <c r="M815" s="1"/>
       <c r="N815" s="1"/>
     </row>
-    <row r="816" spans="1:14" ht="15.75" customHeight="true">
+    <row r="816" spans="1:14" ht="15.75" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -14284,7 +14354,7 @@
       <c r="M816" s="1"/>
       <c r="N816" s="1"/>
     </row>
-    <row r="817" spans="1:14" ht="15.75" customHeight="true">
+    <row r="817" spans="1:14" ht="15.75" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -14300,7 +14370,7 @@
       <c r="M817" s="1"/>
       <c r="N817" s="1"/>
     </row>
-    <row r="818" spans="1:14" ht="15.75" customHeight="true">
+    <row r="818" spans="1:14" ht="15.75" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -14316,7 +14386,7 @@
       <c r="M818" s="1"/>
       <c r="N818" s="1"/>
     </row>
-    <row r="819" spans="1:14" ht="15.75" customHeight="true">
+    <row r="819" spans="1:14" ht="15.75" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -14332,7 +14402,7 @@
       <c r="M819" s="1"/>
       <c r="N819" s="1"/>
     </row>
-    <row r="820" spans="1:14" ht="15.75" customHeight="true">
+    <row r="820" spans="1:14" ht="15.75" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -14348,7 +14418,7 @@
       <c r="M820" s="1"/>
       <c r="N820" s="1"/>
     </row>
-    <row r="821" spans="1:14" ht="15.75" customHeight="true">
+    <row r="821" spans="1:14" ht="15.75" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -14364,7 +14434,7 @@
       <c r="M821" s="1"/>
       <c r="N821" s="1"/>
     </row>
-    <row r="822" spans="1:14" ht="15.75" customHeight="true">
+    <row r="822" spans="1:14" ht="15.75" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -14380,7 +14450,7 @@
       <c r="M822" s="1"/>
       <c r="N822" s="1"/>
     </row>
-    <row r="823" spans="1:14" ht="15.75" customHeight="true">
+    <row r="823" spans="1:14" ht="15.75" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -14396,7 +14466,7 @@
       <c r="M823" s="1"/>
       <c r="N823" s="1"/>
     </row>
-    <row r="824" spans="1:14" ht="15.75" customHeight="true">
+    <row r="824" spans="1:14" ht="15.75" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -14412,7 +14482,7 @@
       <c r="M824" s="1"/>
       <c r="N824" s="1"/>
     </row>
-    <row r="825" spans="1:14" ht="15.75" customHeight="true">
+    <row r="825" spans="1:14" ht="15.75" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -14428,7 +14498,7 @@
       <c r="M825" s="1"/>
       <c r="N825" s="1"/>
     </row>
-    <row r="826" spans="1:14" ht="15.75" customHeight="true">
+    <row r="826" spans="1:14" ht="15.75" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -14444,7 +14514,7 @@
       <c r="M826" s="1"/>
       <c r="N826" s="1"/>
     </row>
-    <row r="827" spans="1:14" ht="15.75" customHeight="true">
+    <row r="827" spans="1:14" ht="15.75" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -14460,7 +14530,7 @@
       <c r="M827" s="1"/>
       <c r="N827" s="1"/>
     </row>
-    <row r="828" spans="1:14" ht="15.75" customHeight="true">
+    <row r="828" spans="1:14" ht="15.75" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -14476,7 +14546,7 @@
       <c r="M828" s="1"/>
       <c r="N828" s="1"/>
     </row>
-    <row r="829" spans="1:14" ht="15.75" customHeight="true">
+    <row r="829" spans="1:14" ht="15.75" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -14492,7 +14562,7 @@
       <c r="M829" s="1"/>
       <c r="N829" s="1"/>
     </row>
-    <row r="830" spans="1:14" ht="15.75" customHeight="true">
+    <row r="830" spans="1:14" ht="15.75" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -14508,7 +14578,7 @@
       <c r="M830" s="1"/>
       <c r="N830" s="1"/>
     </row>
-    <row r="831" spans="1:14" ht="15.75" customHeight="true">
+    <row r="831" spans="1:14" ht="15.75" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -14524,7 +14594,7 @@
       <c r="M831" s="1"/>
       <c r="N831" s="1"/>
     </row>
-    <row r="832" spans="1:14" ht="15.75" customHeight="true">
+    <row r="832" spans="1:14" ht="15.75" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -14540,7 +14610,7 @@
       <c r="M832" s="1"/>
       <c r="N832" s="1"/>
     </row>
-    <row r="833" spans="1:14" ht="15.75" customHeight="true">
+    <row r="833" spans="1:14" ht="15.75" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -14556,7 +14626,7 @@
       <c r="M833" s="1"/>
       <c r="N833" s="1"/>
     </row>
-    <row r="834" spans="1:14" ht="15.75" customHeight="true">
+    <row r="834" spans="1:14" ht="15.75" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -14572,7 +14642,7 @@
       <c r="M834" s="1"/>
       <c r="N834" s="1"/>
     </row>
-    <row r="835" spans="1:14" ht="15.75" customHeight="true">
+    <row r="835" spans="1:14" ht="15.75" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -14588,7 +14658,7 @@
       <c r="M835" s="1"/>
       <c r="N835" s="1"/>
     </row>
-    <row r="836" spans="1:14" ht="15.75" customHeight="true">
+    <row r="836" spans="1:14" ht="15.75" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -14604,7 +14674,7 @@
       <c r="M836" s="1"/>
       <c r="N836" s="1"/>
     </row>
-    <row r="837" spans="1:14" ht="15.75" customHeight="true">
+    <row r="837" spans="1:14" ht="15.75" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -14620,7 +14690,7 @@
       <c r="M837" s="1"/>
       <c r="N837" s="1"/>
     </row>
-    <row r="838" spans="1:14" ht="15.75" customHeight="true">
+    <row r="838" spans="1:14" ht="15.75" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -14636,7 +14706,7 @@
       <c r="M838" s="1"/>
       <c r="N838" s="1"/>
     </row>
-    <row r="839" spans="1:14" ht="15.75" customHeight="true">
+    <row r="839" spans="1:14" ht="15.75" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -14652,7 +14722,7 @@
       <c r="M839" s="1"/>
       <c r="N839" s="1"/>
     </row>
-    <row r="840" spans="1:14" ht="15.75" customHeight="true">
+    <row r="840" spans="1:14" ht="15.75" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -14668,7 +14738,7 @@
       <c r="M840" s="1"/>
       <c r="N840" s="1"/>
     </row>
-    <row r="841" spans="1:14" ht="15.75" customHeight="true">
+    <row r="841" spans="1:14" ht="15.75" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -14684,7 +14754,7 @@
       <c r="M841" s="1"/>
       <c r="N841" s="1"/>
     </row>
-    <row r="842" spans="1:14" ht="15.75" customHeight="true">
+    <row r="842" spans="1:14" ht="15.75" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -14700,7 +14770,7 @@
       <c r="M842" s="1"/>
       <c r="N842" s="1"/>
     </row>
-    <row r="843" spans="1:14" ht="15.75" customHeight="true">
+    <row r="843" spans="1:14" ht="15.75" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -14716,7 +14786,7 @@
       <c r="M843" s="1"/>
       <c r="N843" s="1"/>
     </row>
-    <row r="844" spans="1:14" ht="15.75" customHeight="true">
+    <row r="844" spans="1:14" ht="15.75" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -14732,7 +14802,7 @@
       <c r="M844" s="1"/>
       <c r="N844" s="1"/>
     </row>
-    <row r="845" spans="1:14" ht="15.75" customHeight="true">
+    <row r="845" spans="1:14" ht="15.75" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -14748,7 +14818,7 @@
       <c r="M845" s="1"/>
       <c r="N845" s="1"/>
     </row>
-    <row r="846" spans="1:14" ht="15.75" customHeight="true">
+    <row r="846" spans="1:14" ht="15.75" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -14764,7 +14834,7 @@
       <c r="M846" s="1"/>
       <c r="N846" s="1"/>
     </row>
-    <row r="847" spans="1:14" ht="15.75" customHeight="true">
+    <row r="847" spans="1:14" ht="15.75" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -14780,7 +14850,7 @@
       <c r="M847" s="1"/>
       <c r="N847" s="1"/>
     </row>
-    <row r="848" spans="1:14" ht="15.75" customHeight="true">
+    <row r="848" spans="1:14" ht="15.75" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -14796,7 +14866,7 @@
       <c r="M848" s="1"/>
       <c r="N848" s="1"/>
     </row>
-    <row r="849" spans="1:14" ht="15.75" customHeight="true">
+    <row r="849" spans="1:14" ht="15.75" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -14812,7 +14882,7 @@
       <c r="M849" s="1"/>
       <c r="N849" s="1"/>
     </row>
-    <row r="850" spans="1:14" ht="15.75" customHeight="true">
+    <row r="850" spans="1:14" ht="15.75" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -14828,7 +14898,7 @@
       <c r="M850" s="1"/>
       <c r="N850" s="1"/>
     </row>
-    <row r="851" spans="1:14" ht="15.75" customHeight="true">
+    <row r="851" spans="1:14" ht="15.75" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -14844,7 +14914,7 @@
       <c r="M851" s="1"/>
       <c r="N851" s="1"/>
     </row>
-    <row r="852" spans="1:14" ht="15.75" customHeight="true">
+    <row r="852" spans="1:14" ht="15.75" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -14860,7 +14930,7 @@
       <c r="M852" s="1"/>
       <c r="N852" s="1"/>
     </row>
-    <row r="853" spans="1:14" ht="15.75" customHeight="true">
+    <row r="853" spans="1:14" ht="15.75" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -14876,7 +14946,7 @@
       <c r="M853" s="1"/>
       <c r="N853" s="1"/>
     </row>
-    <row r="854" spans="1:14" ht="15.75" customHeight="true">
+    <row r="854" spans="1:14" ht="15.75" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -14892,7 +14962,7 @@
       <c r="M854" s="1"/>
       <c r="N854" s="1"/>
     </row>
-    <row r="855" spans="1:14" ht="15.75" customHeight="true">
+    <row r="855" spans="1:14" ht="15.75" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -14908,7 +14978,7 @@
       <c r="M855" s="1"/>
       <c r="N855" s="1"/>
     </row>
-    <row r="856" spans="1:14" ht="15.75" customHeight="true">
+    <row r="856" spans="1:14" ht="15.75" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -14924,7 +14994,7 @@
       <c r="M856" s="1"/>
       <c r="N856" s="1"/>
     </row>
-    <row r="857" spans="1:14" ht="15.75" customHeight="true">
+    <row r="857" spans="1:14" ht="15.75" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -14940,7 +15010,7 @@
       <c r="M857" s="1"/>
       <c r="N857" s="1"/>
     </row>
-    <row r="858" spans="1:14" ht="15.75" customHeight="true">
+    <row r="858" spans="1:14" ht="15.75" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -14956,7 +15026,7 @@
       <c r="M858" s="1"/>
       <c r="N858" s="1"/>
     </row>
-    <row r="859" spans="1:14" ht="15.75" customHeight="true">
+    <row r="859" spans="1:14" ht="15.75" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -14972,7 +15042,7 @@
       <c r="M859" s="1"/>
       <c r="N859" s="1"/>
     </row>
-    <row r="860" spans="1:14" ht="15.75" customHeight="true">
+    <row r="860" spans="1:14" ht="15.75" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -14988,7 +15058,7 @@
       <c r="M860" s="1"/>
       <c r="N860" s="1"/>
     </row>
-    <row r="861" spans="1:14" ht="15.75" customHeight="true">
+    <row r="861" spans="1:14" ht="15.75" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -15004,7 +15074,7 @@
       <c r="M861" s="1"/>
       <c r="N861" s="1"/>
     </row>
-    <row r="862" spans="1:14" ht="15.75" customHeight="true">
+    <row r="862" spans="1:14" ht="15.75" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -15020,7 +15090,7 @@
       <c r="M862" s="1"/>
       <c r="N862" s="1"/>
     </row>
-    <row r="863" spans="1:14" ht="15.75" customHeight="true">
+    <row r="863" spans="1:14" ht="15.75" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -15036,7 +15106,7 @@
       <c r="M863" s="1"/>
       <c r="N863" s="1"/>
     </row>
-    <row r="864" spans="1:14" ht="15.75" customHeight="true">
+    <row r="864" spans="1:14" ht="15.75" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -15052,7 +15122,7 @@
       <c r="M864" s="1"/>
       <c r="N864" s="1"/>
     </row>
-    <row r="865" spans="1:14" ht="15.75" customHeight="true">
+    <row r="865" spans="1:14" ht="15.75" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -15068,7 +15138,7 @@
       <c r="M865" s="1"/>
       <c r="N865" s="1"/>
     </row>
-    <row r="866" spans="1:14" ht="15.75" customHeight="true">
+    <row r="866" spans="1:14" ht="15.75" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -15084,7 +15154,7 @@
       <c r="M866" s="1"/>
       <c r="N866" s="1"/>
     </row>
-    <row r="867" spans="1:14" ht="15.75" customHeight="true">
+    <row r="867" spans="1:14" ht="15.75" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -15100,7 +15170,7 @@
       <c r="M867" s="1"/>
       <c r="N867" s="1"/>
     </row>
-    <row r="868" spans="1:14" ht="15.75" customHeight="true">
+    <row r="868" spans="1:14" ht="15.75" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -15116,7 +15186,7 @@
       <c r="M868" s="1"/>
       <c r="N868" s="1"/>
     </row>
-    <row r="869" spans="1:14" ht="15.75" customHeight="true">
+    <row r="869" spans="1:14" ht="15.75" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -15132,7 +15202,7 @@
       <c r="M869" s="1"/>
       <c r="N869" s="1"/>
     </row>
-    <row r="870" spans="1:14" ht="15.75" customHeight="true">
+    <row r="870" spans="1:14" ht="15.75" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -15148,7 +15218,7 @@
       <c r="M870" s="1"/>
       <c r="N870" s="1"/>
     </row>
-    <row r="871" spans="1:14" ht="15.75" customHeight="true">
+    <row r="871" spans="1:14" ht="15.75" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -15164,7 +15234,7 @@
       <c r="M871" s="1"/>
       <c r="N871" s="1"/>
     </row>
-    <row r="872" spans="1:14" ht="15.75" customHeight="true">
+    <row r="872" spans="1:14" ht="15.75" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -15180,7 +15250,7 @@
       <c r="M872" s="1"/>
       <c r="N872" s="1"/>
     </row>
-    <row r="873" spans="1:14" ht="15.75" customHeight="true">
+    <row r="873" spans="1:14" ht="15.75" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -15196,7 +15266,7 @@
       <c r="M873" s="1"/>
       <c r="N873" s="1"/>
     </row>
-    <row r="874" spans="1:14" ht="15.75" customHeight="true">
+    <row r="874" spans="1:14" ht="15.75" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -15212,7 +15282,7 @@
       <c r="M874" s="1"/>
       <c r="N874" s="1"/>
     </row>
-    <row r="875" spans="1:14" ht="15.75" customHeight="true">
+    <row r="875" spans="1:14" ht="15.75" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -15228,7 +15298,7 @@
       <c r="M875" s="1"/>
       <c r="N875" s="1"/>
     </row>
-    <row r="876" spans="1:14" ht="15.75" customHeight="true">
+    <row r="876" spans="1:14" ht="15.75" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -15244,7 +15314,7 @@
       <c r="M876" s="1"/>
       <c r="N876" s="1"/>
     </row>
-    <row r="877" spans="1:14" ht="15.75" customHeight="true">
+    <row r="877" spans="1:14" ht="15.75" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -15260,7 +15330,7 @@
       <c r="M877" s="1"/>
       <c r="N877" s="1"/>
     </row>
-    <row r="878" spans="1:14" ht="15.75" customHeight="true">
+    <row r="878" spans="1:14" ht="15.75" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -15276,7 +15346,7 @@
       <c r="M878" s="1"/>
       <c r="N878" s="1"/>
     </row>
-    <row r="879" spans="1:14" ht="15.75" customHeight="true">
+    <row r="879" spans="1:14" ht="15.75" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -15292,7 +15362,7 @@
       <c r="M879" s="1"/>
       <c r="N879" s="1"/>
     </row>
-    <row r="880" spans="1:14" ht="15.75" customHeight="true">
+    <row r="880" spans="1:14" ht="15.75" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -15308,7 +15378,7 @@
       <c r="M880" s="1"/>
       <c r="N880" s="1"/>
     </row>
-    <row r="881" spans="1:14" ht="15.75" customHeight="true">
+    <row r="881" spans="1:14" ht="15.75" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -15324,7 +15394,7 @@
       <c r="M881" s="1"/>
       <c r="N881" s="1"/>
     </row>
-    <row r="882" spans="1:14" ht="15.75" customHeight="true">
+    <row r="882" spans="1:14" ht="15.75" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -15340,7 +15410,7 @@
       <c r="M882" s="1"/>
       <c r="N882" s="1"/>
     </row>
-    <row r="883" spans="1:14" ht="15.75" customHeight="true">
+    <row r="883" spans="1:14" ht="15.75" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -15356,7 +15426,7 @@
       <c r="M883" s="1"/>
       <c r="N883" s="1"/>
     </row>
-    <row r="884" spans="1:14" ht="15.75" customHeight="true">
+    <row r="884" spans="1:14" ht="15.75" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -15372,7 +15442,7 @@
       <c r="M884" s="1"/>
       <c r="N884" s="1"/>
     </row>
-    <row r="885" spans="1:14" ht="15.75" customHeight="true">
+    <row r="885" spans="1:14" ht="15.75" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -15388,7 +15458,7 @@
       <c r="M885" s="1"/>
       <c r="N885" s="1"/>
     </row>
-    <row r="886" spans="1:14" ht="15.75" customHeight="true">
+    <row r="886" spans="1:14" ht="15.75" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -15404,7 +15474,7 @@
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
     </row>
-    <row r="887" spans="1:14" ht="15.75" customHeight="true">
+    <row r="887" spans="1:14" ht="15.75" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -15420,7 +15490,7 @@
       <c r="M887" s="1"/>
       <c r="N887" s="1"/>
     </row>
-    <row r="888" spans="1:14" ht="15.75" customHeight="true">
+    <row r="888" spans="1:14" ht="15.75" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -15436,7 +15506,7 @@
       <c r="M888" s="1"/>
       <c r="N888" s="1"/>
     </row>
-    <row r="889" spans="1:14" ht="15.75" customHeight="true">
+    <row r="889" spans="1:14" ht="15.75" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -15452,7 +15522,7 @@
       <c r="M889" s="1"/>
       <c r="N889" s="1"/>
     </row>
-    <row r="890" spans="1:14" ht="15.75" customHeight="true">
+    <row r="890" spans="1:14" ht="15.75" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -15468,7 +15538,7 @@
       <c r="M890" s="1"/>
       <c r="N890" s="1"/>
     </row>
-    <row r="891" spans="1:14" ht="15.75" customHeight="true">
+    <row r="891" spans="1:14" ht="15.75" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -15484,7 +15554,7 @@
       <c r="M891" s="1"/>
       <c r="N891" s="1"/>
     </row>
-    <row r="892" spans="1:14" ht="15.75" customHeight="true">
+    <row r="892" spans="1:14" ht="15.75" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -15500,7 +15570,7 @@
       <c r="M892" s="1"/>
       <c r="N892" s="1"/>
     </row>
-    <row r="893" spans="1:14" ht="15.75" customHeight="true">
+    <row r="893" spans="1:14" ht="15.75" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -15516,7 +15586,7 @@
       <c r="M893" s="1"/>
       <c r="N893" s="1"/>
     </row>
-    <row r="894" spans="1:14" ht="15.75" customHeight="true">
+    <row r="894" spans="1:14" ht="15.75" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -15532,7 +15602,7 @@
       <c r="M894" s="1"/>
       <c r="N894" s="1"/>
     </row>
-    <row r="895" spans="1:14" ht="15.75" customHeight="true">
+    <row r="895" spans="1:14" ht="15.75" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -15548,7 +15618,7 @@
       <c r="M895" s="1"/>
       <c r="N895" s="1"/>
     </row>
-    <row r="896" spans="1:14" ht="15.75" customHeight="true">
+    <row r="896" spans="1:14" ht="15.75" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -15564,7 +15634,7 @@
       <c r="M896" s="1"/>
       <c r="N896" s="1"/>
     </row>
-    <row r="897" spans="1:14" ht="15.75" customHeight="true">
+    <row r="897" spans="1:14" ht="15.75" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -15580,7 +15650,7 @@
       <c r="M897" s="1"/>
       <c r="N897" s="1"/>
     </row>
-    <row r="898" spans="1:14" ht="15.75" customHeight="true">
+    <row r="898" spans="1:14" ht="15.75" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -15596,7 +15666,7 @@
       <c r="M898" s="1"/>
       <c r="N898" s="1"/>
     </row>
-    <row r="899" spans="1:14" ht="15.75" customHeight="true">
+    <row r="899" spans="1:14" ht="15.75" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -15612,7 +15682,7 @@
       <c r="M899" s="1"/>
       <c r="N899" s="1"/>
     </row>
-    <row r="900" spans="1:14" ht="15.75" customHeight="true">
+    <row r="900" spans="1:14" ht="15.75" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -15628,7 +15698,7 @@
       <c r="M900" s="1"/>
       <c r="N900" s="1"/>
     </row>
-    <row r="901" spans="1:14" ht="15.75" customHeight="true">
+    <row r="901" spans="1:14" ht="15.75" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -15644,7 +15714,7 @@
       <c r="M901" s="1"/>
       <c r="N901" s="1"/>
     </row>
-    <row r="902" spans="1:14" ht="15.75" customHeight="true">
+    <row r="902" spans="1:14" ht="15.75" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -15660,7 +15730,7 @@
       <c r="M902" s="1"/>
       <c r="N902" s="1"/>
     </row>
-    <row r="903" spans="1:14" ht="15.75" customHeight="true">
+    <row r="903" spans="1:14" ht="15.75" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -15676,7 +15746,7 @@
       <c r="M903" s="1"/>
       <c r="N903" s="1"/>
     </row>
-    <row r="904" spans="1:14" ht="15.75" customHeight="true">
+    <row r="904" spans="1:14" ht="15.75" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -15692,7 +15762,7 @@
       <c r="M904" s="1"/>
       <c r="N904" s="1"/>
     </row>
-    <row r="905" spans="1:14" ht="15.75" customHeight="true">
+    <row r="905" spans="1:14" ht="15.75" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -15708,7 +15778,7 @@
       <c r="M905" s="1"/>
       <c r="N905" s="1"/>
     </row>
-    <row r="906" spans="1:14" ht="15.75" customHeight="true">
+    <row r="906" spans="1:14" ht="15.75" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -15724,7 +15794,7 @@
       <c r="M906" s="1"/>
       <c r="N906" s="1"/>
     </row>
-    <row r="907" spans="1:14" ht="15.75" customHeight="true">
+    <row r="907" spans="1:14" ht="15.75" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -15740,7 +15810,7 @@
       <c r="M907" s="1"/>
       <c r="N907" s="1"/>
     </row>
-    <row r="908" spans="1:14" ht="15.75" customHeight="true">
+    <row r="908" spans="1:14" ht="15.75" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -15756,7 +15826,7 @@
       <c r="M908" s="1"/>
       <c r="N908" s="1"/>
     </row>
-    <row r="909" spans="1:14" ht="15.75" customHeight="true">
+    <row r="909" spans="1:14" ht="15.75" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -15772,7 +15842,7 @@
       <c r="M909" s="1"/>
       <c r="N909" s="1"/>
     </row>
-    <row r="910" spans="1:14" ht="15.75" customHeight="true">
+    <row r="910" spans="1:14" ht="15.75" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -15788,7 +15858,7 @@
       <c r="M910" s="1"/>
       <c r="N910" s="1"/>
     </row>
-    <row r="911" spans="1:14" ht="15.75" customHeight="true">
+    <row r="911" spans="1:14" ht="15.75" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -15804,7 +15874,7 @@
       <c r="M911" s="1"/>
       <c r="N911" s="1"/>
     </row>
-    <row r="912" spans="1:14" ht="15.75" customHeight="true">
+    <row r="912" spans="1:14" ht="15.75" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -15820,7 +15890,7 @@
       <c r="M912" s="1"/>
       <c r="N912" s="1"/>
     </row>
-    <row r="913" spans="1:14" ht="15.75" customHeight="true">
+    <row r="913" spans="1:14" ht="15.75" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -15836,7 +15906,7 @@
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
     </row>
-    <row r="914" spans="1:14" ht="15.75" customHeight="true">
+    <row r="914" spans="1:14" ht="15.75" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -15852,7 +15922,7 @@
       <c r="M914" s="1"/>
       <c r="N914" s="1"/>
     </row>
-    <row r="915" spans="1:14" ht="15.75" customHeight="true">
+    <row r="915" spans="1:14" ht="15.75" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -15868,7 +15938,7 @@
       <c r="M915" s="1"/>
       <c r="N915" s="1"/>
     </row>
-    <row r="916" spans="1:14" ht="15.75" customHeight="true">
+    <row r="916" spans="1:14" ht="15.75" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -15884,7 +15954,7 @@
       <c r="M916" s="1"/>
       <c r="N916" s="1"/>
     </row>
-    <row r="917" spans="1:14" ht="15.75" customHeight="true">
+    <row r="917" spans="1:14" ht="15.75" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -15900,7 +15970,7 @@
       <c r="M917" s="1"/>
       <c r="N917" s="1"/>
     </row>
-    <row r="918" spans="1:14" ht="15.75" customHeight="true">
+    <row r="918" spans="1:14" ht="15.75" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -15916,7 +15986,7 @@
       <c r="M918" s="1"/>
       <c r="N918" s="1"/>
     </row>
-    <row r="919" spans="1:14" ht="15.75" customHeight="true">
+    <row r="919" spans="1:14" ht="15.75" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -15932,7 +16002,7 @@
       <c r="M919" s="1"/>
       <c r="N919" s="1"/>
     </row>
-    <row r="920" spans="1:14" ht="15.75" customHeight="true">
+    <row r="920" spans="1:14" ht="15.75" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -15948,7 +16018,7 @@
       <c r="M920" s="1"/>
       <c r="N920" s="1"/>
     </row>
-    <row r="921" spans="1:14" ht="15.75" customHeight="true">
+    <row r="921" spans="1:14" ht="15.75" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -15964,7 +16034,7 @@
       <c r="M921" s="1"/>
       <c r="N921" s="1"/>
     </row>
-    <row r="922" spans="1:14" ht="15.75" customHeight="true">
+    <row r="922" spans="1:14" ht="15.75" customHeight="1">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -15980,7 +16050,7 @@
       <c r="M922" s="1"/>
       <c r="N922" s="1"/>
     </row>
-    <row r="923" spans="1:14" ht="15.75" customHeight="true">
+    <row r="923" spans="1:14" ht="15.75" customHeight="1">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -15996,7 +16066,7 @@
       <c r="M923" s="1"/>
       <c r="N923" s="1"/>
     </row>
-    <row r="924" spans="1:14" ht="15.75" customHeight="true">
+    <row r="924" spans="1:14" ht="15.75" customHeight="1">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -16012,7 +16082,7 @@
       <c r="M924" s="1"/>
       <c r="N924" s="1"/>
     </row>
-    <row r="925" spans="1:14" ht="15.75" customHeight="true">
+    <row r="925" spans="1:14" ht="15.75" customHeight="1">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -16028,7 +16098,7 @@
       <c r="M925" s="1"/>
       <c r="N925" s="1"/>
     </row>
-    <row r="926" spans="1:14" ht="15.75" customHeight="true">
+    <row r="926" spans="1:14" ht="15.75" customHeight="1">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -16044,7 +16114,7 @@
       <c r="M926" s="1"/>
       <c r="N926" s="1"/>
     </row>
-    <row r="927" spans="1:14" ht="15.75" customHeight="true">
+    <row r="927" spans="1:14" ht="15.75" customHeight="1">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -16060,7 +16130,7 @@
       <c r="M927" s="1"/>
       <c r="N927" s="1"/>
     </row>
-    <row r="928" spans="1:14" ht="15.75" customHeight="true">
+    <row r="928" spans="1:14" ht="15.75" customHeight="1">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -16076,7 +16146,7 @@
       <c r="M928" s="1"/>
       <c r="N928" s="1"/>
     </row>
-    <row r="929" spans="1:14" ht="15.75" customHeight="true">
+    <row r="929" spans="1:14" ht="15.75" customHeight="1">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -16092,7 +16162,7 @@
       <c r="M929" s="1"/>
       <c r="N929" s="1"/>
     </row>
-    <row r="930" spans="1:14" ht="15.75" customHeight="true">
+    <row r="930" spans="1:14" ht="15.75" customHeight="1">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -16108,7 +16178,7 @@
       <c r="M930" s="1"/>
       <c r="N930" s="1"/>
     </row>
-    <row r="931" spans="1:14" ht="15.75" customHeight="true">
+    <row r="931" spans="1:14" ht="15.75" customHeight="1">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -16124,7 +16194,7 @@
       <c r="M931" s="1"/>
       <c r="N931" s="1"/>
     </row>
-    <row r="932" spans="1:14" ht="15.75" customHeight="true">
+    <row r="932" spans="1:14" ht="15.75" customHeight="1">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -16140,7 +16210,7 @@
       <c r="M932" s="1"/>
       <c r="N932" s="1"/>
     </row>
-    <row r="933" spans="1:14" ht="15.75" customHeight="true">
+    <row r="933" spans="1:14" ht="15.75" customHeight="1">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -16156,7 +16226,7 @@
       <c r="M933" s="1"/>
       <c r="N933" s="1"/>
     </row>
-    <row r="934" spans="1:14" ht="15.75" customHeight="true">
+    <row r="934" spans="1:14" ht="15.75" customHeight="1">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -16172,7 +16242,7 @@
       <c r="M934" s="1"/>
       <c r="N934" s="1"/>
     </row>
-    <row r="935" spans="1:14" ht="15.75" customHeight="true">
+    <row r="935" spans="1:14" ht="15.75" customHeight="1">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -16188,7 +16258,7 @@
       <c r="M935" s="1"/>
       <c r="N935" s="1"/>
     </row>
-    <row r="936" spans="1:14" ht="15.75" customHeight="true">
+    <row r="936" spans="1:14" ht="15.75" customHeight="1">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -16204,7 +16274,7 @@
       <c r="M936" s="1"/>
       <c r="N936" s="1"/>
     </row>
-    <row r="937" spans="1:14" ht="15.75" customHeight="true">
+    <row r="937" spans="1:14" ht="15.75" customHeight="1">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -16220,7 +16290,7 @@
       <c r="M937" s="1"/>
       <c r="N937" s="1"/>
     </row>
-    <row r="938" spans="1:14" ht="15.75" customHeight="true">
+    <row r="938" spans="1:14" ht="15.75" customHeight="1">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -16236,7 +16306,7 @@
       <c r="M938" s="1"/>
       <c r="N938" s="1"/>
     </row>
-    <row r="939" spans="1:14" ht="15.75" customHeight="true">
+    <row r="939" spans="1:14" ht="15.75" customHeight="1">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -16252,7 +16322,7 @@
       <c r="M939" s="1"/>
       <c r="N939" s="1"/>
     </row>
-    <row r="940" spans="1:14" ht="15.75" customHeight="true">
+    <row r="940" spans="1:14" ht="15.75" customHeight="1">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -16268,7 +16338,7 @@
       <c r="M940" s="1"/>
       <c r="N940" s="1"/>
     </row>
-    <row r="941" spans="1:14" ht="15.75" customHeight="true">
+    <row r="941" spans="1:14" ht="15.75" customHeight="1">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -16284,7 +16354,7 @@
       <c r="M941" s="1"/>
       <c r="N941" s="1"/>
     </row>
-    <row r="942" spans="1:14" ht="15.75" customHeight="true">
+    <row r="942" spans="1:14" ht="15.75" customHeight="1">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -16300,7 +16370,7 @@
       <c r="M942" s="1"/>
       <c r="N942" s="1"/>
     </row>
-    <row r="943" spans="1:14" ht="15.75" customHeight="true">
+    <row r="943" spans="1:14" ht="15.75" customHeight="1">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -16316,7 +16386,7 @@
       <c r="M943" s="1"/>
       <c r="N943" s="1"/>
     </row>
-    <row r="944" spans="1:14" ht="15.75" customHeight="true">
+    <row r="944" spans="1:14" ht="15.75" customHeight="1">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -16332,7 +16402,7 @@
       <c r="M944" s="1"/>
       <c r="N944" s="1"/>
     </row>
-    <row r="945" spans="1:14" ht="15.75" customHeight="true">
+    <row r="945" spans="1:14" ht="15.75" customHeight="1">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -16348,7 +16418,7 @@
       <c r="M945" s="1"/>
       <c r="N945" s="1"/>
     </row>
-    <row r="946" spans="1:14" ht="15.75" customHeight="true">
+    <row r="946" spans="1:14" ht="15.75" customHeight="1">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -16364,7 +16434,7 @@
       <c r="M946" s="1"/>
       <c r="N946" s="1"/>
     </row>
-    <row r="947" spans="1:14" ht="15.75" customHeight="true">
+    <row r="947" spans="1:14" ht="15.75" customHeight="1">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -16380,7 +16450,7 @@
       <c r="M947" s="1"/>
       <c r="N947" s="1"/>
     </row>
-    <row r="948" spans="1:14" ht="15.75" customHeight="true">
+    <row r="948" spans="1:14" ht="15.75" customHeight="1">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -16396,7 +16466,7 @@
       <c r="M948" s="1"/>
       <c r="N948" s="1"/>
     </row>
-    <row r="949" spans="1:14" ht="15.75" customHeight="true">
+    <row r="949" spans="1:14" ht="15.75" customHeight="1">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -16412,7 +16482,7 @@
       <c r="M949" s="1"/>
       <c r="N949" s="1"/>
     </row>
-    <row r="950" spans="1:14" ht="15.75" customHeight="true">
+    <row r="950" spans="1:14" ht="15.75" customHeight="1">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -16428,7 +16498,7 @@
       <c r="M950" s="1"/>
       <c r="N950" s="1"/>
     </row>
-    <row r="951" spans="1:14" ht="15.75" customHeight="true">
+    <row r="951" spans="1:14" ht="15.75" customHeight="1">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -16444,7 +16514,7 @@
       <c r="M951" s="1"/>
       <c r="N951" s="1"/>
     </row>
-    <row r="952" spans="1:14" ht="15.75" customHeight="true">
+    <row r="952" spans="1:14" ht="15.75" customHeight="1">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -16460,7 +16530,7 @@
       <c r="M952" s="1"/>
       <c r="N952" s="1"/>
     </row>
-    <row r="953" spans="1:14" ht="15.75" customHeight="true">
+    <row r="953" spans="1:14" ht="15.75" customHeight="1">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -16476,7 +16546,7 @@
       <c r="M953" s="1"/>
       <c r="N953" s="1"/>
     </row>
-    <row r="954" spans="1:14" ht="15.75" customHeight="true">
+    <row r="954" spans="1:14" ht="15.75" customHeight="1">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -16492,7 +16562,7 @@
       <c r="M954" s="1"/>
       <c r="N954" s="1"/>
     </row>
-    <row r="955" spans="1:14" ht="15.75" customHeight="true">
+    <row r="955" spans="1:14" ht="15.75" customHeight="1">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -16508,7 +16578,7 @@
       <c r="M955" s="1"/>
       <c r="N955" s="1"/>
     </row>
-    <row r="956" spans="1:14" ht="15.75" customHeight="true">
+    <row r="956" spans="1:14" ht="15.75" customHeight="1">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -16524,7 +16594,7 @@
       <c r="M956" s="1"/>
       <c r="N956" s="1"/>
     </row>
-    <row r="957" spans="1:14" ht="15.75" customHeight="true">
+    <row r="957" spans="1:14" ht="15.75" customHeight="1">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -16540,7 +16610,7 @@
       <c r="M957" s="1"/>
       <c r="N957" s="1"/>
     </row>
-    <row r="958" spans="1:14" ht="15.75" customHeight="true">
+    <row r="958" spans="1:14" ht="15.75" customHeight="1">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -16556,7 +16626,7 @@
       <c r="M958" s="1"/>
       <c r="N958" s="1"/>
     </row>
-    <row r="959" spans="1:14" ht="15.75" customHeight="true">
+    <row r="959" spans="1:14" ht="15.75" customHeight="1">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -16572,7 +16642,7 @@
       <c r="M959" s="1"/>
       <c r="N959" s="1"/>
     </row>
-    <row r="960" spans="1:14" ht="15.75" customHeight="true">
+    <row r="960" spans="1:14" ht="15.75" customHeight="1">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -16588,7 +16658,7 @@
       <c r="M960" s="1"/>
       <c r="N960" s="1"/>
     </row>
-    <row r="961" spans="1:14" ht="15.75" customHeight="true">
+    <row r="961" spans="1:14" ht="15.75" customHeight="1">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -16604,7 +16674,7 @@
       <c r="M961" s="1"/>
       <c r="N961" s="1"/>
     </row>
-    <row r="962" spans="1:14" ht="15.75" customHeight="true">
+    <row r="962" spans="1:14" ht="15.75" customHeight="1">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -16620,7 +16690,7 @@
       <c r="M962" s="1"/>
       <c r="N962" s="1"/>
     </row>
-    <row r="963" spans="1:14" ht="15.75" customHeight="true">
+    <row r="963" spans="1:14" ht="15.75" customHeight="1">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -16636,7 +16706,7 @@
       <c r="M963" s="1"/>
       <c r="N963" s="1"/>
     </row>
-    <row r="964" spans="1:14" ht="15.75" customHeight="true">
+    <row r="964" spans="1:14" ht="15.75" customHeight="1">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -16652,7 +16722,7 @@
       <c r="M964" s="1"/>
       <c r="N964" s="1"/>
     </row>
-    <row r="965" spans="1:14" ht="15.75" customHeight="true">
+    <row r="965" spans="1:14" ht="15.75" customHeight="1">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -16668,7 +16738,7 @@
       <c r="M965" s="1"/>
       <c r="N965" s="1"/>
     </row>
-    <row r="966" spans="1:14" ht="15.75" customHeight="true">
+    <row r="966" spans="1:14" ht="15.75" customHeight="1">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -16684,7 +16754,7 @@
       <c r="M966" s="1"/>
       <c r="N966" s="1"/>
     </row>
-    <row r="967" spans="1:14" ht="15.75" customHeight="true">
+    <row r="967" spans="1:14" ht="15.75" customHeight="1">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -16700,7 +16770,7 @@
       <c r="M967" s="1"/>
       <c r="N967" s="1"/>
     </row>
-    <row r="968" spans="1:14" ht="15.75" customHeight="true">
+    <row r="968" spans="1:14" ht="15.75" customHeight="1">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -16716,7 +16786,7 @@
       <c r="M968" s="1"/>
       <c r="N968" s="1"/>
     </row>
-    <row r="969" spans="1:14" ht="15.75" customHeight="true">
+    <row r="969" spans="1:14" ht="15.75" customHeight="1">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -16732,7 +16802,7 @@
       <c r="M969" s="1"/>
       <c r="N969" s="1"/>
     </row>
-    <row r="970" spans="1:14" ht="15.75" customHeight="true">
+    <row r="970" spans="1:14" ht="15.75" customHeight="1">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -16748,7 +16818,7 @@
       <c r="M970" s="1"/>
       <c r="N970" s="1"/>
     </row>
-    <row r="971" spans="1:14" ht="15.75" customHeight="true">
+    <row r="971" spans="1:14" ht="15.75" customHeight="1">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -16764,7 +16834,7 @@
       <c r="M971" s="1"/>
       <c r="N971" s="1"/>
     </row>
-    <row r="972" spans="1:14" ht="15.75" customHeight="true">
+    <row r="972" spans="1:14" ht="15.75" customHeight="1">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -16780,7 +16850,7 @@
       <c r="M972" s="1"/>
       <c r="N972" s="1"/>
     </row>
-    <row r="973" spans="1:14" ht="15.75" customHeight="true">
+    <row r="973" spans="1:14" ht="15.75" customHeight="1">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -16796,7 +16866,7 @@
       <c r="M973" s="1"/>
       <c r="N973" s="1"/>
     </row>
-    <row r="974" spans="1:14" ht="15.75" customHeight="true">
+    <row r="974" spans="1:14" ht="15.75" customHeight="1">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -16812,7 +16882,7 @@
       <c r="M974" s="1"/>
       <c r="N974" s="1"/>
     </row>
-    <row r="975" spans="1:14" ht="15.75" customHeight="true">
+    <row r="975" spans="1:14" ht="15.75" customHeight="1">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -16828,7 +16898,7 @@
       <c r="M975" s="1"/>
       <c r="N975" s="1"/>
     </row>
-    <row r="976" spans="1:14" ht="15.75" customHeight="true">
+    <row r="976" spans="1:14" ht="15.75" customHeight="1">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -16844,7 +16914,7 @@
       <c r="M976" s="1"/>
       <c r="N976" s="1"/>
     </row>
-    <row r="977" spans="1:14" ht="15.75" customHeight="true">
+    <row r="977" spans="1:14" ht="15.75" customHeight="1">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -16860,7 +16930,7 @@
       <c r="M977" s="1"/>
       <c r="N977" s="1"/>
     </row>
-    <row r="978" spans="1:14" ht="15.75" customHeight="true">
+    <row r="978" spans="1:14" ht="15.75" customHeight="1">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -16876,7 +16946,7 @@
       <c r="M978" s="1"/>
       <c r="N978" s="1"/>
     </row>
-    <row r="979" spans="1:14" ht="15.75" customHeight="true">
+    <row r="979" spans="1:14" ht="15.75" customHeight="1">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -16892,7 +16962,7 @@
       <c r="M979" s="1"/>
       <c r="N979" s="1"/>
     </row>
-    <row r="980" spans="1:14" ht="15.75" customHeight="true">
+    <row r="980" spans="1:14" ht="15.75" customHeight="1">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -16908,7 +16978,7 @@
       <c r="M980" s="1"/>
       <c r="N980" s="1"/>
     </row>
-    <row r="981" spans="1:14" ht="15.75" customHeight="true">
+    <row r="981" spans="1:14" ht="15.75" customHeight="1">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -16924,7 +16994,7 @@
       <c r="M981" s="1"/>
       <c r="N981" s="1"/>
     </row>
-    <row r="982" spans="1:14" ht="15.75" customHeight="true">
+    <row r="982" spans="1:14" ht="15.75" customHeight="1">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -16940,7 +17010,7 @@
       <c r="M982" s="1"/>
       <c r="N982" s="1"/>
     </row>
-    <row r="983" spans="1:14" ht="15.75" customHeight="true">
+    <row r="983" spans="1:14" ht="15.75" customHeight="1">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -16956,7 +17026,7 @@
       <c r="M983" s="1"/>
       <c r="N983" s="1"/>
     </row>
-    <row r="984" spans="1:14" ht="15.75" customHeight="true">
+    <row r="984" spans="1:14" ht="15.75" customHeight="1">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -16972,7 +17042,7 @@
       <c r="M984" s="1"/>
       <c r="N984" s="1"/>
     </row>
-    <row r="985" spans="1:14" ht="15.75" customHeight="true">
+    <row r="985" spans="1:14" ht="15.75" customHeight="1">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -16988,7 +17058,7 @@
       <c r="M985" s="1"/>
       <c r="N985" s="1"/>
     </row>
-    <row r="986" spans="1:14" ht="15.75" customHeight="true">
+    <row r="986" spans="1:14" ht="15.75" customHeight="1">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -17004,7 +17074,7 @@
       <c r="M986" s="1"/>
       <c r="N986" s="1"/>
     </row>
-    <row r="987" spans="1:14" ht="15.75" customHeight="true">
+    <row r="987" spans="1:14" ht="15.75" customHeight="1">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -17020,7 +17090,7 @@
       <c r="M987" s="1"/>
       <c r="N987" s="1"/>
     </row>
-    <row r="988" spans="1:14" ht="15.75" customHeight="true">
+    <row r="988" spans="1:14" ht="15.75" customHeight="1">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -17036,7 +17106,7 @@
       <c r="M988" s="1"/>
       <c r="N988" s="1"/>
     </row>
-    <row r="989" spans="1:14" ht="15.75" customHeight="true">
+    <row r="989" spans="1:14" ht="15.75" customHeight="1">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -17052,7 +17122,7 @@
       <c r="M989" s="1"/>
       <c r="N989" s="1"/>
     </row>
-    <row r="990" spans="1:14" ht="15.75" customHeight="true">
+    <row r="990" spans="1:14" ht="15.75" customHeight="1">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -17068,7 +17138,7 @@
       <c r="M990" s="1"/>
       <c r="N990" s="1"/>
     </row>
-    <row r="991" spans="1:14" ht="15.75" customHeight="true">
+    <row r="991" spans="1:14" ht="15.75" customHeight="1">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -17084,7 +17154,7 @@
       <c r="M991" s="1"/>
       <c r="N991" s="1"/>
     </row>
-    <row r="992" spans="1:14" ht="15.75" customHeight="true">
+    <row r="992" spans="1:14" ht="15.75" customHeight="1">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -17100,7 +17170,7 @@
       <c r="M992" s="1"/>
       <c r="N992" s="1"/>
     </row>
-    <row r="993" spans="1:14" ht="15.75" customHeight="true">
+    <row r="993" spans="1:14" ht="15.75" customHeight="1">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -17116,232 +17186,8 @@
       <c r="M993" s="1"/>
       <c r="N993" s="1"/>
     </row>
-    <row r="994" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-    </row>
-    <row r="995" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-    </row>
-    <row r="996" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-    </row>
-    <row r="997" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-    </row>
-    <row r="998" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-    </row>
-    <row r="999" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-    </row>
-    <row r="1000" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="1"/>
-      <c r="G1004" s="1"/>
-      <c r="H1004" s="1"/>
-      <c r="I1004" s="1"/>
-      <c r="J1004" s="1"/>
-      <c r="K1004" s="1"/>
-      <c r="L1004" s="1"/>
-      <c r="M1004" s="1"/>
-      <c r="N1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1005" s="1"/>
-      <c r="B1005" s="1"/>
-      <c r="C1005" s="1"/>
-      <c r="D1005" s="1"/>
-      <c r="E1005" s="1"/>
-      <c r="F1005" s="1"/>
-      <c r="G1005" s="1"/>
-      <c r="H1005" s="1"/>
-      <c r="I1005" s="1"/>
-      <c r="J1005" s="1"/>
-      <c r="K1005" s="1"/>
-      <c r="L1005" s="1"/>
-      <c r="M1005" s="1"/>
-      <c r="N1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1"/>
-      <c r="F1006" s="1"/>
-      <c r="G1006" s="1"/>
-      <c r="H1006" s="1"/>
-      <c r="I1006" s="1"/>
-      <c r="J1006" s="1"/>
-      <c r="K1006" s="1"/>
-      <c r="L1006" s="1"/>
-      <c r="M1006" s="1"/>
-      <c r="N1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:14" ht="15.75" customHeight="true">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="1"/>
-      <c r="G1007" s="1"/>
-      <c r="H1007" s="1"/>
-      <c r="I1007" s="1"/>
-      <c r="J1007" s="1"/>
-      <c r="K1007" s="1"/>
-      <c r="L1007" s="1"/>
-      <c r="M1007" s="1"/>
-      <c r="N1007" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="39">
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
@@ -17353,8 +17199,9 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="G53:K53"/>
     <mergeCell ref="A37:B39"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="I25:J25"/>
@@ -17366,7 +17213,9 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="G9:H9"/>
@@ -17378,19 +17227,14 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C37:H39"/>
-    <mergeCell ref="A50:K53"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A57:K59"/>
-    <mergeCell ref="A61:K61"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:K3" display="Tel: +886 (7) 8060232  Fax: +886 (7) 8039592" r:id="rId1"/>
+    <hyperlink ref="A3:K3" r:id="rId1" display="Tel: +886 (7) 8060232  Fax: +886 (7) 8039592" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions horizontalCentered="true"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.36365118008373154" right="0.40643367185828816" top="0.21716328610893623" bottom="0.43852054068920565" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" r:id="rId2" orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>